--- a/anonymization_results.xlsx
+++ b/anonymization_results.xlsx
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.04716777801513672</v>
+        <v>0.06638073921203613</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1305642127990723</v>
+        <v>0.1141207218170166</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02218985557556152</v>
+        <v>0.0210425853729248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0644996166229248</v>
+        <v>0.05927252769470215</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.009035587310791016</v>
+        <v>0.008315563201904297</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05074310302734375</v>
+        <v>0.05918192863464355</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.03410863876342773</v>
+        <v>0.03002786636352539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0625298023223877</v>
+        <v>0.06928396224975586</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.008592844009399414</v>
+        <v>0.008691310882568359</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04335951805114746</v>
+        <v>0.03603982925415039</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.00682520866394043</v>
+        <v>0.007216691970825195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09743857383728027</v>
+        <v>0.04325532913208008</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.01214718818664551</v>
+        <v>0.009529352188110352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05499148368835449</v>
+        <v>0.03988027572631836</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.04689621925354004</v>
+        <v>0.04598307609558105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1380326747894287</v>
+        <v>0.07875442504882812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.008942365646362305</v>
+        <v>0.009463071823120117</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04000377655029297</v>
+        <v>0.03817510604858398</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.00767207145690918</v>
+        <v>0.008533477783203125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1209962368011475</v>
+        <v>0.03811287879943848</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01516389846801758</v>
+        <v>0.01183104515075684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04399871826171875</v>
+        <v>0.04121136665344238</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01527857780456543</v>
+        <v>0.01251935958862305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04399967193603516</v>
+        <v>0.04420685768127441</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.01475334167480469</v>
+        <v>0.01803159713745117</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1349973678588867</v>
+        <v>0.06937074661254883</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.00721430778503418</v>
+        <v>0.00783228874206543</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0380094051361084</v>
+        <v>0.03919196128845215</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.006365299224853516</v>
+        <v>0.007010221481323242</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09199404716491699</v>
+        <v>0.05509018898010254</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.02317142486572266</v>
+        <v>0.02591061592102051</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06898355484008789</v>
+        <v>0.09524106979370117</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.008285999298095703</v>
+        <v>0.006687164306640625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1199958324432373</v>
+        <v>0.04699540138244629</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.006081819534301758</v>
+        <v>0.006030082702636719</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06199526786804199</v>
+        <v>0.03906369209289551</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.006518125534057617</v>
+        <v>0.009370326995849609</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04102945327758789</v>
+        <v>0.05000042915344238</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.01147246360778809</v>
+        <v>0.008754968643188477</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0409998893737793</v>
+        <v>0.04105305671691895</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.007944107055664062</v>
+        <v>0.007654190063476562</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05999302864074707</v>
+        <v>0.05826210975646973</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01344156265258789</v>
+        <v>0.01933622360229492</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04499912261962891</v>
+        <v>0.457679271697998</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.01156020164489746</v>
+        <v>0.0129084587097168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07100296020507812</v>
+        <v>0.04218125343322754</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.01451539993286133</v>
+        <v>0.01481032371520996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04892849922180176</v>
+        <v>0.04864668846130371</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0148160457611084</v>
+        <v>0.01281476020812988</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04786038398742676</v>
+        <v>0.04831290245056152</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.01087236404418945</v>
+        <v>0.01173567771911621</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09286785125732422</v>
+        <v>0.03841519355773926</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.01194953918457031</v>
+        <v>0.01002311706542969</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0445249080657959</v>
+        <v>0.07169771194458008</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.007374286651611328</v>
+        <v>0.008545160293579102</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04399681091308594</v>
+        <v>0.03870654106140137</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.01361989974975586</v>
+        <v>0.01529359817504883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09600329399108887</v>
+        <v>0.04387807846069336</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.02570056915283203</v>
+        <v>0.02743625640869141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1800031661987305</v>
+        <v>0.06008529663085938</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.006493568420410156</v>
+        <v>0.006808757781982422</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04013729095458984</v>
+        <v>0.06521272659301758</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.009627819061279297</v>
+        <v>0.009498834609985352</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05938029289245605</v>
+        <v>0.04109859466552734</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.009355068206787109</v>
+        <v>0.009567022323608398</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0312650203704834</v>
+        <v>0.03921890258789062</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.007094383239746094</v>
+        <v>0.007530927658081055</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1534252166748047</v>
+        <v>0.04901504516601562</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.0222465991973877</v>
+        <v>0.02235889434814453</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05100798606872559</v>
+        <v>0.05207228660583496</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.006206035614013672</v>
+        <v>0.007570981979370117</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03699374198913574</v>
+        <v>0.03374838829040527</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.01297330856323242</v>
+        <v>0.008167028427124023</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04301118850708008</v>
+        <v>0.03545880317687988</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.02036046981811523</v>
+        <v>0.01734328269958496</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05400371551513672</v>
+        <v>0.04709815979003906</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.01947784423828125</v>
+        <v>0.01673603057861328</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07000827789306641</v>
+        <v>0.06403136253356934</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.02730655670166016</v>
+        <v>0.0245664119720459</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05701065063476562</v>
+        <v>0.05200481414794922</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.02916288375854492</v>
+        <v>0.02623629570007324</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08136129379272461</v>
+        <v>0.05447149276733398</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.01665663719177246</v>
+        <v>0.01983118057250977</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05128383636474609</v>
+        <v>0.05044746398925781</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.01023268699645996</v>
+        <v>0.007918596267700195</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03820300102233887</v>
+        <v>0.03655481338500977</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.007934808731079102</v>
+        <v>0.007439374923706055</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05200338363647461</v>
+        <v>0.0360114574432373</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.01342511177062988</v>
+        <v>0.01202273368835449</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04085445404052734</v>
+        <v>0.0446324348449707</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.009222030639648438</v>
+        <v>0.009143352508544922</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0434722900390625</v>
+        <v>0.04114103317260742</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.02715778350830078</v>
+        <v>0.02189159393310547</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07199859619140625</v>
+        <v>0.04923892021179199</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.009318113327026367</v>
+        <v>0.00908350944519043</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03599834442138672</v>
+        <v>0.03569936752319336</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.0142824649810791</v>
+        <v>0.01176977157592773</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07299542427062988</v>
+        <v>0.04028868675231934</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.007571697235107422</v>
+        <v>0.00696873664855957</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05126357078552246</v>
+        <v>0.04160404205322266</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.01263022422790527</v>
+        <v>0.009639978408813477</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04614067077636719</v>
+        <v>0.0369570255279541</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.007414817810058594</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05726790428161621</v>
+        <v>0.03209996223449707</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.01307821273803711</v>
+        <v>0.01303267478942871</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04305171966552734</v>
+        <v>0.04213619232177734</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.00849461555480957</v>
+        <v>0.008151054382324219</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05528593063354492</v>
+        <v>0.03714752197265625</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.007609844207763672</v>
+        <v>0.0070648193359375</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07019710540771484</v>
+        <v>0.03511166572570801</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.01774811744689941</v>
+        <v>0.0180351734161377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04744625091552734</v>
+        <v>0.04958558082580566</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.008040428161621094</v>
+        <v>0.006753444671630859</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03703975677490234</v>
+        <v>0.03783845901489258</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.007910013198852539</v>
+        <v>0.008188486099243164</v>
       </c>
       <c r="F59" t="n">
-        <v>0.03582406044006348</v>
+        <v>0.05821776390075684</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.03615736961364746</v>
+        <v>0.02364897727966309</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1332800388336182</v>
+        <v>0.05779361724853516</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.005610942840576172</v>
+        <v>0.00510716438293457</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07033824920654297</v>
+        <v>0.05124950408935547</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.03110551834106445</v>
+        <v>0.02507543563842773</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06960821151733398</v>
+        <v>0.05303406715393066</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.02672648429870605</v>
+        <v>0.02786445617675781</v>
       </c>
       <c r="F63" t="n">
-        <v>3.168359756469727</v>
+        <v>0.08534526824951172</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.01346158981323242</v>
+        <v>0.01334309577941895</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04323220252990723</v>
+        <v>0.05866193771362305</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.01070690155029297</v>
+        <v>0.0112464427947998</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06034255027770996</v>
+        <v>0.04369831085205078</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.009423255920410156</v>
+        <v>0.008740901947021484</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05627155303955078</v>
+        <v>0.03726363182067871</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.007511377334594727</v>
+        <v>0.008030176162719727</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04416251182556152</v>
+        <v>0.04239034652709961</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.005183696746826172</v>
+        <v>0.005593538284301758</v>
       </c>
       <c r="F68" t="n">
-        <v>0.04119443893432617</v>
+        <v>0.03904056549072266</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.01989316940307617</v>
+        <v>0.01995325088500977</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0463554859161377</v>
+        <v>0.09707236289978027</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.01485562324523926</v>
+        <v>0.01297974586486816</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04555964469909668</v>
+        <v>0.04200077056884766</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.007161617279052734</v>
+        <v>0.0076446533203125</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03637528419494629</v>
+        <v>0.03811335563659668</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.01068353652954102</v>
+        <v>0.009608268737792969</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04380941390991211</v>
+        <v>0.0602874755859375</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.007917404174804688</v>
+        <v>0.008283376693725586</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04700279235839844</v>
+        <v>0.04718422889709473</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.02704477310180664</v>
+        <v>0.01685237884521484</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0560610294342041</v>
+        <v>0.04721951484680176</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.01119089126586914</v>
+        <v>0.009779214859008789</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03922700881958008</v>
+        <v>0.0599977970123291</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.007337331771850586</v>
+        <v>0.00861668586730957</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07542061805725098</v>
+        <v>0.06500387191772461</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.006922483444213867</v>
+        <v>0.006883859634399414</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05018711090087891</v>
+        <v>0.03299999237060547</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.01340270042419434</v>
+        <v>0.01511263847351074</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04626822471618652</v>
+        <v>0.04407072067260742</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.005337715148925781</v>
+        <v>0.005625724792480469</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03204941749572754</v>
+        <v>0.03525781631469727</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.006645679473876953</v>
+        <v>0.006374359130859375</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0654139518737793</v>
+        <v>0.03307318687438965</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.009619235992431641</v>
+        <v>0.01082491874694824</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05668544769287109</v>
+        <v>0.04119610786437988</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.02033829689025879</v>
+        <v>0.01838827133178711</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08155369758605957</v>
+        <v>0.05028128623962402</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.02713465690612793</v>
+        <v>0.02564215660095215</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1045653820037842</v>
+        <v>0.05418753623962402</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.02473545074462891</v>
+        <v>0.0232536792755127</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1659541130065918</v>
+        <v>0.126514196395874</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.02241754531860352</v>
+        <v>0.01879477500915527</v>
       </c>
       <c r="F85" t="n">
-        <v>0.05320382118225098</v>
+        <v>0.05020689964294434</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.01494908332824707</v>
+        <v>0.01285696029663086</v>
       </c>
       <c r="F86" t="n">
-        <v>0.05014276504516602</v>
+        <v>0.04462766647338867</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.01768875122070312</v>
+        <v>0.01573324203491211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.06048345565795898</v>
+        <v>0.07682466506958008</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.01456713676452637</v>
+        <v>0.01194906234741211</v>
       </c>
       <c r="F88" t="n">
-        <v>0.05268430709838867</v>
+        <v>0.03809976577758789</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.02103066444396973</v>
+        <v>0.01485466957092285</v>
       </c>
       <c r="F89" t="n">
-        <v>0.06029486656188965</v>
+        <v>0.0452275276184082</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.01207566261291504</v>
+        <v>0.01389360427856445</v>
       </c>
       <c r="F90" t="n">
-        <v>0.05881357192993164</v>
+        <v>0.06531047821044922</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.009584903717041016</v>
+        <v>0.01133036613464355</v>
       </c>
       <c r="F91" t="n">
-        <v>0.07740306854248047</v>
+        <v>0.04616594314575195</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.01718831062316895</v>
+        <v>0.01349496841430664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07430005073547363</v>
+        <v>0.04820156097412109</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.02037501335144043</v>
+        <v>0.02189731597900391</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04936027526855469</v>
+        <v>0.05120468139648438</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.01922178268432617</v>
+        <v>0.02069449424743652</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05121731758117676</v>
+        <v>0.05144214630126953</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.01084709167480469</v>
+        <v>0.008843421936035156</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07312178611755371</v>
+        <v>0.03777170181274414</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.008278131484985352</v>
+        <v>0.008203268051147461</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03910636901855469</v>
+        <v>0.04351687431335449</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.0253903865814209</v>
+        <v>0.02762055397033691</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05527234077453613</v>
+        <v>0.06099963188171387</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.01688909530639648</v>
+        <v>0.01258325576782227</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07574343681335449</v>
+        <v>0.04499411582946777</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.007072687149047852</v>
+        <v>0.006697416305541992</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0727229118347168</v>
+        <v>0.03611969947814941</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.006410837173461914</v>
+        <v>0.008253812789916992</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04683852195739746</v>
+        <v>0.04017496109008789</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.0151524543762207</v>
+        <v>0.01361298561096191</v>
       </c>
       <c r="F101" t="n">
-        <v>0.04219579696655273</v>
+        <v>0.04533481597900391</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.04036760330200195</v>
+        <v>0.02809906005859375</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09887957572937012</v>
+        <v>0.07936596870422363</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.0079193115234375</v>
+        <v>0.007964372634887695</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03637242317199707</v>
+        <v>0.04010486602783203</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.007622241973876953</v>
+        <v>0.006889104843139648</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03533387184143066</v>
+        <v>0.03321933746337891</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.0209956169128418</v>
+        <v>0.01702046394348145</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06624269485473633</v>
+        <v>0.04575252532958984</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.009997129440307617</v>
+        <v>0.01082062721252441</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04249739646911621</v>
+        <v>0.06602859497070312</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4005,10 +4005,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.01227188110351562</v>
+        <v>0.01648998260498047</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1246004104614258</v>
+        <v>0.0662696361541748</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.009135007858276367</v>
+        <v>0.01125836372375488</v>
       </c>
       <c r="F108" t="n">
-        <v>0.05278182029724121</v>
+        <v>0.04116988182067871</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.01186084747314453</v>
+        <v>0.007701873779296875</v>
       </c>
       <c r="F109" t="n">
-        <v>0.04422807693481445</v>
+        <v>0.04018521308898926</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.01387190818786621</v>
+        <v>0.01279878616333008</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05927181243896484</v>
+        <v>0.04510617256164551</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.01049017906188965</v>
+        <v>0.009987115859985352</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0545346736907959</v>
+        <v>0.06881833076477051</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.05842280387878418</v>
+        <v>0.05134892463684082</v>
       </c>
       <c r="F112" t="n">
-        <v>0.08835601806640625</v>
+        <v>0.07908296585083008</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.01151299476623535</v>
+        <v>0.01730704307556152</v>
       </c>
       <c r="F113" t="n">
-        <v>0.04413604736328125</v>
+        <v>0.04612278938293457</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.006414890289306641</v>
+        <v>0.007491827011108398</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05919647216796875</v>
+        <v>0.04891228675842285</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.03822231292724609</v>
+        <v>0.0526587963104248</v>
       </c>
       <c r="F115" t="n">
-        <v>0.06799864768981934</v>
+        <v>0.08644700050354004</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.006158590316772461</v>
+        <v>0.006581544876098633</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03299927711486816</v>
+        <v>0.03711485862731934</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4360,10 +4360,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.005971193313598633</v>
+        <v>0.006752490997314453</v>
       </c>
       <c r="F117" t="n">
-        <v>0.03717136383056641</v>
+        <v>0.03519892692565918</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.005971193313598633</v>
+        <v>0.005802154541015625</v>
       </c>
       <c r="F118" t="n">
-        <v>0.03414607048034668</v>
+        <v>0.04030585289001465</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.006819486618041992</v>
+        <v>0.008021116256713867</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03413105010986328</v>
+        <v>0.04161977767944336</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.008477210998535156</v>
+        <v>0.008992433547973633</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05098176002502441</v>
+        <v>0.04448151588439941</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.01162290573120117</v>
+        <v>0.01074957847595215</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04071879386901855</v>
+        <v>0.05044007301330566</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.01761937141418457</v>
+        <v>0.01617884635925293</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04976415634155273</v>
+        <v>0.04698801040649414</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.01090693473815918</v>
+        <v>0.01080679893493652</v>
       </c>
       <c r="F123" t="n">
-        <v>0.03918790817260742</v>
+        <v>0.04208040237426758</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.01057839393615723</v>
+        <v>0.009920120239257812</v>
       </c>
       <c r="F124" t="n">
-        <v>0.07034564018249512</v>
+        <v>0.04020905494689941</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.05091047286987305</v>
+        <v>0.07230067253112793</v>
       </c>
       <c r="F125" t="n">
-        <v>0.09027409553527832</v>
+        <v>0.1034610271453857</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.01952624320983887</v>
+        <v>0.01533174514770508</v>
       </c>
       <c r="F126" t="n">
-        <v>0.04951047897338867</v>
+        <v>0.06578683853149414</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4726,10 +4726,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.03528165817260742</v>
+        <v>0.03544950485229492</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0654456615447998</v>
+        <v>0.09928083419799805</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.01144671440124512</v>
+        <v>0.01277947425842285</v>
       </c>
       <c r="F128" t="n">
-        <v>0.04213166236877441</v>
+        <v>0.0919194221496582</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.01298356056213379</v>
+        <v>0.01629781723022461</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03815960884094238</v>
+        <v>0.06200337409973145</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.01336264610290527</v>
+        <v>0.01434016227722168</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0433967113494873</v>
+        <v>0.04800105094909668</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.01306843757629395</v>
+        <v>0.01571893692016602</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0453193187713623</v>
+        <v>0.1706821918487549</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.0180058479309082</v>
+        <v>0.01877999305725098</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04925227165222168</v>
+        <v>0.1125106811523438</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.01502370834350586</v>
+        <v>0.01666021347045898</v>
       </c>
       <c r="F133" t="n">
-        <v>0.08435750007629395</v>
+        <v>0.05502986907958984</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.01148056983947754</v>
+        <v>0.0123136043548584</v>
       </c>
       <c r="F134" t="n">
-        <v>0.06424760818481445</v>
+        <v>0.07431364059448242</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4988,10 +4988,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.02516889572143555</v>
+        <v>0.02471208572387695</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05312061309814453</v>
+        <v>0.1145796775817871</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.01417160034179688</v>
+        <v>0.01301336288452148</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0440065860748291</v>
+        <v>0.04112505912780762</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.009535312652587891</v>
+        <v>0.007120370864868164</v>
       </c>
       <c r="F137" t="n">
-        <v>0.04200124740600586</v>
+        <v>0.03814911842346191</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.02617883682250977</v>
+        <v>0.0184319019317627</v>
       </c>
       <c r="F138" t="n">
-        <v>0.05820012092590332</v>
+        <v>0.04825329780578613</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5120,10 +5120,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.02928614616394043</v>
+        <v>0.0245966911315918</v>
       </c>
       <c r="F139" t="n">
-        <v>0.06114411354064941</v>
+        <v>0.06723284721374512</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.0129387378692627</v>
+        <v>0.01163387298583984</v>
       </c>
       <c r="F140" t="n">
-        <v>0.04119181632995605</v>
+        <v>0.04586601257324219</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.009136199951171875</v>
+        <v>0.009723186492919922</v>
       </c>
       <c r="F141" t="n">
-        <v>0.04876160621643066</v>
+        <v>0.06521749496459961</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.007134914398193359</v>
+        <v>0.006569862365722656</v>
       </c>
       <c r="F142" t="n">
-        <v>0.03847908973693848</v>
+        <v>0.05923581123352051</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.009360074996948242</v>
+        <v>0.008390188217163086</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04090452194213867</v>
+        <v>0.04211044311523438</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5277,10 +5277,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.009696483612060547</v>
+        <v>0.01044011116027832</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04035282135009766</v>
+        <v>0.04219222068786621</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.008872032165527344</v>
+        <v>0.01149821281433105</v>
       </c>
       <c r="F145" t="n">
-        <v>0.05462837219238281</v>
+        <v>0.05832433700561523</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.007633209228515625</v>
+        <v>0.008074760437011719</v>
       </c>
       <c r="F146" t="n">
-        <v>0.03979253768920898</v>
+        <v>0.04014682769775391</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.007174968719482422</v>
+        <v>0.008791208267211914</v>
       </c>
       <c r="F147" t="n">
-        <v>0.03657889366149902</v>
+        <v>0.03828287124633789</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.006862163543701172</v>
+        <v>0.007083415985107422</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03699970245361328</v>
+        <v>0.03609180450439453</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.005869865417480469</v>
+        <v>0.006599903106689453</v>
       </c>
       <c r="F149" t="n">
-        <v>0.05527448654174805</v>
+        <v>0.03733277320861816</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5473,10 +5473,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.02303814888000488</v>
+        <v>0.02140378952026367</v>
       </c>
       <c r="F150" t="n">
-        <v>0.05425095558166504</v>
+        <v>0.04818582534790039</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.01077127456665039</v>
+        <v>0.01082086563110352</v>
       </c>
       <c r="F151" t="n">
-        <v>0.08533477783203125</v>
+        <v>0.0431666374206543</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.01201033592224121</v>
+        <v>0.01045346260070801</v>
       </c>
       <c r="F152" t="n">
-        <v>0.04853177070617676</v>
+        <v>0.1950128078460693</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.00797724723815918</v>
+        <v>0.01005649566650391</v>
       </c>
       <c r="F153" t="n">
-        <v>0.03625655174255371</v>
+        <v>0.07229876518249512</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.01126766204833984</v>
+        <v>0.0161585807800293</v>
       </c>
       <c r="F154" t="n">
-        <v>0.05316805839538574</v>
+        <v>0.06772828102111816</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.009022951126098633</v>
+        <v>0.007709980010986328</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03619241714477539</v>
+        <v>0.03817129135131836</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.01342511177062988</v>
+        <v>0.0155031681060791</v>
       </c>
       <c r="F156" t="n">
-        <v>0.06117939949035645</v>
+        <v>0.04999041557312012</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.01405239105224609</v>
+        <v>0.01751470565795898</v>
       </c>
       <c r="F157" t="n">
-        <v>0.05037641525268555</v>
+        <v>0.05226922035217285</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.01445293426513672</v>
+        <v>0.01496291160583496</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04515314102172852</v>
+        <v>0.04519391059875488</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.0112154483795166</v>
+        <v>0.01008105278015137</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04513287544250488</v>
+        <v>0.04113483428955078</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.01205110549926758</v>
+        <v>0.01198482513427734</v>
       </c>
       <c r="F160" t="n">
-        <v>0.06240582466125488</v>
+        <v>1.061679124832153</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.02091121673583984</v>
+        <v>0.01985859870910645</v>
       </c>
       <c r="F161" t="n">
-        <v>0.07029128074645996</v>
+        <v>0.07709717750549316</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.008277654647827148</v>
+        <v>0.008229255676269531</v>
       </c>
       <c r="F162" t="n">
-        <v>0.05011415481567383</v>
+        <v>0.3115103244781494</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.007044792175292969</v>
+        <v>0.01039862632751465</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04802918434143066</v>
+        <v>0.03799962997436523</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.009966135025024414</v>
+        <v>0.00894927978515625</v>
       </c>
       <c r="F164" t="n">
-        <v>0.03804731369018555</v>
+        <v>0.04926943778991699</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.008922815322875977</v>
+        <v>0.00687861442565918</v>
       </c>
       <c r="F165" t="n">
-        <v>0.06931257247924805</v>
+        <v>0.03713130950927734</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.0100243091583252</v>
+        <v>0.009955883026123047</v>
       </c>
       <c r="F166" t="n">
-        <v>0.05575656890869141</v>
+        <v>0.04020309448242188</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.01661467552185059</v>
+        <v>0.02313685417175293</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0597379207611084</v>
+        <v>0.05131673812866211</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -6071,10 +6071,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.01059246063232422</v>
+        <v>0.01280665397644043</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04149842262268066</v>
+        <v>0.04315304756164551</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.009301662445068359</v>
+        <v>0.008552074432373047</v>
       </c>
       <c r="F169" t="n">
-        <v>0.03719782829284668</v>
+        <v>0.03856372833251953</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6141,10 +6141,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.009487628936767578</v>
+        <v>0.00879979133605957</v>
       </c>
       <c r="F170" t="n">
-        <v>0.03715324401855469</v>
+        <v>0.03684353828430176</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.01228976249694824</v>
+        <v>0.01163268089294434</v>
       </c>
       <c r="F171" t="n">
-        <v>0.04221892356872559</v>
+        <v>0.03747725486755371</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.03809523582458496</v>
+        <v>0.03305530548095703</v>
       </c>
       <c r="F172" t="n">
-        <v>0.09241938591003418</v>
+        <v>0.06392621994018555</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.05152201652526855</v>
+        <v>0.05158591270446777</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0834805965423584</v>
+        <v>0.08044600486755371</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.006153345108032227</v>
+        <v>0.005593538284301758</v>
       </c>
       <c r="F174" t="n">
-        <v>0.06952476501464844</v>
+        <v>0.0470883846282959</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.03121352195739746</v>
+        <v>0.02914786338806152</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0603020191192627</v>
+        <v>0.06027841567993164</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.01336789131164551</v>
+        <v>0.01377773284912109</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04239916801452637</v>
+        <v>0.04012966156005859</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.01652121543884277</v>
+        <v>0.01496005058288574</v>
       </c>
       <c r="F177" t="n">
-        <v>0.04765033721923828</v>
+        <v>0.0442044734954834</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.01821446418762207</v>
+        <v>0.01727819442749023</v>
       </c>
       <c r="F178" t="n">
-        <v>0.08858394622802734</v>
+        <v>0.04615354537963867</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.01781129837036133</v>
+        <v>0.01758599281311035</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0494537353515625</v>
+        <v>0.04833507537841797</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.01401233673095703</v>
+        <v>0.01320266723632812</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1114659309387207</v>
+        <v>0.03994154930114746</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6547,10 +6547,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.01331996917724609</v>
+        <v>0.0109553337097168</v>
       </c>
       <c r="F181" t="n">
-        <v>0.04300308227539062</v>
+        <v>0.05020546913146973</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.01005053520202637</v>
+        <v>0.01247978210449219</v>
       </c>
       <c r="F182" t="n">
-        <v>0.07338571548461914</v>
+        <v>0.0427701473236084</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6633,10 +6633,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.04302144050598145</v>
+        <v>0.06046676635742188</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0762939453125</v>
+        <v>0.08947110176086426</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.01487350463867188</v>
+        <v>0.01606273651123047</v>
       </c>
       <c r="F184" t="n">
-        <v>0.04346251487731934</v>
+        <v>0.06630373001098633</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.02264690399169922</v>
+        <v>0.03488731384277344</v>
       </c>
       <c r="F185" t="n">
-        <v>0.08313202857971191</v>
+        <v>0.06430196762084961</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.01318669319152832</v>
+        <v>0.01220607757568359</v>
       </c>
       <c r="F186" t="n">
-        <v>0.04679727554321289</v>
+        <v>0.04701066017150879</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.02960562705993652</v>
+        <v>0.03013300895690918</v>
       </c>
       <c r="F187" t="n">
-        <v>0.08722400665283203</v>
+        <v>0.06127190589904785</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6822,10 +6822,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.03249025344848633</v>
+        <v>0.03767490386962891</v>
       </c>
       <c r="F188" t="n">
-        <v>0.06826210021972656</v>
+        <v>0.06456398963928223</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.01961898803710938</v>
+        <v>0.01779627799987793</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0624232292175293</v>
+        <v>0.05113720893859863</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.0127410888671875</v>
+        <v>0.01536226272583008</v>
       </c>
       <c r="F190" t="n">
-        <v>0.06145405769348145</v>
+        <v>0.05894112586975098</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.0182795524597168</v>
+        <v>0.01976180076599121</v>
       </c>
       <c r="F191" t="n">
-        <v>0.07946014404296875</v>
+        <v>0.05225276947021484</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.01317358016967773</v>
+        <v>0.01194334030151367</v>
       </c>
       <c r="F192" t="n">
-        <v>0.05725264549255371</v>
+        <v>0.06729888916015625</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.01282072067260742</v>
+        <v>0.01166296005249023</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04111909866333008</v>
+        <v>0.03813767433166504</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.005862712860107422</v>
+        <v>0.005842685699462891</v>
       </c>
       <c r="F194" t="n">
-        <v>0.03413200378417969</v>
+        <v>0.0330967903137207</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.01315951347351074</v>
+        <v>0.01355385780334473</v>
       </c>
       <c r="F195" t="n">
-        <v>0.05270576477050781</v>
+        <v>0.04544377326965332</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.01402592658996582</v>
+        <v>0.01541566848754883</v>
       </c>
       <c r="F196" t="n">
-        <v>0.05229425430297852</v>
+        <v>0.0451200008392334</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.01193380355834961</v>
+        <v>0.01245665550231934</v>
       </c>
       <c r="F197" t="n">
-        <v>0.07776260375976562</v>
+        <v>0.06234335899353027</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -7149,10 +7149,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.01569747924804688</v>
+        <v>0.01309585571289062</v>
       </c>
       <c r="F198" t="n">
-        <v>0.3706331253051758</v>
+        <v>0.1025288105010986</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.01247859001159668</v>
+        <v>0.01382803916931152</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0412449836730957</v>
+        <v>0.04498744010925293</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.006844997406005859</v>
+        <v>0.007731437683105469</v>
       </c>
       <c r="F200" t="n">
-        <v>0.04012012481689453</v>
+        <v>0.04020380973815918</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.02241921424865723</v>
+        <v>0.02213597297668457</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0661625862121582</v>
+        <v>0.0500023365020752</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -7277,10 +7277,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.008700370788574219</v>
+        <v>0.007627010345458984</v>
       </c>
       <c r="F202" t="n">
-        <v>0.04151487350463867</v>
+        <v>0.0512082576751709</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.0105597972869873</v>
+        <v>0.007628440856933594</v>
       </c>
       <c r="F203" t="n">
-        <v>0.06130146980285645</v>
+        <v>0.0361180305480957</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.00633549690246582</v>
+        <v>0.005645990371704102</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03481841087341309</v>
+        <v>0.03110957145690918</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.01327919960021973</v>
+        <v>0.009640693664550781</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0421452522277832</v>
+        <v>0.03712749481201172</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.0202479362487793</v>
+        <v>0.01890826225280762</v>
       </c>
       <c r="F206" t="n">
-        <v>0.05319595336914062</v>
+        <v>0.05323100090026855</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7442,10 +7442,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.01955389976501465</v>
+        <v>0.02035737037658691</v>
       </c>
       <c r="F207" t="n">
-        <v>0.04907107353210449</v>
+        <v>0.04924941062927246</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.006071805953979492</v>
+        <v>0.005869150161743164</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0469973087310791</v>
+        <v>0.03614091873168945</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -7508,10 +7508,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.01348257064819336</v>
+        <v>0.01385331153869629</v>
       </c>
       <c r="F209" t="n">
-        <v>0.05429434776306152</v>
+        <v>0.05025577545166016</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.02856755256652832</v>
+        <v>0.02250170707702637</v>
       </c>
       <c r="F210" t="n">
-        <v>0.06238174438476562</v>
+        <v>0.05416226387023926</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -7585,10 +7585,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.03591346740722656</v>
+        <v>0.04425215721130371</v>
       </c>
       <c r="F211" t="n">
-        <v>0.07805371284484863</v>
+        <v>0.08759546279907227</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7616,10 +7616,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.008714199066162109</v>
+        <v>0.007525444030761719</v>
       </c>
       <c r="F212" t="n">
-        <v>0.07521796226501465</v>
+        <v>0.03383302688598633</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.01839661598205566</v>
+        <v>0.01736640930175781</v>
       </c>
       <c r="F213" t="n">
-        <v>0.07014203071594238</v>
+        <v>0.06214141845703125</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.008373260498046875</v>
+        <v>0.008245706558227539</v>
       </c>
       <c r="F214" t="n">
-        <v>0.1597697734832764</v>
+        <v>0.03849077224731445</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7713,10 +7713,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.007263660430908203</v>
+        <v>0.00818634033203125</v>
       </c>
       <c r="F215" t="n">
-        <v>0.245352029800415</v>
+        <v>0.05271220207214355</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.01613855361938477</v>
+        <v>0.01276421546936035</v>
       </c>
       <c r="F216" t="n">
-        <v>0.06213998794555664</v>
+        <v>0.0596005916595459</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7775,10 +7775,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.0124204158782959</v>
+        <v>0.01235079765319824</v>
       </c>
       <c r="F217" t="n">
-        <v>0.06553411483764648</v>
+        <v>0.04246640205383301</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.06148719787597656</v>
+        <v>0.06674075126647949</v>
       </c>
       <c r="F218" t="n">
-        <v>0.1025385856628418</v>
+        <v>0.1115198135375977</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7841,10 +7841,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.008284807205200195</v>
+        <v>0.01041793823242188</v>
       </c>
       <c r="F219" t="n">
-        <v>0.05554771423339844</v>
+        <v>0.03962159156799316</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.01251435279846191</v>
+        <v>0.01270866394042969</v>
       </c>
       <c r="F220" t="n">
-        <v>0.05128026008605957</v>
+        <v>0.03843021392822266</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.01275396347045898</v>
+        <v>0.014617919921875</v>
       </c>
       <c r="F221" t="n">
-        <v>0.05077409744262695</v>
+        <v>0.04689478874206543</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.01481842994689941</v>
+        <v>0.01367926597595215</v>
       </c>
       <c r="F222" t="n">
-        <v>0.06608891487121582</v>
+        <v>0.0489962100982666</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.01021027565002441</v>
+        <v>0.01028537750244141</v>
       </c>
       <c r="F223" t="n">
-        <v>0.03634858131408691</v>
+        <v>0.03900527954101562</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.01501560211181641</v>
+        <v>0.01469039916992188</v>
       </c>
       <c r="F224" t="n">
-        <v>0.05229377746582031</v>
+        <v>0.04799365997314453</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8033,10 +8033,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.01886940002441406</v>
+        <v>0.01732134819030762</v>
       </c>
       <c r="F225" t="n">
-        <v>0.07031655311584473</v>
+        <v>0.04800176620483398</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.01139569282531738</v>
+        <v>0.01180243492126465</v>
       </c>
       <c r="F226" t="n">
-        <v>0.03773641586303711</v>
+        <v>0.04415225982666016</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.007922887802124023</v>
+        <v>0.008803367614746094</v>
       </c>
       <c r="F227" t="n">
-        <v>0.06347489356994629</v>
+        <v>0.03870749473571777</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -8130,10 +8130,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.01462292671203613</v>
+        <v>0.01465535163879395</v>
       </c>
       <c r="F228" t="n">
-        <v>0.04267573356628418</v>
+        <v>0.04389548301696777</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.01384639739990234</v>
+        <v>0.01477932929992676</v>
       </c>
       <c r="F229" t="n">
-        <v>0.04514551162719727</v>
+        <v>0.08009767532348633</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.01250529289245605</v>
+        <v>0.01486420631408691</v>
       </c>
       <c r="F230" t="n">
-        <v>0.05726456642150879</v>
+        <v>0.08141040802001953</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -8225,10 +8225,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.007891416549682617</v>
+        <v>0.006618738174438477</v>
       </c>
       <c r="F231" t="n">
-        <v>0.04218864440917969</v>
+        <v>0.03509044647216797</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.009789228439331055</v>
+        <v>0.009333133697509766</v>
       </c>
       <c r="F232" t="n">
-        <v>0.04015588760375977</v>
+        <v>0.03813362121582031</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.008485317230224609</v>
+        <v>0.008659839630126953</v>
       </c>
       <c r="F233" t="n">
-        <v>0.04209995269775391</v>
+        <v>0.04392123222351074</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -8320,10 +8320,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.007555007934570312</v>
+        <v>0.01109647750854492</v>
       </c>
       <c r="F234" t="n">
-        <v>0.03919553756713867</v>
+        <v>0.05974125862121582</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.01491904258728027</v>
+        <v>0.02200865745544434</v>
       </c>
       <c r="F235" t="n">
-        <v>0.06126689910888672</v>
+        <v>0.0521538257598877</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -8390,10 +8390,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.03146767616271973</v>
+        <v>0.03060030937194824</v>
       </c>
       <c r="F236" t="n">
-        <v>0.08531689643859863</v>
+        <v>0.4196839332580566</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -8421,10 +8421,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.0106804370880127</v>
+        <v>0.008235454559326172</v>
       </c>
       <c r="F237" t="n">
-        <v>0.1002197265625</v>
+        <v>0.03815650939941406</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.01913976669311523</v>
+        <v>0.02140951156616211</v>
       </c>
       <c r="F238" t="n">
-        <v>0.05499958992004395</v>
+        <v>0.07335162162780762</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8489,10 +8489,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.02031373977661133</v>
+        <v>0.01339459419250488</v>
       </c>
       <c r="F239" t="n">
-        <v>0.06855869293212891</v>
+        <v>0.04123473167419434</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.02399635314941406</v>
+        <v>0.02012085914611816</v>
       </c>
       <c r="F240" t="n">
-        <v>0.07036757469177246</v>
+        <v>0.04820513725280762</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.01421880722045898</v>
+        <v>0.01827645301818848</v>
       </c>
       <c r="F241" t="n">
-        <v>0.04505133628845215</v>
+        <v>0.04510927200317383</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.008738994598388672</v>
+        <v>0.01043987274169922</v>
       </c>
       <c r="F242" t="n">
-        <v>0.1146199703216553</v>
+        <v>0.03914761543273926</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.02869272232055664</v>
+        <v>0.02999305725097656</v>
       </c>
       <c r="F243" t="n">
-        <v>0.06419849395751953</v>
+        <v>0.05823922157287598</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8658,10 +8658,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.01179647445678711</v>
+        <v>0.01310181617736816</v>
       </c>
       <c r="F244" t="n">
-        <v>0.06821966171264648</v>
+        <v>0.05828523635864258</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8689,10 +8689,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.02149653434753418</v>
+        <v>0.01612448692321777</v>
       </c>
       <c r="F245" t="n">
-        <v>0.09421443939208984</v>
+        <v>0.08942604064941406</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8720,10 +8720,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.009131193161010742</v>
+        <v>0.006735801696777344</v>
       </c>
       <c r="F246" t="n">
-        <v>0.09685754776000977</v>
+        <v>0.03612947463989258</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8751,10 +8751,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.01234316825866699</v>
+        <v>0.01499032974243164</v>
       </c>
       <c r="F247" t="n">
-        <v>0.06138968467712402</v>
+        <v>0.05916810035705566</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.005749702453613281</v>
+        <v>0.005761384963989258</v>
       </c>
       <c r="F248" t="n">
-        <v>0.04133749008178711</v>
+        <v>0.04523539543151855</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.00835418701171875</v>
+        <v>0.007730484008789062</v>
       </c>
       <c r="F249" t="n">
-        <v>0.07636499404907227</v>
+        <v>0.07129073143005371</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.01153373718261719</v>
+        <v>0.01114106178283691</v>
       </c>
       <c r="F250" t="n">
-        <v>0.04201388359069824</v>
+        <v>0.04181289672851562</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8877,10 +8877,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.009207010269165039</v>
+        <v>0.007426023483276367</v>
       </c>
       <c r="F251" t="n">
-        <v>0.05438828468322754</v>
+        <v>0.04020404815673828</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.009975671768188477</v>
+        <v>0.01006650924682617</v>
       </c>
       <c r="F252" t="n">
-        <v>0.04165101051330566</v>
+        <v>0.04212379455566406</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8941,10 +8941,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.009489059448242188</v>
+        <v>0.008811235427856445</v>
       </c>
       <c r="F253" t="n">
-        <v>0.04164218902587891</v>
+        <v>0.05016613006591797</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.01235532760620117</v>
+        <v>0.01350259780883789</v>
       </c>
       <c r="F254" t="n">
-        <v>0.04652285575866699</v>
+        <v>0.04521989822387695</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -9039,10 +9039,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.07609987258911133</v>
+        <v>0.08382987976074219</v>
       </c>
       <c r="F255" t="n">
-        <v>0.1298103332519531</v>
+        <v>0.1419670581817627</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -9072,10 +9072,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.0161280632019043</v>
+        <v>0.02076816558837891</v>
       </c>
       <c r="F256" t="n">
-        <v>0.05047893524169922</v>
+        <v>0.1484029293060303</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -9111,10 +9111,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.01610851287841797</v>
+        <v>0.01694202423095703</v>
       </c>
       <c r="F257" t="n">
-        <v>0.08675050735473633</v>
+        <v>0.0543065071105957</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.006706953048706055</v>
+        <v>0.007136106491088867</v>
       </c>
       <c r="F258" t="n">
-        <v>0.04012393951416016</v>
+        <v>0.03724431991577148</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.02946591377258301</v>
+        <v>0.02650809288024902</v>
       </c>
       <c r="F259" t="n">
-        <v>0.120579719543457</v>
+        <v>0.05633020401000977</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -9225,10 +9225,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.01904916763305664</v>
+        <v>0.01904082298278809</v>
       </c>
       <c r="F260" t="n">
-        <v>0.06221556663513184</v>
+        <v>0.04924726486206055</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -9309,10 +9309,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.132072925567627</v>
+        <v>0.1171045303344727</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1767232418060303</v>
+        <v>0.1469330787658691</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -9340,10 +9340,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.01369667053222656</v>
+        <v>0.01266837120056152</v>
       </c>
       <c r="F262" t="n">
-        <v>0.06936311721801758</v>
+        <v>0.04154276847839355</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.0076904296875</v>
+        <v>0.007459163665771484</v>
       </c>
       <c r="F263" t="n">
-        <v>0.04522109031677246</v>
+        <v>0.03885626792907715</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.01283645629882812</v>
+        <v>0.01207375526428223</v>
       </c>
       <c r="F264" t="n">
-        <v>0.04240274429321289</v>
+        <v>0.03838372230529785</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -9437,10 +9437,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.01628708839416504</v>
+        <v>0.01387405395507812</v>
       </c>
       <c r="F265" t="n">
-        <v>0.04665684700012207</v>
+        <v>0.04181718826293945</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.007883310317993164</v>
+        <v>0.007775068283081055</v>
       </c>
       <c r="F266" t="n">
-        <v>0.04480695724487305</v>
+        <v>0.03746485710144043</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -9505,10 +9505,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.01518106460571289</v>
+        <v>0.01467442512512207</v>
       </c>
       <c r="F267" t="n">
-        <v>0.05992913246154785</v>
+        <v>0.04602789878845215</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -9546,10 +9546,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.02010893821716309</v>
+        <v>0.01940178871154785</v>
       </c>
       <c r="F268" t="n">
-        <v>0.1055386066436768</v>
+        <v>0.04671478271484375</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.0118253231048584</v>
+        <v>0.01195335388183594</v>
       </c>
       <c r="F269" t="n">
-        <v>0.04319310188293457</v>
+        <v>0.04411506652832031</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -9608,10 +9608,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.01038932800292969</v>
+        <v>0.01159119606018066</v>
       </c>
       <c r="F270" t="n">
-        <v>0.04413938522338867</v>
+        <v>0.04219627380371094</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -9641,10 +9641,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.01253986358642578</v>
+        <v>0.01288008689880371</v>
       </c>
       <c r="F271" t="n">
-        <v>0.04132819175720215</v>
+        <v>0.04424953460693359</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.006585836410522461</v>
+        <v>0.006882667541503906</v>
       </c>
       <c r="F272" t="n">
-        <v>0.06024360656738281</v>
+        <v>0.03405213356018066</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -9705,10 +9705,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.01761150360107422</v>
+        <v>0.01157188415527344</v>
       </c>
       <c r="F273" t="n">
-        <v>0.08031749725341797</v>
+        <v>0.05941653251647949</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -9736,10 +9736,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.007807731628417969</v>
+        <v>0.007918119430541992</v>
       </c>
       <c r="F274" t="n">
-        <v>0.06832361221313477</v>
+        <v>0.04115533828735352</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.0143742561340332</v>
+        <v>0.01312708854675293</v>
       </c>
       <c r="F275" t="n">
-        <v>0.04527473449707031</v>
+        <v>0.0452113151550293</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -9798,10 +9798,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.01392221450805664</v>
+        <v>0.01013946533203125</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0522911548614502</v>
+        <v>0.1126945018768311</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.009214878082275391</v>
+        <v>0.01082396507263184</v>
       </c>
       <c r="F277" t="n">
-        <v>0.1114542484283447</v>
+        <v>0.0434417724609375</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -9860,10 +9860,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.009436845779418945</v>
+        <v>0.009573459625244141</v>
       </c>
       <c r="F278" t="n">
-        <v>0.04009342193603516</v>
+        <v>0.04608821868896484</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9891,10 +9891,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.006140232086181641</v>
+        <v>0.006092071533203125</v>
       </c>
       <c r="F279" t="n">
-        <v>0.07449841499328613</v>
+        <v>0.07947754859924316</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9926,10 +9926,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.01239728927612305</v>
+        <v>0.009371042251586914</v>
       </c>
       <c r="F280" t="n">
-        <v>0.06657075881958008</v>
+        <v>0.04114603996276855</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.0203850269317627</v>
+        <v>0.02383232116699219</v>
       </c>
       <c r="F281" t="n">
-        <v>0.1075839996337891</v>
+        <v>0.05006003379821777</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9994,10 +9994,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.01334309577941895</v>
+        <v>0.01027083396911621</v>
       </c>
       <c r="F282" t="n">
-        <v>0.04228615760803223</v>
+        <v>0.2761945724487305</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -10025,10 +10025,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.01030302047729492</v>
+        <v>0.009788751602172852</v>
       </c>
       <c r="F283" t="n">
-        <v>0.08319783210754395</v>
+        <v>0.03915262222290039</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -10056,10 +10056,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.007208824157714844</v>
+        <v>0.007925748825073242</v>
       </c>
       <c r="F284" t="n">
-        <v>0.05421280860900879</v>
+        <v>0.04211783409118652</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -10087,10 +10087,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.006097316741943359</v>
+        <v>0.006090402603149414</v>
       </c>
       <c r="F285" t="n">
-        <v>0.07252144813537598</v>
+        <v>0.04210448265075684</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -10118,10 +10118,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.006032705307006836</v>
+        <v>0.005625724792480469</v>
       </c>
       <c r="F286" t="n">
-        <v>0.06119728088378906</v>
+        <v>0.03762984275817871</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.007912158966064453</v>
+        <v>0.00780177116394043</v>
       </c>
       <c r="F287" t="n">
-        <v>0.04624629020690918</v>
+        <v>0.05425405502319336</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.01665592193603516</v>
+        <v>0.01555848121643066</v>
       </c>
       <c r="F288" t="n">
-        <v>0.04731273651123047</v>
+        <v>0.04329800605773926</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -10217,10 +10217,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.01168608665466309</v>
+        <v>0.01228475570678711</v>
       </c>
       <c r="F289" t="n">
-        <v>0.09759616851806641</v>
+        <v>0.04466891288757324</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -10254,10 +10254,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.01049518585205078</v>
+        <v>0.01287698745727539</v>
       </c>
       <c r="F290" t="n">
-        <v>0.06193161010742188</v>
+        <v>0.05632305145263672</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -10289,10 +10289,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.03090596199035645</v>
+        <v>0.03388547897338867</v>
       </c>
       <c r="F291" t="n">
-        <v>0.05805802345275879</v>
+        <v>0.08737635612487793</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -10322,10 +10322,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.01813316345214844</v>
+        <v>0.01725888252258301</v>
       </c>
       <c r="F292" t="n">
-        <v>0.04646992683410645</v>
+        <v>0.0642547607421875</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -10355,10 +10355,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.008193016052246094</v>
+        <v>0.008785247802734375</v>
       </c>
       <c r="F293" t="n">
-        <v>0.04140973091125488</v>
+        <v>0.0361628532409668</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.01467347145080566</v>
+        <v>0.009935855865478516</v>
       </c>
       <c r="F294" t="n">
-        <v>0.08443927764892578</v>
+        <v>0.04220795631408691</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -10419,10 +10419,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.006838798522949219</v>
+        <v>0.007511138916015625</v>
       </c>
       <c r="F295" t="n">
-        <v>0.07541155815124512</v>
+        <v>0.04915070533752441</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -10454,10 +10454,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.01029872894287109</v>
+        <v>0.0101470947265625</v>
       </c>
       <c r="F296" t="n">
-        <v>0.06997585296630859</v>
+        <v>0.0422356128692627</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -10487,10 +10487,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.01320075988769531</v>
+        <v>0.01278877258300781</v>
       </c>
       <c r="F297" t="n">
-        <v>0.05197548866271973</v>
+        <v>0.04444217681884766</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.01412868499755859</v>
+        <v>0.01608395576477051</v>
       </c>
       <c r="F298" t="n">
-        <v>0.05555081367492676</v>
+        <v>0.06626319885253906</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -10569,10 +10569,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.02981424331665039</v>
+        <v>0.02461981773376465</v>
       </c>
       <c r="F299" t="n">
-        <v>0.05855059623718262</v>
+        <v>0.1004040241241455</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.02981710433959961</v>
+        <v>0.02414798736572266</v>
       </c>
       <c r="F300" t="n">
-        <v>0.06313443183898926</v>
+        <v>0.05333447456359863</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -10637,10 +10637,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.03536295890808105</v>
+        <v>0.02523398399353027</v>
       </c>
       <c r="F301" t="n">
-        <v>0.07727217674255371</v>
+        <v>0.05930280685424805</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -10670,10 +10670,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.01285457611083984</v>
+        <v>0.01334595680236816</v>
       </c>
       <c r="F302" t="n">
-        <v>0.04415512084960938</v>
+        <v>0.04113197326660156</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -10703,10 +10703,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.01461195945739746</v>
+        <v>0.009700536727905273</v>
       </c>
       <c r="F303" t="n">
-        <v>0.05172562599182129</v>
+        <v>0.04109954833984375</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -10735,10 +10735,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.01107430458068848</v>
+        <v>0.01021194458007812</v>
       </c>
       <c r="F304" t="n">
-        <v>0.04352498054504395</v>
+        <v>0.0411677360534668</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.01630592346191406</v>
+        <v>0.01869463920593262</v>
       </c>
       <c r="F305" t="n">
-        <v>0.04333782196044922</v>
+        <v>0.05172586441040039</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -10809,10 +10809,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.01224470138549805</v>
+        <v>0.01200294494628906</v>
       </c>
       <c r="F306" t="n">
-        <v>0.04153060913085938</v>
+        <v>0.06969618797302246</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -10852,10 +10852,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.01575064659118652</v>
+        <v>0.0193169116973877</v>
       </c>
       <c r="F307" t="n">
-        <v>0.04516458511352539</v>
+        <v>0.1008906364440918</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.01633715629577637</v>
+        <v>0.01729989051818848</v>
       </c>
       <c r="F308" t="n">
-        <v>0.04712104797363281</v>
+        <v>0.07042956352233887</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.01341080665588379</v>
+        <v>0.01097965240478516</v>
       </c>
       <c r="F309" t="n">
-        <v>0.04420757293701172</v>
+        <v>0.05266189575195312</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.007710695266723633</v>
+        <v>0.007753372192382812</v>
       </c>
       <c r="F310" t="n">
-        <v>0.05518794059753418</v>
+        <v>0.04858851432800293</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.01197195053100586</v>
+        <v>0.01664972305297852</v>
       </c>
       <c r="F311" t="n">
-        <v>0.04497957229614258</v>
+        <v>0.0435187816619873</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.007433176040649414</v>
+        <v>0.009870290756225586</v>
       </c>
       <c r="F312" t="n">
-        <v>0.05614161491394043</v>
+        <v>0.05827975273132324</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -11052,10 +11052,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.01044058799743652</v>
+        <v>0.007875680923461914</v>
       </c>
       <c r="F313" t="n">
-        <v>0.06506156921386719</v>
+        <v>0.06429338455200195</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.01323866844177246</v>
+        <v>0.01335883140563965</v>
       </c>
       <c r="F314" t="n">
-        <v>0.04720640182495117</v>
+        <v>0.0903313159942627</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.008069992065429688</v>
+        <v>0.008614540100097656</v>
       </c>
       <c r="F315" t="n">
-        <v>0.04031467437744141</v>
+        <v>0.03990364074707031</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -11165,10 +11165,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.02715682983398438</v>
+        <v>0.02778792381286621</v>
       </c>
       <c r="F316" t="n">
-        <v>0.06226515769958496</v>
+        <v>0.05720281600952148</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -11204,10 +11204,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.009773969650268555</v>
+        <v>0.01055002212524414</v>
       </c>
       <c r="F317" t="n">
-        <v>0.08068370819091797</v>
+        <v>0.03716778755187988</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -11235,10 +11235,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.00867152214050293</v>
+        <v>0.008322715759277344</v>
       </c>
       <c r="F318" t="n">
-        <v>0.07335805892944336</v>
+        <v>0.04063868522644043</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.0083770751953125</v>
+        <v>0.008027791976928711</v>
       </c>
       <c r="F319" t="n">
-        <v>0.04219841957092285</v>
+        <v>0.04513788223266602</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -11308,10 +11308,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.0350801944732666</v>
+        <v>0.03607964515686035</v>
       </c>
       <c r="F320" t="n">
-        <v>0.1427862644195557</v>
+        <v>0.06425786018371582</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -11339,10 +11339,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.01035618782043457</v>
+        <v>0.01008462905883789</v>
       </c>
       <c r="F321" t="n">
-        <v>0.2028169631958008</v>
+        <v>0.03713393211364746</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -11370,10 +11370,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.007360696792602539</v>
+        <v>0.008452892303466797</v>
       </c>
       <c r="F322" t="n">
-        <v>0.112818717956543</v>
+        <v>0.03917026519775391</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.00729680061340332</v>
+        <v>0.007852554321289062</v>
       </c>
       <c r="F323" t="n">
-        <v>0.04274296760559082</v>
+        <v>0.03916692733764648</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -11432,10 +11432,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.005976438522338867</v>
+        <v>0.006653785705566406</v>
       </c>
       <c r="F324" t="n">
-        <v>0.03613948822021484</v>
+        <v>0.03308320045471191</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.01160073280334473</v>
+        <v>0.01082038879394531</v>
       </c>
       <c r="F325" t="n">
-        <v>0.04357218742370605</v>
+        <v>0.04924774169921875</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -11498,10 +11498,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.0127568244934082</v>
+        <v>0.0125272274017334</v>
       </c>
       <c r="F326" t="n">
-        <v>0.04218363761901855</v>
+        <v>0.05124807357788086</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.01549935340881348</v>
+        <v>0.01503157615661621</v>
       </c>
       <c r="F327" t="n">
-        <v>0.07324743270874023</v>
+        <v>0.045135498046875</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.009417295455932617</v>
+        <v>0.012298583984375</v>
       </c>
       <c r="F328" t="n">
-        <v>0.07858729362487793</v>
+        <v>0.07735395431518555</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -11596,10 +11596,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.01512742042541504</v>
+        <v>0.01514101028442383</v>
       </c>
       <c r="F329" t="n">
-        <v>0.04229640960693359</v>
+        <v>0.04425787925720215</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -11630,10 +11630,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.008229255676269531</v>
+        <v>0.008858442306518555</v>
       </c>
       <c r="F330" t="n">
-        <v>0.04006290435791016</v>
+        <v>0.0420379638671875</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.03021454811096191</v>
+        <v>0.03767967224121094</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0854032039642334</v>
+        <v>0.09158682823181152</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.008902788162231445</v>
+        <v>0.007464885711669922</v>
       </c>
       <c r="F332" t="n">
-        <v>0.03826212882995605</v>
+        <v>0.03612518310546875</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -11741,10 +11741,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.009649038314819336</v>
+        <v>0.009021520614624023</v>
       </c>
       <c r="F333" t="n">
-        <v>0.03818821907043457</v>
+        <v>0.0396275520324707</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -11774,10 +11774,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.009594440460205078</v>
+        <v>0.008911371231079102</v>
       </c>
       <c r="F334" t="n">
-        <v>0.0593879222869873</v>
+        <v>0.0369880199432373</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.008400440216064453</v>
+        <v>0.008615970611572266</v>
       </c>
       <c r="F335" t="n">
-        <v>0.05414819717407227</v>
+        <v>0.05988073348999023</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -11842,10 +11842,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.006514787673950195</v>
+        <v>0.006488561630249023</v>
       </c>
       <c r="F336" t="n">
-        <v>0.1237790584564209</v>
+        <v>0.08992505073547363</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.01751470565795898</v>
+        <v>0.0182948112487793</v>
       </c>
       <c r="F337" t="n">
-        <v>0.05127048492431641</v>
+        <v>0.0802757740020752</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -11908,10 +11908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.007596254348754883</v>
+        <v>0.009377241134643555</v>
       </c>
       <c r="F338" t="n">
-        <v>0.08673644065856934</v>
+        <v>0.04323244094848633</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -11941,10 +11941,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.008038520812988281</v>
+        <v>0.008046627044677734</v>
       </c>
       <c r="F339" t="n">
-        <v>0.06523847579956055</v>
+        <v>0.03618693351745605</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.01062536239624023</v>
+        <v>0.01130104064941406</v>
       </c>
       <c r="F340" t="n">
-        <v>0.3387060165405273</v>
+        <v>0.05143833160400391</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.00982356071472168</v>
+        <v>0.01230883598327637</v>
       </c>
       <c r="F341" t="n">
-        <v>0.03715181350708008</v>
+        <v>0.2653765678405762</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -12036,10 +12036,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.007637977600097656</v>
+        <v>0.007574558258056641</v>
       </c>
       <c r="F342" t="n">
-        <v>0.08260583877563477</v>
+        <v>0.1890060901641846</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -12067,10 +12067,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.007369756698608398</v>
+        <v>0.00835871696472168</v>
       </c>
       <c r="F343" t="n">
-        <v>0.03812885284423828</v>
+        <v>0.08354783058166504</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.01128005981445312</v>
+        <v>0.01142168045043945</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0543525218963623</v>
+        <v>0.08045363426208496</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -12135,10 +12135,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.009911775588989258</v>
+        <v>0.009734630584716797</v>
       </c>
       <c r="F345" t="n">
-        <v>0.05733537673950195</v>
+        <v>0.05511879920959473</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -12168,10 +12168,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.01212286949157715</v>
+        <v>0.01207113265991211</v>
       </c>
       <c r="F346" t="n">
-        <v>0.07969808578491211</v>
+        <v>0.0422360897064209</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -12204,10 +12204,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.01790380477905273</v>
+        <v>0.02292656898498535</v>
       </c>
       <c r="F347" t="n">
-        <v>0.07039833068847656</v>
+        <v>0.06732845306396484</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -12239,10 +12239,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.01387906074523926</v>
+        <v>0.01791715621948242</v>
       </c>
       <c r="F348" t="n">
-        <v>0.05559420585632324</v>
+        <v>0.3214659690856934</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.0139620304107666</v>
+        <v>0.01266288757324219</v>
       </c>
       <c r="F349" t="n">
-        <v>0.04720187187194824</v>
+        <v>0.06139731407165527</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.01663398742675781</v>
+        <v>0.01092958450317383</v>
       </c>
       <c r="F350" t="n">
-        <v>0.04514884948730469</v>
+        <v>0.04426360130310059</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -12336,10 +12336,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.01117324829101562</v>
+        <v>0.01058340072631836</v>
       </c>
       <c r="F351" t="n">
-        <v>0.04312658309936523</v>
+        <v>0.0771329402923584</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -12367,10 +12367,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.01128840446472168</v>
+        <v>0.01008105278015137</v>
       </c>
       <c r="F352" t="n">
-        <v>0.04329729080200195</v>
+        <v>0.03822612762451172</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -12398,10 +12398,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.007620573043823242</v>
+        <v>0.008426427841186523</v>
       </c>
       <c r="F353" t="n">
-        <v>0.09452271461486816</v>
+        <v>0.03809785842895508</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.007189273834228516</v>
+        <v>0.006523370742797852</v>
       </c>
       <c r="F354" t="n">
-        <v>0.0741422176361084</v>
+        <v>0.03760647773742676</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.009414911270141602</v>
+        <v>0.01038026809692383</v>
       </c>
       <c r="F355" t="n">
-        <v>0.1869101524353027</v>
+        <v>0.04037690162658691</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.01030111312866211</v>
+        <v>0.009957551956176758</v>
       </c>
       <c r="F356" t="n">
-        <v>0.1242964267730713</v>
+        <v>0.04177522659301758</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -12527,10 +12527,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.006457090377807617</v>
+        <v>0.006248950958251953</v>
       </c>
       <c r="F357" t="n">
-        <v>0.03482818603515625</v>
+        <v>0.08435416221618652</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -12566,10 +12566,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.02799773216247559</v>
+        <v>0.03400468826293945</v>
       </c>
       <c r="F358" t="n">
-        <v>0.09019827842712402</v>
+        <v>0.06529474258422852</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -12607,10 +12607,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.01546788215637207</v>
+        <v>0.01543569564819336</v>
       </c>
       <c r="F359" t="n">
-        <v>0.0454251766204834</v>
+        <v>0.04421710968017578</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -12666,10 +12666,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.1046319007873535</v>
+        <v>0.08415770530700684</v>
       </c>
       <c r="F360" t="n">
-        <v>0.1563568115234375</v>
+        <v>0.1155188083648682</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.007714748382568359</v>
+        <v>0.009481191635131836</v>
       </c>
       <c r="F361" t="n">
-        <v>0.03410959243774414</v>
+        <v>0.04729080200195312</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -12734,10 +12734,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.01632070541381836</v>
+        <v>0.01520776748657227</v>
       </c>
       <c r="F362" t="n">
-        <v>0.08240890502929688</v>
+        <v>0.04718971252441406</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -12793,10 +12793,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.05476665496826172</v>
+        <v>0.05749344825744629</v>
       </c>
       <c r="F363" t="n">
-        <v>0.1263792514801025</v>
+        <v>0.08841538429260254</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -12826,10 +12826,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.01216983795166016</v>
+        <v>0.009587526321411133</v>
       </c>
       <c r="F364" t="n">
-        <v>0.07602286338806152</v>
+        <v>0.03911089897155762</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.005990028381347656</v>
+        <v>0.006357192993164062</v>
       </c>
       <c r="F365" t="n">
-        <v>0.04423046112060547</v>
+        <v>0.05627894401550293</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -12894,10 +12894,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.01949954032897949</v>
+        <v>0.02227997779846191</v>
       </c>
       <c r="F366" t="n">
-        <v>0.08200430870056152</v>
+        <v>0.0502474308013916</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -12925,10 +12925,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.0055999755859375</v>
+        <v>0.005709171295166016</v>
       </c>
       <c r="F367" t="n">
-        <v>0.08938717842102051</v>
+        <v>0.0411994457244873</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -12960,10 +12960,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.009358406066894531</v>
+        <v>0.009321451187133789</v>
       </c>
       <c r="F368" t="n">
-        <v>0.05921030044555664</v>
+        <v>0.03879690170288086</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -12991,10 +12991,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.01116728782653809</v>
+        <v>0.01136898994445801</v>
       </c>
       <c r="F369" t="n">
-        <v>0.07543778419494629</v>
+        <v>0.03927254676818848</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -13024,10 +13024,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.01692795753479004</v>
+        <v>0.01441502571105957</v>
       </c>
       <c r="F370" t="n">
-        <v>0.1054341793060303</v>
+        <v>0.04826879501342773</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -13057,10 +13057,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.01006937026977539</v>
+        <v>0.0101923942565918</v>
       </c>
       <c r="F371" t="n">
-        <v>0.04423737525939941</v>
+        <v>0.04826498031616211</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.01339101791381836</v>
+        <v>0.01312971115112305</v>
       </c>
       <c r="F372" t="n">
-        <v>0.04121685028076172</v>
+        <v>0.04229140281677246</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.02900791168212891</v>
+        <v>0.02820062637329102</v>
       </c>
       <c r="F373" t="n">
-        <v>0.06530404090881348</v>
+        <v>0.08040046691894531</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -13160,10 +13160,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.009997844696044922</v>
+        <v>0.009596109390258789</v>
       </c>
       <c r="F374" t="n">
-        <v>0.05232787132263184</v>
+        <v>0.03616237640380859</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -13193,10 +13193,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.01728129386901855</v>
+        <v>0.0161895751953125</v>
       </c>
       <c r="F375" t="n">
-        <v>0.0452117919921875</v>
+        <v>0.0511329174041748</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -13226,10 +13226,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.01792621612548828</v>
+        <v>0.01765251159667969</v>
       </c>
       <c r="F376" t="n">
-        <v>0.05520749092102051</v>
+        <v>0.04616522789001465</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -13259,10 +13259,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.0183103084564209</v>
+        <v>0.01750063896179199</v>
       </c>
       <c r="F377" t="n">
-        <v>0.07383465766906738</v>
+        <v>0.04930663108825684</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -13290,10 +13290,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.009287357330322266</v>
+        <v>0.01030635833740234</v>
       </c>
       <c r="F378" t="n">
-        <v>0.03750038146972656</v>
+        <v>0.1006124019622803</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -13327,10 +13327,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.01283383369445801</v>
+        <v>0.01418948173522949</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0573122501373291</v>
+        <v>0.1069135665893555</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -13362,10 +13362,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.01373791694641113</v>
+        <v>0.01582908630371094</v>
       </c>
       <c r="F380" t="n">
-        <v>0.04785799980163574</v>
+        <v>0.05228376388549805</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -13397,10 +13397,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.02430462837219238</v>
+        <v>0.02224302291870117</v>
       </c>
       <c r="F381" t="n">
-        <v>0.05306601524353027</v>
+        <v>0.05318260192871094</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -13430,10 +13430,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.01844978332519531</v>
+        <v>0.01546096801757812</v>
       </c>
       <c r="F382" t="n">
-        <v>0.05508089065551758</v>
+        <v>0.04918885231018066</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -13465,10 +13465,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.009084701538085938</v>
+        <v>0.01006698608398438</v>
       </c>
       <c r="F383" t="n">
-        <v>0.04700064659118652</v>
+        <v>0.04009437561035156</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -13499,10 +13499,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.01065826416015625</v>
+        <v>0.01442861557006836</v>
       </c>
       <c r="F384" t="n">
-        <v>0.04315471649169922</v>
+        <v>0.06334710121154785</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -13530,10 +13530,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.008417606353759766</v>
+        <v>0.008660078048706055</v>
       </c>
       <c r="F385" t="n">
-        <v>0.0545961856842041</v>
+        <v>0.04921126365661621</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -13561,10 +13561,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.01704168319702148</v>
+        <v>0.0154261589050293</v>
       </c>
       <c r="F386" t="n">
-        <v>0.05130696296691895</v>
+        <v>0.05226969718933105</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -13596,10 +13596,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.008838176727294922</v>
+        <v>0.009333610534667969</v>
       </c>
       <c r="F387" t="n">
-        <v>0.03899645805358887</v>
+        <v>0.04225635528564453</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.006759166717529297</v>
+        <v>0.006352901458740234</v>
       </c>
       <c r="F388" t="n">
-        <v>0.05914163589477539</v>
+        <v>0.03520894050598145</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.01423549652099609</v>
+        <v>0.01150798797607422</v>
       </c>
       <c r="F389" t="n">
-        <v>0.07277536392211914</v>
+        <v>0.09047079086303711</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -13691,10 +13691,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.02464890480041504</v>
+        <v>0.02206969261169434</v>
       </c>
       <c r="F390" t="n">
-        <v>0.07264089584350586</v>
+        <v>0.05048871040344238</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -13722,10 +13722,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.02084469795227051</v>
+        <v>0.0182192325592041</v>
       </c>
       <c r="F391" t="n">
-        <v>0.05429196357727051</v>
+        <v>0.07038688659667969</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -13753,10 +13753,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.007974147796630859</v>
+        <v>0.008734226226806641</v>
       </c>
       <c r="F392" t="n">
-        <v>0.03727412223815918</v>
+        <v>0.03516387939453125</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -13784,10 +13784,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.02196836471557617</v>
+        <v>0.0197443962097168</v>
       </c>
       <c r="F393" t="n">
-        <v>0.05200886726379395</v>
+        <v>0.05126786231994629</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -13819,10 +13819,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.01627230644226074</v>
+        <v>0.01498270034790039</v>
       </c>
       <c r="F394" t="n">
-        <v>0.04416370391845703</v>
+        <v>0.08028054237365723</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -13854,10 +13854,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.01238441467285156</v>
+        <v>0.01137065887451172</v>
       </c>
       <c r="F395" t="n">
-        <v>0.04304099082946777</v>
+        <v>0.04827594757080078</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -13889,10 +13889,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.01016926765441895</v>
+        <v>0.01204133033752441</v>
       </c>
       <c r="F396" t="n">
-        <v>0.06183218955993652</v>
+        <v>0.1014578342437744</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -13922,10 +13922,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.0105278491973877</v>
+        <v>0.01064324378967285</v>
       </c>
       <c r="F397" t="n">
-        <v>0.04093670845031738</v>
+        <v>0.0370793342590332</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -13953,10 +13953,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.01692795753479004</v>
+        <v>0.01434564590454102</v>
       </c>
       <c r="F398" t="n">
-        <v>0.04817628860473633</v>
+        <v>0.04219961166381836</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.01088070869445801</v>
+        <v>0.01177453994750977</v>
       </c>
       <c r="F399" t="n">
-        <v>0.04022002220153809</v>
+        <v>0.04413008689880371</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -14019,10 +14019,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.007190465927124023</v>
+        <v>0.008593559265136719</v>
       </c>
       <c r="F400" t="n">
-        <v>0.06828927993774414</v>
+        <v>0.04123854637145996</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -14058,10 +14058,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.02795886993408203</v>
+        <v>0.03657913208007812</v>
       </c>
       <c r="F401" t="n">
-        <v>0.07335829734802246</v>
+        <v>0.06529068946838379</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.0135960578918457</v>
+        <v>0.009521722793579102</v>
       </c>
       <c r="F402" t="n">
-        <v>0.07461833953857422</v>
+        <v>0.05327010154724121</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -14120,10 +14120,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.006944656372070312</v>
+        <v>0.009531974792480469</v>
       </c>
       <c r="F403" t="n">
-        <v>0.05704617500305176</v>
+        <v>0.04622173309326172</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>

--- a/anonymization_results.xlsx
+++ b/anonymization_results.xlsx
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06638073921203613</v>
+        <v>0.06580781936645508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1141207218170166</v>
+        <v>0.1062531471252441</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0210425853729248</v>
+        <v>0.02163529396057129</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05927252769470215</v>
+        <v>0.1043701171875</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.008315563201904297</v>
+        <v>0.00960993766784668</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05918192863464355</v>
+        <v>0.03909707069396973</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.03002786636352539</v>
+        <v>0.03483057022094727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06928396224975586</v>
+        <v>0.06999945640563965</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.008691310882568359</v>
+        <v>0.009762048721313477</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03603982925415039</v>
+        <v>0.04214000701904297</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.007216691970825195</v>
+        <v>0.006962060928344727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04325532913208008</v>
+        <v>0.04646944999694824</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.009529352188110352</v>
+        <v>0.01126551628112793</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03988027572631836</v>
+        <v>0.05814933776855469</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.04598307609558105</v>
+        <v>0.05115199089050293</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07875442504882812</v>
+        <v>0.08029532432556152</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.009463071823120117</v>
+        <v>0.009920358657836914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03817510604858398</v>
+        <v>0.03913068771362305</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.008533477783203125</v>
+        <v>0.01019120216369629</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03811287879943848</v>
+        <v>0.04117655754089355</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01183104515075684</v>
+        <v>0.01204180717468262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04121136665344238</v>
+        <v>0.04399371147155762</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01251935958862305</v>
+        <v>0.01278901100158691</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04420685768127441</v>
+        <v>0.0512235164642334</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.01803159713745117</v>
+        <v>0.01571249961853027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06937074661254883</v>
+        <v>0.04221940040588379</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.00783228874206543</v>
+        <v>0.01020956039428711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03919196128845215</v>
+        <v>0.04500365257263184</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.007010221481323242</v>
+        <v>0.00619053840637207</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05509018898010254</v>
+        <v>0.03715133666992188</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.02591061592102051</v>
+        <v>0.02411913871765137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09524106979370117</v>
+        <v>0.05322933197021484</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.006687164306640625</v>
+        <v>0.007529973983764648</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04699540138244629</v>
+        <v>0.04014873504638672</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.006030082702636719</v>
+        <v>0.006710290908813477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03906369209289551</v>
+        <v>0.0371553897857666</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.009370326995849609</v>
+        <v>0.007496118545532227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05000042915344238</v>
+        <v>0.03613138198852539</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.008754968643188477</v>
+        <v>0.009004592895507812</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04105305671691895</v>
+        <v>0.05923557281494141</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.007654190063476562</v>
+        <v>0.007832050323486328</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05826210975646973</v>
+        <v>0.03646230697631836</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01933622360229492</v>
+        <v>0.01279592514038086</v>
       </c>
       <c r="F23" t="n">
-        <v>0.457679271697998</v>
+        <v>0.04231405258178711</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0129084587097168</v>
+        <v>0.01405215263366699</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04218125343322754</v>
+        <v>0.04522395133972168</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.01481032371520996</v>
+        <v>0.01643252372741699</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04864668846130371</v>
+        <v>0.04503083229064941</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.01281476020812988</v>
+        <v>0.01823306083679199</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04831290245056152</v>
+        <v>0.0509955883026123</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.01173567771911621</v>
+        <v>0.01073813438415527</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03841519355773926</v>
+        <v>0.05616164207458496</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.01002311706542969</v>
+        <v>0.01197314262390137</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07169771194458008</v>
+        <v>0.04918241500854492</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.008545160293579102</v>
+        <v>0.007756471633911133</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03870654106140137</v>
+        <v>0.0910038948059082</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.01529359817504883</v>
+        <v>0.01336860656738281</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04387807846069336</v>
+        <v>0.05520224571228027</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.02743625640869141</v>
+        <v>0.03667402267456055</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06008529663085938</v>
+        <v>0.06511592864990234</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.006808757781982422</v>
+        <v>0.008566141128540039</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06521272659301758</v>
+        <v>0.03799581527709961</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.009498834609985352</v>
+        <v>0.009793758392333984</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04109859466552734</v>
+        <v>0.04683065414428711</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.009567022323608398</v>
+        <v>0.01004171371459961</v>
       </c>
       <c r="F34" t="n">
-        <v>0.03921890258789062</v>
+        <v>0.1028087139129639</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.007530927658081055</v>
+        <v>0.009797811508178711</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04901504516601562</v>
+        <v>0.03880214691162109</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.02235889434814453</v>
+        <v>0.02141070365905762</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05207228660583496</v>
+        <v>0.05001235008239746</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.007570981979370117</v>
+        <v>0.006413698196411133</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03374838829040527</v>
+        <v>0.0370025634765625</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.008167028427124023</v>
+        <v>0.00892949104309082</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03545880317687988</v>
+        <v>0.0391385555267334</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.01734328269958496</v>
+        <v>0.01656413078308105</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04709815979003906</v>
+        <v>0.05102086067199707</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.01673603057861328</v>
+        <v>0.0168461799621582</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06403136253356934</v>
+        <v>0.0650026798248291</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.0245664119720459</v>
+        <v>0.03149175643920898</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05200481414794922</v>
+        <v>0.06519937515258789</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.02623629570007324</v>
+        <v>0.02938532829284668</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05447149276733398</v>
+        <v>0.06522822380065918</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.01983118057250977</v>
+        <v>0.02194929122924805</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05044746398925781</v>
+        <v>0.05710315704345703</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.007918596267700195</v>
+        <v>0.007660627365112305</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03655481338500977</v>
+        <v>0.03799939155578613</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.007439374923706055</v>
+        <v>0.007290363311767578</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0360114574432373</v>
+        <v>0.03511857986450195</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.01202273368835449</v>
+        <v>0.01251602172851562</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0446324348449707</v>
+        <v>0.04414820671081543</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.009143352508544922</v>
+        <v>0.009156942367553711</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04114103317260742</v>
+        <v>0.05158448219299316</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.02189159393310547</v>
+        <v>0.03350687026977539</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04923892021179199</v>
+        <v>0.06529855728149414</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.00908350944519043</v>
+        <v>0.01046323776245117</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03569936752319336</v>
+        <v>0.04540491104125977</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.01176977157592773</v>
+        <v>0.01361918449401855</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04028868675231934</v>
+        <v>0.04680633544921875</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.00696873664855957</v>
+        <v>0.006641149520874023</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04160404205322266</v>
+        <v>0.03307318687438965</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.009639978408813477</v>
+        <v>0.008864879608154297</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0369570255279541</v>
+        <v>0.0390019416809082</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.00601649284362793</v>
+        <v>0.008223295211791992</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03209996223449707</v>
+        <v>0.08226203918457031</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.01303267478942871</v>
+        <v>0.01417279243469238</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04213619232177734</v>
+        <v>0.06425094604492188</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.008151054382324219</v>
+        <v>0.00955653190612793</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03714752197265625</v>
+        <v>0.05421257019042969</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.0070648193359375</v>
+        <v>0.007973909378051758</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03511166572570801</v>
+        <v>0.07099199295043945</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.0180351734161377</v>
+        <v>0.01811504364013672</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04958558082580566</v>
+        <v>0.04728245735168457</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.006753444671630859</v>
+        <v>0.00863957405090332</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03783845901489258</v>
+        <v>0.04079055786132812</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.008188486099243164</v>
+        <v>0.008644819259643555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05821776390075684</v>
+        <v>0.04036760330200195</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.02364897727966309</v>
+        <v>0.03398585319519043</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05779361724853516</v>
+        <v>0.0657660961151123</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.00510716438293457</v>
+        <v>0.006250381469726562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05124950408935547</v>
+        <v>0.03589868545532227</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.02507543563842773</v>
+        <v>0.02328944206237793</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05303406715393066</v>
+        <v>0.0522005558013916</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.02786445617675781</v>
+        <v>0.02805829048156738</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08534526824951172</v>
+        <v>0.06129121780395508</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.01334309577941895</v>
+        <v>0.01751446723937988</v>
       </c>
       <c r="F64" t="n">
-        <v>0.05866193771362305</v>
+        <v>0.04498648643493652</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.0112464427947998</v>
+        <v>0.01558327674865723</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04369831085205078</v>
+        <v>0.04521727561950684</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.008740901947021484</v>
+        <v>0.009157419204711914</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03726363182067871</v>
+        <v>0.03511786460876465</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.008030176162719727</v>
+        <v>0.006752490997314453</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04239034652709961</v>
+        <v>0.03306484222412109</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.005593538284301758</v>
+        <v>0.006515741348266602</v>
       </c>
       <c r="F68" t="n">
-        <v>0.03904056549072266</v>
+        <v>0.05823707580566406</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.01995325088500977</v>
+        <v>0.01891326904296875</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09707236289978027</v>
+        <v>0.0459144115447998</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.01297974586486816</v>
+        <v>0.0157158374786377</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04200077056884766</v>
+        <v>0.04491686820983887</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.0076446533203125</v>
+        <v>0.007558345794677734</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03811335563659668</v>
+        <v>0.04573631286621094</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.009608268737792969</v>
+        <v>0.008445262908935547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0602874755859375</v>
+        <v>0.03791069984436035</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.008283376693725586</v>
+        <v>0.006547927856445312</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04718422889709473</v>
+        <v>0.03400230407714844</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.01685237884521484</v>
+        <v>0.02093291282653809</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04721951484680176</v>
+        <v>0.08548927307128906</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.009779214859008789</v>
+        <v>0.01011037826538086</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0599977970123291</v>
+        <v>0.0471034049987793</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.00861668586730957</v>
+        <v>0.007193088531494141</v>
       </c>
       <c r="F76" t="n">
-        <v>0.06500387191772461</v>
+        <v>0.03657150268554688</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.006883859634399414</v>
+        <v>0.007634878158569336</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03299999237060547</v>
+        <v>0.03707098960876465</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.01511263847351074</v>
+        <v>0.01372456550598145</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04407072067260742</v>
+        <v>0.05204916000366211</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.005625724792480469</v>
+        <v>0.005463838577270508</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03525781631469727</v>
+        <v>0.03859949111938477</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.006374359130859375</v>
+        <v>0.005917787551879883</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03307318687438965</v>
+        <v>0.03410577774047852</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.01082491874694824</v>
+        <v>0.008033037185668945</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04119610786437988</v>
+        <v>0.07320594787597656</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.01838827133178711</v>
+        <v>0.02083897590637207</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05028128623962402</v>
+        <v>0.05210542678833008</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.02564215660095215</v>
+        <v>0.02775788307189941</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05418753623962402</v>
+        <v>0.08120203018188477</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.0232536792755127</v>
+        <v>0.02303147315979004</v>
       </c>
       <c r="F84" t="n">
-        <v>0.126514196395874</v>
+        <v>0.05114841461181641</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.01879477500915527</v>
+        <v>0.01877069473266602</v>
       </c>
       <c r="F85" t="n">
-        <v>0.05020689964294434</v>
+        <v>0.05022287368774414</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.01285696029663086</v>
+        <v>0.01790165901184082</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04462766647338867</v>
+        <v>0.1827635765075684</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.01573324203491211</v>
+        <v>0.01756834983825684</v>
       </c>
       <c r="F87" t="n">
-        <v>0.07682466506958008</v>
+        <v>0.1338531970977783</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.01194906234741211</v>
+        <v>0.01240944862365723</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03809976577758789</v>
+        <v>0.09102916717529297</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.01485466957092285</v>
+        <v>0.01505661010742188</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0452275276184082</v>
+        <v>0.04427123069763184</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.01389360427856445</v>
+        <v>0.01856088638305664</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06531047821044922</v>
+        <v>0.05018806457519531</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.01133036613464355</v>
+        <v>0.01265954971313477</v>
       </c>
       <c r="F91" t="n">
-        <v>0.04616594314575195</v>
+        <v>0.05909109115600586</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.01349496841430664</v>
+        <v>0.0115816593170166</v>
       </c>
       <c r="F92" t="n">
-        <v>0.04820156097412109</v>
+        <v>0.0461573600769043</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.02189731597900391</v>
+        <v>0.01407575607299805</v>
       </c>
       <c r="F93" t="n">
-        <v>0.05120468139648438</v>
+        <v>0.06316113471984863</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.02069449424743652</v>
+        <v>0.01430368423461914</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05144214630126953</v>
+        <v>0.04600024223327637</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.008843421936035156</v>
+        <v>0.01071739196777344</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03777170181274414</v>
+        <v>0.03718280792236328</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.008203268051147461</v>
+        <v>0.007166624069213867</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04351687431335449</v>
+        <v>0.03613853454589844</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.02762055397033691</v>
+        <v>0.02324128150939941</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06099963188171387</v>
+        <v>0.05031967163085938</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.01258325576782227</v>
+        <v>0.01622796058654785</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04499411582946777</v>
+        <v>0.05665063858032227</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.006697416305541992</v>
+        <v>0.006023645401000977</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03611969947814941</v>
+        <v>0.03938460350036621</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.008253812789916992</v>
+        <v>0.00863337516784668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04017496109008789</v>
+        <v>0.04039716720581055</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.01361298561096191</v>
+        <v>0.01673555374145508</v>
       </c>
       <c r="F101" t="n">
-        <v>0.04533481597900391</v>
+        <v>0.06320762634277344</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.02809906005859375</v>
+        <v>0.03542065620422363</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07936596870422363</v>
+        <v>0.06319427490234375</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.007964372634887695</v>
+        <v>0.008824586868286133</v>
       </c>
       <c r="F103" t="n">
-        <v>0.04010486602783203</v>
+        <v>0.0371086597442627</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.006889104843139648</v>
+        <v>0.007751703262329102</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03321933746337891</v>
+        <v>0.05819177627563477</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.01702046394348145</v>
+        <v>0.02625155448913574</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04575252532958984</v>
+        <v>0.09059619903564453</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.01082062721252441</v>
+        <v>0.01020383834838867</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06602859497070312</v>
+        <v>0.06592488288879395</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4005,10 +4005,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.01648998260498047</v>
+        <v>0.01699423789978027</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0662696361541748</v>
+        <v>0.04735255241394043</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.01125836372375488</v>
+        <v>0.009179830551147461</v>
       </c>
       <c r="F108" t="n">
-        <v>0.04116988182067871</v>
+        <v>0.1212272644042969</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.007701873779296875</v>
+        <v>0.007888555526733398</v>
       </c>
       <c r="F109" t="n">
-        <v>0.04018521308898926</v>
+        <v>0.03618240356445312</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.01279878616333008</v>
+        <v>0.009706258773803711</v>
       </c>
       <c r="F110" t="n">
-        <v>0.04510617256164551</v>
+        <v>0.03999423980712891</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.009987115859985352</v>
+        <v>0.01073789596557617</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06881833076477051</v>
+        <v>0.08903121948242188</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.05134892463684082</v>
+        <v>0.06301784515380859</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07908296585083008</v>
+        <v>0.09203076362609863</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.01730704307556152</v>
+        <v>0.01228880882263184</v>
       </c>
       <c r="F113" t="n">
-        <v>0.04612278938293457</v>
+        <v>0.04919171333312988</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.007491827011108398</v>
+        <v>0.00588536262512207</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04891228675842285</v>
+        <v>0.03609180450439453</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.0526587963104248</v>
+        <v>0.0402226448059082</v>
       </c>
       <c r="F115" t="n">
-        <v>0.08644700050354004</v>
+        <v>0.07932758331298828</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.006581544876098633</v>
+        <v>0.006656646728515625</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03711485862731934</v>
+        <v>0.0402214527130127</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4360,10 +4360,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.006752490997314453</v>
+        <v>0.00601649284362793</v>
       </c>
       <c r="F117" t="n">
-        <v>0.03519892692565918</v>
+        <v>0.03599834442138672</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.005802154541015625</v>
+        <v>0.008554935455322266</v>
       </c>
       <c r="F118" t="n">
-        <v>0.04030585289001465</v>
+        <v>0.04116988182067871</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.008021116256713867</v>
+        <v>0.007208824157714844</v>
       </c>
       <c r="F119" t="n">
-        <v>0.04161977767944336</v>
+        <v>0.03534340858459473</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.008992433547973633</v>
+        <v>0.009258747100830078</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04448151588439941</v>
+        <v>0.04316592216491699</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.01074957847595215</v>
+        <v>0.01218104362487793</v>
       </c>
       <c r="F121" t="n">
-        <v>0.05044007301330566</v>
+        <v>0.1273980140686035</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.01617884635925293</v>
+        <v>0.01727747917175293</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04698801040649414</v>
+        <v>0.04343152046203613</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.01080679893493652</v>
+        <v>0.0144960880279541</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04208040237426758</v>
+        <v>0.07832765579223633</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.009920120239257812</v>
+        <v>0.01067566871643066</v>
       </c>
       <c r="F124" t="n">
-        <v>0.04020905494689941</v>
+        <v>0.03900861740112305</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.07230067253112793</v>
+        <v>0.05302667617797852</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1034610271453857</v>
+        <v>0.09323215484619141</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.01533174514770508</v>
+        <v>0.02008891105651855</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06578683853149414</v>
+        <v>0.04718685150146484</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4726,10 +4726,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.03544950485229492</v>
+        <v>0.03689312934875488</v>
       </c>
       <c r="F127" t="n">
-        <v>0.09928083419799805</v>
+        <v>0.06671881675720215</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.01277947425842285</v>
+        <v>0.01436829566955566</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0919194221496582</v>
+        <v>0.04092931747436523</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.01629781723022461</v>
+        <v>0.01749444007873535</v>
       </c>
       <c r="F129" t="n">
-        <v>0.06200337409973145</v>
+        <v>0.0453183650970459</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.01434016227722168</v>
+        <v>0.01430678367614746</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04800105094909668</v>
+        <v>0.06629300117492676</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.01571893692016602</v>
+        <v>0.01458263397216797</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1706821918487549</v>
+        <v>0.05301451683044434</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.01877999305725098</v>
+        <v>0.01776957511901855</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1125106811523438</v>
+        <v>0.08800911903381348</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.01666021347045898</v>
+        <v>0.0158841609954834</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05502986907958984</v>
+        <v>0.04105615615844727</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.0123136043548584</v>
+        <v>0.01224708557128906</v>
       </c>
       <c r="F134" t="n">
-        <v>0.07431364059448242</v>
+        <v>0.06599998474121094</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4988,10 +4988,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.02471208572387695</v>
+        <v>0.02588057518005371</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1145796775817871</v>
+        <v>0.05300211906433105</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.01301336288452148</v>
+        <v>0.01081323623657227</v>
       </c>
       <c r="F136" t="n">
-        <v>0.04112505912780762</v>
+        <v>0.0660090446472168</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.007120370864868164</v>
+        <v>0.007695913314819336</v>
       </c>
       <c r="F137" t="n">
-        <v>0.03814911842346191</v>
+        <v>0.06800651550292969</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.0184319019317627</v>
+        <v>0.01954841613769531</v>
       </c>
       <c r="F138" t="n">
-        <v>0.04825329780578613</v>
+        <v>0.05631327629089355</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5120,10 +5120,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.0245966911315918</v>
+        <v>0.02003598213195801</v>
       </c>
       <c r="F139" t="n">
-        <v>0.06723284721374512</v>
+        <v>0.07492995262145996</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.01163387298583984</v>
+        <v>0.01400136947631836</v>
       </c>
       <c r="F140" t="n">
-        <v>0.04586601257324219</v>
+        <v>0.07226896286010742</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.009723186492919922</v>
+        <v>0.01189541816711426</v>
       </c>
       <c r="F141" t="n">
-        <v>0.06521749496459961</v>
+        <v>0.05810546875</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.006569862365722656</v>
+        <v>0.008170843124389648</v>
       </c>
       <c r="F142" t="n">
-        <v>0.05923581123352051</v>
+        <v>0.03616118431091309</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.008390188217163086</v>
+        <v>0.009677410125732422</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04211044311523438</v>
+        <v>0.06500458717346191</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5277,10 +5277,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.01044011116027832</v>
+        <v>0.01019692420959473</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04219222068786621</v>
+        <v>0.04600024223327637</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.01149821281433105</v>
+        <v>0.008568286895751953</v>
       </c>
       <c r="F145" t="n">
-        <v>0.05832433700561523</v>
+        <v>0.04105210304260254</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.008074760437011719</v>
+        <v>0.008717060089111328</v>
       </c>
       <c r="F146" t="n">
-        <v>0.04014682769775391</v>
+        <v>0.04720330238342285</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.008791208267211914</v>
+        <v>0.007918596267700195</v>
       </c>
       <c r="F147" t="n">
-        <v>0.03828287124633789</v>
+        <v>0.03899908065795898</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.007083415985107422</v>
+        <v>0.01043534278869629</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03609180450439453</v>
+        <v>0.0409998893737793</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.006599903106689453</v>
+        <v>0.006094694137573242</v>
       </c>
       <c r="F149" t="n">
-        <v>0.03733277320861816</v>
+        <v>0.0380089282989502</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5473,10 +5473,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.02140378952026367</v>
+        <v>0.02161478996276855</v>
       </c>
       <c r="F150" t="n">
-        <v>0.04818582534790039</v>
+        <v>0.04826211929321289</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.01082086563110352</v>
+        <v>0.01107478141784668</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0431666374206543</v>
+        <v>0.08002567291259766</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.01045346260070801</v>
+        <v>0.008796215057373047</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1950128078460693</v>
+        <v>0.03709864616394043</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.01005649566650391</v>
+        <v>0.008757591247558594</v>
       </c>
       <c r="F153" t="n">
-        <v>0.07229876518249512</v>
+        <v>0.04499530792236328</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.0161585807800293</v>
+        <v>0.01096510887145996</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06772828102111816</v>
+        <v>0.03621077537536621</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.007709980010986328</v>
+        <v>0.007901668548583984</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03817129135131836</v>
+        <v>0.03416872024536133</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.0155031681060791</v>
+        <v>0.01983499526977539</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04999041557312012</v>
+        <v>0.06723332405090332</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.01751470565795898</v>
+        <v>0.01456141471862793</v>
       </c>
       <c r="F157" t="n">
-        <v>0.05226922035217285</v>
+        <v>0.1004712581634521</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.01496291160583496</v>
+        <v>0.01767730712890625</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04519391059875488</v>
+        <v>0.04516744613647461</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.01008105278015137</v>
+        <v>0.01158285140991211</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04113483428955078</v>
+        <v>0.03814268112182617</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.01198482513427734</v>
+        <v>0.01166391372680664</v>
       </c>
       <c r="F160" t="n">
-        <v>1.061679124832153</v>
+        <v>0.05209851264953613</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.01985859870910645</v>
+        <v>0.02566790580749512</v>
       </c>
       <c r="F161" t="n">
-        <v>0.07709717750549316</v>
+        <v>0.08168745040893555</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.008229255676269531</v>
+        <v>0.009017705917358398</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3115103244781494</v>
+        <v>0.03808903694152832</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.01039862632751465</v>
+        <v>0.009787082672119141</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03799962997436523</v>
+        <v>0.03720283508300781</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.00894927978515625</v>
+        <v>0.009316921234130859</v>
       </c>
       <c r="F164" t="n">
-        <v>0.04926943778991699</v>
+        <v>0.05113458633422852</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.00687861442565918</v>
+        <v>0.009765863418579102</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03713130950927734</v>
+        <v>0.03810763359069824</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.009955883026123047</v>
+        <v>0.009909391403198242</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04020309448242188</v>
+        <v>1.045806169509888</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.02313685417175293</v>
+        <v>0.01862692832946777</v>
       </c>
       <c r="F167" t="n">
-        <v>0.05131673812866211</v>
+        <v>0.0452425479888916</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -6071,10 +6071,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.01280665397644043</v>
+        <v>0.009743452072143555</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04315304756164551</v>
+        <v>0.03810358047485352</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.008552074432373047</v>
+        <v>0.009464025497436523</v>
       </c>
       <c r="F169" t="n">
-        <v>0.03856372833251953</v>
+        <v>0.04015207290649414</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6141,10 +6141,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.00879979133605957</v>
+        <v>0.0103919506072998</v>
       </c>
       <c r="F170" t="n">
-        <v>0.03684353828430176</v>
+        <v>0.04214239120483398</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.01163268089294434</v>
+        <v>0.01332497596740723</v>
       </c>
       <c r="F171" t="n">
-        <v>0.03747725486755371</v>
+        <v>0.06728196144104004</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.03305530548095703</v>
+        <v>0.05214691162109375</v>
       </c>
       <c r="F172" t="n">
-        <v>0.06392621994018555</v>
+        <v>0.1025142669677734</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.05158591270446777</v>
+        <v>0.07832646369934082</v>
       </c>
       <c r="F173" t="n">
-        <v>0.08044600486755371</v>
+        <v>0.1063833236694336</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.005593538284301758</v>
+        <v>0.006025791168212891</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0470883846282959</v>
+        <v>0.05626082420349121</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.02914786338806152</v>
+        <v>0.02824258804321289</v>
       </c>
       <c r="F175" t="n">
-        <v>0.06027841567993164</v>
+        <v>0.08147096633911133</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.01377773284912109</v>
+        <v>0.01717400550842285</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04012966156005859</v>
+        <v>0.04825377464294434</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.01496005058288574</v>
+        <v>0.0157618522644043</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0442044734954834</v>
+        <v>1.048531532287598</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.01727819442749023</v>
+        <v>0.01920580863952637</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04615354537963867</v>
+        <v>0.05921316146850586</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.01758599281311035</v>
+        <v>0.02038097381591797</v>
       </c>
       <c r="F179" t="n">
-        <v>0.04833507537841797</v>
+        <v>0.0520789623260498</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.01320266723632812</v>
+        <v>0.01410412788391113</v>
       </c>
       <c r="F180" t="n">
-        <v>0.03994154930114746</v>
+        <v>0.05118417739868164</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6547,10 +6547,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.0109553337097168</v>
+        <v>0.01157784461975098</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05020546913146973</v>
+        <v>0.0432593822479248</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.01247978210449219</v>
+        <v>0.01409602165222168</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0427701473236084</v>
+        <v>0.04014110565185547</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6633,10 +6633,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.06046676635742188</v>
+        <v>0.03879451751708984</v>
       </c>
       <c r="F183" t="n">
-        <v>0.08947110176086426</v>
+        <v>0.06800174713134766</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.01606273651123047</v>
+        <v>0.01561594009399414</v>
       </c>
       <c r="F184" t="n">
-        <v>0.06630373001098633</v>
+        <v>0.0452277660369873</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.03488731384277344</v>
+        <v>0.02322840690612793</v>
       </c>
       <c r="F185" t="n">
-        <v>0.06430196762084961</v>
+        <v>0.05117082595825195</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.01220607757568359</v>
+        <v>0.01251935958862305</v>
       </c>
       <c r="F186" t="n">
-        <v>0.04701066017150879</v>
+        <v>0.05513668060302734</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.03013300895690918</v>
+        <v>0.03036928176879883</v>
       </c>
       <c r="F187" t="n">
-        <v>0.06127190589904785</v>
+        <v>0.05741548538208008</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6822,10 +6822,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.03767490386962891</v>
+        <v>0.03953766822814941</v>
       </c>
       <c r="F188" t="n">
-        <v>0.06456398963928223</v>
+        <v>0.06748795509338379</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.01779627799987793</v>
+        <v>0.0131828784942627</v>
       </c>
       <c r="F189" t="n">
-        <v>0.05113720893859863</v>
+        <v>0.04923462867736816</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.01536226272583008</v>
+        <v>0.01686358451843262</v>
       </c>
       <c r="F190" t="n">
-        <v>0.05894112586975098</v>
+        <v>0.05951452255249023</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.01976180076599121</v>
+        <v>0.02110457420349121</v>
       </c>
       <c r="F191" t="n">
-        <v>0.05225276947021484</v>
+        <v>0.04818272590637207</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.01194334030151367</v>
+        <v>0.01293444633483887</v>
       </c>
       <c r="F192" t="n">
-        <v>0.06729888916015625</v>
+        <v>0.04114270210266113</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.01166296005249023</v>
+        <v>0.01128649711608887</v>
       </c>
       <c r="F193" t="n">
-        <v>0.03813767433166504</v>
+        <v>0.04217410087585449</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.005842685699462891</v>
+        <v>0.005249261856079102</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0330967903137207</v>
+        <v>0.05008411407470703</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.01355385780334473</v>
+        <v>0.0126643180847168</v>
       </c>
       <c r="F195" t="n">
-        <v>0.04544377326965332</v>
+        <v>0.0482177734375</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.01541566848754883</v>
+        <v>0.01876950263977051</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0451200008392334</v>
+        <v>0.05122900009155273</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.01245665550231934</v>
+        <v>0.01393699645996094</v>
       </c>
       <c r="F197" t="n">
-        <v>0.06234335899353027</v>
+        <v>0.04411053657531738</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -7149,10 +7149,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.01309585571289062</v>
+        <v>0.01595973968505859</v>
       </c>
       <c r="F198" t="n">
-        <v>0.1025288105010986</v>
+        <v>0.04522848129272461</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.01382803916931152</v>
+        <v>0.01468181610107422</v>
       </c>
       <c r="F199" t="n">
-        <v>0.04498744010925293</v>
+        <v>0.04526948928833008</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.007731437683105469</v>
+        <v>0.008485794067382812</v>
       </c>
       <c r="F200" t="n">
-        <v>0.04020380973815918</v>
+        <v>0.03900575637817383</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.02213597297668457</v>
+        <v>0.02159309387207031</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0500023365020752</v>
+        <v>0.05728912353515625</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -7277,10 +7277,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.007627010345458984</v>
+        <v>0.01017308235168457</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0512082576751709</v>
+        <v>0.03820109367370605</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.007628440856933594</v>
+        <v>0.009423732757568359</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0361180305480957</v>
+        <v>0.03911113739013672</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.005645990371704102</v>
+        <v>0.006489038467407227</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03110957145690918</v>
+        <v>0.03319334983825684</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.009640693664550781</v>
+        <v>0.01045393943786621</v>
       </c>
       <c r="F205" t="n">
-        <v>0.03712749481201172</v>
+        <v>0.03741335868835449</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.01890826225280762</v>
+        <v>0.01907777786254883</v>
       </c>
       <c r="F206" t="n">
-        <v>0.05323100090026855</v>
+        <v>0.04825210571289062</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7442,10 +7442,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.02035737037658691</v>
+        <v>0.0219578742980957</v>
       </c>
       <c r="F207" t="n">
-        <v>0.04924941062927246</v>
+        <v>0.05113792419433594</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.005869150161743164</v>
+        <v>0.007053852081298828</v>
       </c>
       <c r="F208" t="n">
-        <v>0.03614091873168945</v>
+        <v>0.04374837875366211</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -7508,10 +7508,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.01385331153869629</v>
+        <v>0.01363134384155273</v>
       </c>
       <c r="F209" t="n">
-        <v>0.05025577545166016</v>
+        <v>0.05213761329650879</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.02250170707702637</v>
+        <v>0.02037549018859863</v>
       </c>
       <c r="F210" t="n">
-        <v>0.05416226387023926</v>
+        <v>0.0520012378692627</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -7585,10 +7585,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.04425215721130371</v>
+        <v>0.03632116317749023</v>
       </c>
       <c r="F211" t="n">
-        <v>0.08759546279907227</v>
+        <v>0.08540058135986328</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7616,10 +7616,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.007525444030761719</v>
+        <v>0.0077667236328125</v>
       </c>
       <c r="F212" t="n">
-        <v>0.03383302688598633</v>
+        <v>0.08101034164428711</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.01736640930175781</v>
+        <v>0.01851868629455566</v>
       </c>
       <c r="F213" t="n">
-        <v>0.06214141845703125</v>
+        <v>0.04723882675170898</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.008245706558227539</v>
+        <v>0.01336765289306641</v>
       </c>
       <c r="F214" t="n">
-        <v>0.03849077224731445</v>
+        <v>0.06621503829956055</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7713,10 +7713,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.00818634033203125</v>
+        <v>0.006863117218017578</v>
       </c>
       <c r="F215" t="n">
-        <v>0.05271220207214355</v>
+        <v>0.2233467102050781</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.01276421546936035</v>
+        <v>0.01618742942810059</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0596005916595459</v>
+        <v>0.04416036605834961</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7775,10 +7775,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.01235079765319824</v>
+        <v>0.01712942123413086</v>
       </c>
       <c r="F217" t="n">
-        <v>0.04246640205383301</v>
+        <v>0.0439152717590332</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.06674075126647949</v>
+        <v>0.05911779403686523</v>
       </c>
       <c r="F218" t="n">
-        <v>0.1115198135375977</v>
+        <v>0.09354996681213379</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7841,10 +7841,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.01041793823242188</v>
+        <v>0.009064674377441406</v>
       </c>
       <c r="F219" t="n">
-        <v>0.03962159156799316</v>
+        <v>0.04011225700378418</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.01270866394042969</v>
+        <v>0.01181364059448242</v>
       </c>
       <c r="F220" t="n">
-        <v>0.03843021392822266</v>
+        <v>0.04325127601623535</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.014617919921875</v>
+        <v>0.01426410675048828</v>
       </c>
       <c r="F221" t="n">
-        <v>0.04689478874206543</v>
+        <v>0.05739545822143555</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.01367926597595215</v>
+        <v>0.01587247848510742</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0489962100982666</v>
+        <v>0.0452582836151123</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.01028537750244141</v>
+        <v>0.00989985466003418</v>
       </c>
       <c r="F223" t="n">
-        <v>0.03900527954101562</v>
+        <v>0.04000139236450195</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.01469039916992188</v>
+        <v>0.01166272163391113</v>
       </c>
       <c r="F224" t="n">
-        <v>0.04799365997314453</v>
+        <v>0.07131433486938477</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8033,10 +8033,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.01732134819030762</v>
+        <v>0.01593494415283203</v>
       </c>
       <c r="F225" t="n">
-        <v>0.04800176620483398</v>
+        <v>0.05121040344238281</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.01180243492126465</v>
+        <v>0.01167535781860352</v>
       </c>
       <c r="F226" t="n">
-        <v>0.04415225982666016</v>
+        <v>0.04017996788024902</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.008803367614746094</v>
+        <v>0.008543252944946289</v>
       </c>
       <c r="F227" t="n">
-        <v>0.03870749473571777</v>
+        <v>0.04229402542114258</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -8130,10 +8130,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.01465535163879395</v>
+        <v>0.01788043975830078</v>
       </c>
       <c r="F228" t="n">
-        <v>0.04389548301696777</v>
+        <v>0.09245920181274414</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.01477932929992676</v>
+        <v>0.01402449607849121</v>
       </c>
       <c r="F229" t="n">
-        <v>0.08009767532348633</v>
+        <v>0.07650876045227051</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.01486420631408691</v>
+        <v>0.01190352439880371</v>
       </c>
       <c r="F230" t="n">
-        <v>0.08141040802001953</v>
+        <v>0.04213356971740723</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -8225,10 +8225,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.006618738174438477</v>
+        <v>0.008360147476196289</v>
       </c>
       <c r="F231" t="n">
-        <v>0.03509044647216797</v>
+        <v>0.03610610961914062</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.009333133697509766</v>
+        <v>0.008672714233398438</v>
       </c>
       <c r="F232" t="n">
-        <v>0.03813362121582031</v>
+        <v>0.06422162055969238</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.008659839630126953</v>
+        <v>0.008892297744750977</v>
       </c>
       <c r="F233" t="n">
-        <v>0.04392123222351074</v>
+        <v>0.03716063499450684</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -8320,10 +8320,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.01109647750854492</v>
+        <v>0.008723020553588867</v>
       </c>
       <c r="F234" t="n">
-        <v>0.05974125862121582</v>
+        <v>0.03822970390319824</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.02200865745544434</v>
+        <v>0.01475095748901367</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0521538257598877</v>
+        <v>0.04169774055480957</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -8390,10 +8390,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.03060030937194824</v>
+        <v>0.02951669692993164</v>
       </c>
       <c r="F236" t="n">
-        <v>0.4196839332580566</v>
+        <v>0.06181955337524414</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -8421,10 +8421,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.008235454559326172</v>
+        <v>0.009072303771972656</v>
       </c>
       <c r="F237" t="n">
-        <v>0.03815650939941406</v>
+        <v>0.03891134262084961</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.02140951156616211</v>
+        <v>0.02037596702575684</v>
       </c>
       <c r="F238" t="n">
-        <v>0.07335162162780762</v>
+        <v>0.08600592613220215</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8489,10 +8489,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.01339459419250488</v>
+        <v>0.0130927562713623</v>
       </c>
       <c r="F239" t="n">
-        <v>0.04123473167419434</v>
+        <v>0.07900190353393555</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.02012085914611816</v>
+        <v>0.01864147186279297</v>
       </c>
       <c r="F240" t="n">
-        <v>0.04820513725280762</v>
+        <v>0.05099821090698242</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.01827645301818848</v>
+        <v>0.0167994499206543</v>
       </c>
       <c r="F241" t="n">
-        <v>0.04510927200317383</v>
+        <v>0.08100080490112305</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.01043987274169922</v>
+        <v>0.01080322265625</v>
       </c>
       <c r="F242" t="n">
-        <v>0.03914761543273926</v>
+        <v>0.1570618152618408</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.02999305725097656</v>
+        <v>0.02970027923583984</v>
       </c>
       <c r="F243" t="n">
-        <v>0.05823922157287598</v>
+        <v>0.05810403823852539</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8658,10 +8658,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.01310181617736816</v>
+        <v>0.0113837718963623</v>
       </c>
       <c r="F244" t="n">
-        <v>0.05828523635864258</v>
+        <v>0.04078388214111328</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8689,10 +8689,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.01612448692321777</v>
+        <v>0.01515960693359375</v>
       </c>
       <c r="F245" t="n">
-        <v>0.08942604064941406</v>
+        <v>0.04423022270202637</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8720,10 +8720,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.006735801696777344</v>
+        <v>0.007755756378173828</v>
       </c>
       <c r="F246" t="n">
-        <v>0.03612947463989258</v>
+        <v>0.03609251976013184</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8751,10 +8751,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.01499032974243164</v>
+        <v>0.01339936256408691</v>
       </c>
       <c r="F247" t="n">
-        <v>0.05916810035705566</v>
+        <v>0.04315066337585449</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.005761384963989258</v>
+        <v>0.005990505218505859</v>
       </c>
       <c r="F248" t="n">
-        <v>0.04523539543151855</v>
+        <v>0.03693604469299316</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.007730484008789062</v>
+        <v>0.00704503059387207</v>
       </c>
       <c r="F249" t="n">
-        <v>0.07129073143005371</v>
+        <v>0.08645534515380859</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.01114106178283691</v>
+        <v>0.01066803932189941</v>
       </c>
       <c r="F250" t="n">
-        <v>0.04181289672851562</v>
+        <v>0.04575967788696289</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8877,10 +8877,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.007426023483276367</v>
+        <v>0.007626533508300781</v>
       </c>
       <c r="F251" t="n">
-        <v>0.04020404815673828</v>
+        <v>0.04827570915222168</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.01006650924682617</v>
+        <v>0.01053857803344727</v>
       </c>
       <c r="F252" t="n">
-        <v>0.04212379455566406</v>
+        <v>0.05098104476928711</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8941,10 +8941,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.008811235427856445</v>
+        <v>0.009438991546630859</v>
       </c>
       <c r="F253" t="n">
-        <v>0.05016613006591797</v>
+        <v>0.05231189727783203</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.01350259780883789</v>
+        <v>0.0110325813293457</v>
       </c>
       <c r="F254" t="n">
-        <v>0.04521989822387695</v>
+        <v>0.05821800231933594</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -9039,10 +9039,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.08382987976074219</v>
+        <v>0.09384775161743164</v>
       </c>
       <c r="F255" t="n">
-        <v>0.1419670581817627</v>
+        <v>0.1211602687835693</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -9072,10 +9072,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.02076816558837891</v>
+        <v>0.01543188095092773</v>
       </c>
       <c r="F256" t="n">
-        <v>0.1484029293060303</v>
+        <v>0.04404449462890625</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -9111,10 +9111,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.01694202423095703</v>
+        <v>0.01573610305786133</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0543065071105957</v>
+        <v>0.08531069755554199</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.007136106491088867</v>
+        <v>0.006467103958129883</v>
       </c>
       <c r="F258" t="n">
-        <v>0.03724431991577148</v>
+        <v>0.03230667114257812</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.02650809288024902</v>
+        <v>0.02862691879272461</v>
       </c>
       <c r="F259" t="n">
-        <v>0.05633020401000977</v>
+        <v>0.05712127685546875</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -9225,10 +9225,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.01904082298278809</v>
+        <v>0.01980352401733398</v>
       </c>
       <c r="F260" t="n">
-        <v>0.04924726486206055</v>
+        <v>0.04617881774902344</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -9309,10 +9309,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.1171045303344727</v>
+        <v>0.1187243461608887</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1469330787658691</v>
+        <v>0.1514244079589844</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -9340,10 +9340,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.01266837120056152</v>
+        <v>0.01324963569641113</v>
       </c>
       <c r="F262" t="n">
-        <v>0.04154276847839355</v>
+        <v>0.04105710983276367</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.007459163665771484</v>
+        <v>0.008124828338623047</v>
       </c>
       <c r="F263" t="n">
-        <v>0.03885626792907715</v>
+        <v>0.03575825691223145</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.01207375526428223</v>
+        <v>0.01352024078369141</v>
       </c>
       <c r="F264" t="n">
-        <v>0.03838372230529785</v>
+        <v>0.04183673858642578</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -9437,10 +9437,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.01387405395507812</v>
+        <v>0.01461982727050781</v>
       </c>
       <c r="F265" t="n">
-        <v>0.04181718826293945</v>
+        <v>0.04630303382873535</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.007775068283081055</v>
+        <v>0.009496688842773438</v>
       </c>
       <c r="F266" t="n">
-        <v>0.03746485710144043</v>
+        <v>0.0379178524017334</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -9505,10 +9505,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.01467442512512207</v>
+        <v>0.01396560668945312</v>
       </c>
       <c r="F267" t="n">
-        <v>0.04602789878845215</v>
+        <v>0.0466456413269043</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -9546,10 +9546,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.01940178871154785</v>
+        <v>0.01947140693664551</v>
       </c>
       <c r="F268" t="n">
-        <v>0.04671478271484375</v>
+        <v>0.09660601615905762</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.01195335388183594</v>
+        <v>0.01170825958251953</v>
       </c>
       <c r="F269" t="n">
-        <v>0.04411506652832031</v>
+        <v>0.04614567756652832</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -9608,10 +9608,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.01159119606018066</v>
+        <v>0.01065874099731445</v>
       </c>
       <c r="F270" t="n">
-        <v>0.04219627380371094</v>
+        <v>0.03815054893493652</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -9641,10 +9641,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.01288008689880371</v>
+        <v>0.01172423362731934</v>
       </c>
       <c r="F271" t="n">
-        <v>0.04424953460693359</v>
+        <v>0.045013427734375</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.006882667541503906</v>
+        <v>0.006949186325073242</v>
       </c>
       <c r="F272" t="n">
-        <v>0.03405213356018066</v>
+        <v>0.03412890434265137</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -9705,10 +9705,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.01157188415527344</v>
+        <v>0.01340675354003906</v>
       </c>
       <c r="F273" t="n">
-        <v>0.05941653251647949</v>
+        <v>0.05600476264953613</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -9736,10 +9736,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.007918119430541992</v>
+        <v>0.009524345397949219</v>
       </c>
       <c r="F274" t="n">
-        <v>0.04115533828735352</v>
+        <v>0.04108762741088867</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.01312708854675293</v>
+        <v>0.01407837867736816</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0452113151550293</v>
+        <v>0.04700183868408203</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -9798,10 +9798,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.01013946533203125</v>
+        <v>0.0114285945892334</v>
       </c>
       <c r="F276" t="n">
-        <v>0.1126945018768311</v>
+        <v>0.04199671745300293</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.01082396507263184</v>
+        <v>0.009836912155151367</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0434417724609375</v>
+        <v>0.03583908081054688</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -9860,10 +9860,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.009573459625244141</v>
+        <v>0.01101970672607422</v>
       </c>
       <c r="F278" t="n">
-        <v>0.04608821868896484</v>
+        <v>0.03900456428527832</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9891,10 +9891,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.006092071533203125</v>
+        <v>0.006941318511962891</v>
       </c>
       <c r="F279" t="n">
-        <v>0.07947754859924316</v>
+        <v>0.04206418991088867</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9926,10 +9926,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.009371042251586914</v>
+        <v>0.009006977081298828</v>
       </c>
       <c r="F280" t="n">
-        <v>0.04114603996276855</v>
+        <v>0.03686428070068359</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.02383232116699219</v>
+        <v>0.02594590187072754</v>
       </c>
       <c r="F281" t="n">
-        <v>0.05006003379821777</v>
+        <v>0.05623674392700195</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9994,10 +9994,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.01027083396911621</v>
+        <v>0.01356124877929688</v>
       </c>
       <c r="F282" t="n">
-        <v>0.2761945724487305</v>
+        <v>0.04512715339660645</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -10025,10 +10025,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.009788751602172852</v>
+        <v>0.01089310646057129</v>
       </c>
       <c r="F283" t="n">
-        <v>0.03915262222290039</v>
+        <v>0.04019808769226074</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -10056,10 +10056,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.007925748825073242</v>
+        <v>0.007081508636474609</v>
       </c>
       <c r="F284" t="n">
-        <v>0.04211783409118652</v>
+        <v>0.03800678253173828</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -10087,10 +10087,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.006090402603149414</v>
+        <v>0.007945775985717773</v>
       </c>
       <c r="F285" t="n">
-        <v>0.04210448265075684</v>
+        <v>0.04610610008239746</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -10118,10 +10118,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.005625724792480469</v>
+        <v>0.005280971527099609</v>
       </c>
       <c r="F286" t="n">
-        <v>0.03762984275817871</v>
+        <v>0.07502102851867676</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.00780177116394043</v>
+        <v>0.007215738296508789</v>
       </c>
       <c r="F287" t="n">
-        <v>0.05425405502319336</v>
+        <v>0.04212307929992676</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.01555848121643066</v>
+        <v>0.01578497886657715</v>
       </c>
       <c r="F288" t="n">
-        <v>0.04329800605773926</v>
+        <v>0.05059671401977539</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -10217,10 +10217,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.01228475570678711</v>
+        <v>0.01156830787658691</v>
       </c>
       <c r="F289" t="n">
-        <v>0.04466891288757324</v>
+        <v>0.05342602729797363</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -10254,10 +10254,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.01287698745727539</v>
+        <v>0.01058506965637207</v>
       </c>
       <c r="F290" t="n">
-        <v>0.05632305145263672</v>
+        <v>0.04009175300598145</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -10289,10 +10289,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.03388547897338867</v>
+        <v>0.0306541919708252</v>
       </c>
       <c r="F291" t="n">
-        <v>0.08737635612487793</v>
+        <v>0.06120014190673828</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -10322,10 +10322,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.01725888252258301</v>
+        <v>0.01673126220703125</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0642547607421875</v>
+        <v>0.0663154125213623</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -10355,10 +10355,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.008785247802734375</v>
+        <v>0.009012937545776367</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0361628532409668</v>
+        <v>0.05113053321838379</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.009935855865478516</v>
+        <v>0.01108121871948242</v>
       </c>
       <c r="F294" t="n">
-        <v>0.04220795631408691</v>
+        <v>0.0401616096496582</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -10419,10 +10419,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.007511138916015625</v>
+        <v>0.006670236587524414</v>
       </c>
       <c r="F295" t="n">
-        <v>0.04915070533752441</v>
+        <v>0.05020785331726074</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -10454,10 +10454,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.0101470947265625</v>
+        <v>0.01016139984130859</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0422356128692627</v>
+        <v>0.04518294334411621</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -10487,10 +10487,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.01278877258300781</v>
+        <v>0.01890063285827637</v>
       </c>
       <c r="F297" t="n">
-        <v>0.04444217681884766</v>
+        <v>0.149843692779541</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.01608395576477051</v>
+        <v>0.02063512802124023</v>
       </c>
       <c r="F298" t="n">
-        <v>0.06626319885253906</v>
+        <v>0.09882473945617676</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -10569,10 +10569,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.02461981773376465</v>
+        <v>0.02651691436767578</v>
       </c>
       <c r="F299" t="n">
-        <v>0.1004040241241455</v>
+        <v>0.06073689460754395</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.02414798736572266</v>
+        <v>0.02501988410949707</v>
       </c>
       <c r="F300" t="n">
-        <v>0.05333447456359863</v>
+        <v>0.08697009086608887</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -10637,10 +10637,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.02523398399353027</v>
+        <v>0.02433443069458008</v>
       </c>
       <c r="F301" t="n">
-        <v>0.05930280685424805</v>
+        <v>0.1508197784423828</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -10670,10 +10670,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.01334595680236816</v>
+        <v>0.01318645477294922</v>
       </c>
       <c r="F302" t="n">
-        <v>0.04113197326660156</v>
+        <v>0.04203295707702637</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -10703,10 +10703,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.009700536727905273</v>
+        <v>0.01076436042785645</v>
       </c>
       <c r="F303" t="n">
-        <v>0.04109954833984375</v>
+        <v>0.04111766815185547</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -10735,10 +10735,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.01021194458007812</v>
+        <v>0.01066732406616211</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0411677360534668</v>
+        <v>0.1987793445587158</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.01869463920593262</v>
+        <v>0.01658177375793457</v>
       </c>
       <c r="F305" t="n">
-        <v>0.05172586441040039</v>
+        <v>0.152724027633667</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -10809,10 +10809,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.01200294494628906</v>
+        <v>0.01128625869750977</v>
       </c>
       <c r="F306" t="n">
-        <v>0.06969618797302246</v>
+        <v>0.04462289810180664</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -10852,10 +10852,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.0193169116973877</v>
+        <v>0.01434135437011719</v>
       </c>
       <c r="F307" t="n">
-        <v>0.1008906364440918</v>
+        <v>0.04272627830505371</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.01729989051818848</v>
+        <v>0.0146937370300293</v>
       </c>
       <c r="F308" t="n">
-        <v>0.07042956352233887</v>
+        <v>0.0994870662689209</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.01097965240478516</v>
+        <v>0.011199951171875</v>
       </c>
       <c r="F309" t="n">
-        <v>0.05266189575195312</v>
+        <v>0.0415952205657959</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.007753372192382812</v>
+        <v>0.006526947021484375</v>
       </c>
       <c r="F310" t="n">
-        <v>0.04858851432800293</v>
+        <v>0.04110193252563477</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.01664972305297852</v>
+        <v>0.01396965980529785</v>
       </c>
       <c r="F311" t="n">
-        <v>0.0435187816619873</v>
+        <v>0.04911661148071289</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.009870290756225586</v>
+        <v>0.006664037704467773</v>
       </c>
       <c r="F312" t="n">
-        <v>0.05827975273132324</v>
+        <v>0.03667116165161133</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -11052,10 +11052,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.007875680923461914</v>
+        <v>0.007137775421142578</v>
       </c>
       <c r="F313" t="n">
-        <v>0.06429338455200195</v>
+        <v>0.03659892082214355</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.01335883140563965</v>
+        <v>0.01199889183044434</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0903313159942627</v>
+        <v>0.05121326446533203</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.008614540100097656</v>
+        <v>0.009965658187866211</v>
       </c>
       <c r="F315" t="n">
-        <v>0.03990364074707031</v>
+        <v>0.04092311859130859</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -11165,10 +11165,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.02778792381286621</v>
+        <v>0.02593231201171875</v>
       </c>
       <c r="F316" t="n">
-        <v>0.05720281600952148</v>
+        <v>0.05411577224731445</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -11204,10 +11204,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.01055002212524414</v>
+        <v>0.01149272918701172</v>
       </c>
       <c r="F317" t="n">
-        <v>0.03716778755187988</v>
+        <v>0.04116058349609375</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -11235,10 +11235,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.008322715759277344</v>
+        <v>0.007783889770507812</v>
       </c>
       <c r="F318" t="n">
-        <v>0.04063868522644043</v>
+        <v>0.03515267372131348</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.008027791976928711</v>
+        <v>0.008110284805297852</v>
       </c>
       <c r="F319" t="n">
-        <v>0.04513788223266602</v>
+        <v>0.07357311248779297</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -11308,10 +11308,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.03607964515686035</v>
+        <v>0.03326582908630371</v>
       </c>
       <c r="F320" t="n">
-        <v>0.06425786018371582</v>
+        <v>0.08799052238464355</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -11339,10 +11339,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.01008462905883789</v>
+        <v>0.009209871292114258</v>
       </c>
       <c r="F321" t="n">
-        <v>0.03713393211364746</v>
+        <v>0.05432772636413574</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -11370,10 +11370,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.008452892303466797</v>
+        <v>0.006929874420166016</v>
       </c>
       <c r="F322" t="n">
-        <v>0.03917026519775391</v>
+        <v>0.04589200019836426</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.007852554321289062</v>
+        <v>0.007060050964355469</v>
       </c>
       <c r="F323" t="n">
-        <v>0.03916692733764648</v>
+        <v>0.03511476516723633</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -11432,10 +11432,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.006653785705566406</v>
+        <v>0.005655288696289062</v>
       </c>
       <c r="F324" t="n">
-        <v>0.03308320045471191</v>
+        <v>0.0351107120513916</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.01082038879394531</v>
+        <v>0.01390171051025391</v>
       </c>
       <c r="F325" t="n">
-        <v>0.04924774169921875</v>
+        <v>0.04723072052001953</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -11498,10 +11498,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.0125272274017334</v>
+        <v>0.01253271102905273</v>
       </c>
       <c r="F326" t="n">
-        <v>0.05124807357788086</v>
+        <v>0.08399558067321777</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.01503157615661621</v>
+        <v>0.01645708084106445</v>
       </c>
       <c r="F327" t="n">
-        <v>0.045135498046875</v>
+        <v>0.04568910598754883</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.012298583984375</v>
+        <v>0.008226156234741211</v>
       </c>
       <c r="F328" t="n">
-        <v>0.07735395431518555</v>
+        <v>0.06514191627502441</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -11596,10 +11596,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.01514101028442383</v>
+        <v>0.01475834846496582</v>
       </c>
       <c r="F329" t="n">
-        <v>0.04425787925720215</v>
+        <v>0.06077265739440918</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -11630,10 +11630,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.008858442306518555</v>
+        <v>0.008741378784179688</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0420379638671875</v>
+        <v>0.03611469268798828</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.03767967224121094</v>
+        <v>0.03169488906860352</v>
       </c>
       <c r="F331" t="n">
-        <v>0.09158682823181152</v>
+        <v>0.06226754188537598</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.007464885711669922</v>
+        <v>0.007682561874389648</v>
       </c>
       <c r="F332" t="n">
-        <v>0.03612518310546875</v>
+        <v>0.1085991859436035</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -11741,10 +11741,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.009021520614624023</v>
+        <v>0.009137392044067383</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0396275520324707</v>
+        <v>0.06039047241210938</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -11774,10 +11774,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.008911371231079102</v>
+        <v>0.01010990142822266</v>
       </c>
       <c r="F334" t="n">
-        <v>0.0369880199432373</v>
+        <v>0.03976535797119141</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.008615970611572266</v>
+        <v>0.009096384048461914</v>
       </c>
       <c r="F335" t="n">
-        <v>0.05988073348999023</v>
+        <v>0.06884431838989258</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -11842,10 +11842,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.006488561630249023</v>
+        <v>0.007487297058105469</v>
       </c>
       <c r="F336" t="n">
-        <v>0.08992505073547363</v>
+        <v>0.04886388778686523</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.0182948112487793</v>
+        <v>0.01665544509887695</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0802757740020752</v>
+        <v>0.04301357269287109</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -11908,10 +11908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.009377241134643555</v>
+        <v>0.010284423828125</v>
       </c>
       <c r="F338" t="n">
-        <v>0.04323244094848633</v>
+        <v>0.04141354560852051</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -11941,10 +11941,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.008046627044677734</v>
+        <v>0.01058340072631836</v>
       </c>
       <c r="F339" t="n">
-        <v>0.03618693351745605</v>
+        <v>0.04424667358398438</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.01130104064941406</v>
+        <v>0.01110196113586426</v>
       </c>
       <c r="F340" t="n">
-        <v>0.05143833160400391</v>
+        <v>0.06258988380432129</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.01230883598327637</v>
+        <v>0.009345769882202148</v>
       </c>
       <c r="F341" t="n">
-        <v>0.2653765678405762</v>
+        <v>0.04190158843994141</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -12036,10 +12036,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.007574558258056641</v>
+        <v>0.008184909820556641</v>
       </c>
       <c r="F342" t="n">
-        <v>0.1890060901641846</v>
+        <v>0.04371881484985352</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -12067,10 +12067,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.00835871696472168</v>
+        <v>0.008131504058837891</v>
       </c>
       <c r="F343" t="n">
-        <v>0.08354783058166504</v>
+        <v>0.03792953491210938</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.01142168045043945</v>
+        <v>0.01100587844848633</v>
       </c>
       <c r="F344" t="n">
-        <v>0.08045363426208496</v>
+        <v>0.0388038158416748</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -12135,10 +12135,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.009734630584716797</v>
+        <v>0.009685039520263672</v>
       </c>
       <c r="F345" t="n">
-        <v>0.05511879920959473</v>
+        <v>0.03915214538574219</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -12168,10 +12168,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.01207113265991211</v>
+        <v>0.0124213695526123</v>
       </c>
       <c r="F346" t="n">
-        <v>0.0422360897064209</v>
+        <v>0.05300521850585938</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -12204,10 +12204,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.02292656898498535</v>
+        <v>0.01835298538208008</v>
       </c>
       <c r="F347" t="n">
-        <v>0.06732845306396484</v>
+        <v>0.0522465705871582</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -12239,10 +12239,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.01791715621948242</v>
+        <v>0.01623964309692383</v>
       </c>
       <c r="F348" t="n">
-        <v>0.3214659690856934</v>
+        <v>0.08182549476623535</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.01266288757324219</v>
+        <v>0.01434469223022461</v>
       </c>
       <c r="F349" t="n">
-        <v>0.06139731407165527</v>
+        <v>0.04459142684936523</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.01092958450317383</v>
+        <v>0.0106816291809082</v>
       </c>
       <c r="F350" t="n">
-        <v>0.04426360130310059</v>
+        <v>0.05295443534851074</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -12336,10 +12336,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.01058340072631836</v>
+        <v>0.009920597076416016</v>
       </c>
       <c r="F351" t="n">
-        <v>0.0771329402923584</v>
+        <v>0.03689360618591309</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -12367,10 +12367,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.01008105278015137</v>
+        <v>0.01128411293029785</v>
       </c>
       <c r="F352" t="n">
-        <v>0.03822612762451172</v>
+        <v>0.05126953125</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -12398,10 +12398,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.008426427841186523</v>
+        <v>0.008739948272705078</v>
       </c>
       <c r="F353" t="n">
-        <v>0.03809785842895508</v>
+        <v>0.04400849342346191</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.006523370742797852</v>
+        <v>0.006413698196411133</v>
       </c>
       <c r="F354" t="n">
-        <v>0.03760647773742676</v>
+        <v>0.04520773887634277</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.01038026809692383</v>
+        <v>0.009983301162719727</v>
       </c>
       <c r="F355" t="n">
-        <v>0.04037690162658691</v>
+        <v>0.04222893714904785</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.009957551956176758</v>
+        <v>0.009808540344238281</v>
       </c>
       <c r="F356" t="n">
-        <v>0.04177522659301758</v>
+        <v>0.03812360763549805</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -12527,10 +12527,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.006248950958251953</v>
+        <v>0.006211757659912109</v>
       </c>
       <c r="F357" t="n">
-        <v>0.08435416221618652</v>
+        <v>0.03713226318359375</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -12566,10 +12566,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.03400468826293945</v>
+        <v>0.02695775032043457</v>
       </c>
       <c r="F358" t="n">
-        <v>0.06529474258422852</v>
+        <v>0.08339762687683105</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -12607,10 +12607,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.01543569564819336</v>
+        <v>0.01676344871520996</v>
       </c>
       <c r="F359" t="n">
-        <v>0.04421710968017578</v>
+        <v>0.04517078399658203</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -12666,10 +12666,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.08415770530700684</v>
+        <v>0.08404254913330078</v>
       </c>
       <c r="F360" t="n">
-        <v>0.1155188083648682</v>
+        <v>0.1165287494659424</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.009481191635131836</v>
+        <v>0.007517576217651367</v>
       </c>
       <c r="F361" t="n">
-        <v>0.04729080200195312</v>
+        <v>0.03911256790161133</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -12734,10 +12734,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.01520776748657227</v>
+        <v>0.01406216621398926</v>
       </c>
       <c r="F362" t="n">
-        <v>0.04718971252441406</v>
+        <v>0.07029128074645996</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -12793,10 +12793,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.05749344825744629</v>
+        <v>0.05275249481201172</v>
       </c>
       <c r="F363" t="n">
-        <v>0.08841538429260254</v>
+        <v>0.08154678344726562</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -12826,10 +12826,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.009587526321411133</v>
+        <v>0.01262950897216797</v>
       </c>
       <c r="F364" t="n">
-        <v>0.03911089897155762</v>
+        <v>0.04622602462768555</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.006357192993164062</v>
+        <v>0.007389307022094727</v>
       </c>
       <c r="F365" t="n">
-        <v>0.05627894401550293</v>
+        <v>0.03583693504333496</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -12894,10 +12894,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.02227997779846191</v>
+        <v>0.02178263664245605</v>
       </c>
       <c r="F366" t="n">
-        <v>0.0502474308013916</v>
+        <v>0.05122184753417969</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -12925,10 +12925,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.005709171295166016</v>
+        <v>0.008099079132080078</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0411994457244873</v>
+        <v>0.03999996185302734</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -12960,10 +12960,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.009321451187133789</v>
+        <v>0.01079487800598145</v>
       </c>
       <c r="F368" t="n">
-        <v>0.03879690170288086</v>
+        <v>0.06632733345031738</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -12991,10 +12991,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.01136898994445801</v>
+        <v>0.01320838928222656</v>
       </c>
       <c r="F369" t="n">
-        <v>0.03927254676818848</v>
+        <v>0.05522465705871582</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -13024,10 +13024,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.01441502571105957</v>
+        <v>0.0163724422454834</v>
       </c>
       <c r="F370" t="n">
-        <v>0.04826879501342773</v>
+        <v>0.04612302780151367</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -13057,10 +13057,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.0101923942565918</v>
+        <v>0.009936332702636719</v>
       </c>
       <c r="F371" t="n">
-        <v>0.04826498031616211</v>
+        <v>0.04412508010864258</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.01312971115112305</v>
+        <v>0.01702213287353516</v>
       </c>
       <c r="F372" t="n">
-        <v>0.04229140281677246</v>
+        <v>0.0702507495880127</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.02820062637329102</v>
+        <v>0.02723407745361328</v>
       </c>
       <c r="F373" t="n">
-        <v>0.08040046691894531</v>
+        <v>0.0744020938873291</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -13160,10 +13160,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.009596109390258789</v>
+        <v>0.01316571235656738</v>
       </c>
       <c r="F374" t="n">
-        <v>0.03616237640380859</v>
+        <v>0.04719185829162598</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -13193,10 +13193,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.0161895751953125</v>
+        <v>0.01728439331054688</v>
       </c>
       <c r="F375" t="n">
-        <v>0.0511329174041748</v>
+        <v>0.04813027381896973</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -13226,10 +13226,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.01765251159667969</v>
+        <v>0.01650404930114746</v>
       </c>
       <c r="F376" t="n">
-        <v>0.04616522789001465</v>
+        <v>0.04713034629821777</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -13259,10 +13259,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.01750063896179199</v>
+        <v>0.01731300354003906</v>
       </c>
       <c r="F377" t="n">
-        <v>0.04930663108825684</v>
+        <v>0.04435443878173828</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -13290,10 +13290,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.01030635833740234</v>
+        <v>0.009843349456787109</v>
       </c>
       <c r="F378" t="n">
-        <v>0.1006124019622803</v>
+        <v>0.04118132591247559</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -13327,10 +13327,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.01418948173522949</v>
+        <v>0.01353812217712402</v>
       </c>
       <c r="F379" t="n">
-        <v>0.1069135665893555</v>
+        <v>0.05891728401184082</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -13362,10 +13362,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.01582908630371094</v>
+        <v>0.02053523063659668</v>
       </c>
       <c r="F380" t="n">
-        <v>0.05228376388549805</v>
+        <v>0.04959774017333984</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -13397,10 +13397,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.02224302291870117</v>
+        <v>0.02548074722290039</v>
       </c>
       <c r="F381" t="n">
-        <v>0.05318260192871094</v>
+        <v>0.05825352668762207</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -13430,10 +13430,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.01546096801757812</v>
+        <v>0.01574802398681641</v>
       </c>
       <c r="F382" t="n">
-        <v>0.04918885231018066</v>
+        <v>0.04624581336975098</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -13465,10 +13465,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.01006698608398438</v>
+        <v>0.009372949600219727</v>
       </c>
       <c r="F383" t="n">
-        <v>0.04009437561035156</v>
+        <v>0.03715944290161133</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -13499,10 +13499,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.01442861557006836</v>
+        <v>0.01297664642333984</v>
       </c>
       <c r="F384" t="n">
-        <v>0.06334710121154785</v>
+        <v>0.06035399436950684</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -13530,10 +13530,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.008660078048706055</v>
+        <v>0.008599996566772461</v>
       </c>
       <c r="F385" t="n">
-        <v>0.04921126365661621</v>
+        <v>0.04120516777038574</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -13561,10 +13561,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.0154261589050293</v>
+        <v>0.01618361473083496</v>
       </c>
       <c r="F386" t="n">
-        <v>0.05226969718933105</v>
+        <v>0.08500242233276367</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -13596,10 +13596,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.009333610534667969</v>
+        <v>0.008626937866210938</v>
       </c>
       <c r="F387" t="n">
-        <v>0.04225635528564453</v>
+        <v>0.05518054962158203</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.006352901458740234</v>
+        <v>0.006521463394165039</v>
       </c>
       <c r="F388" t="n">
-        <v>0.03520894050598145</v>
+        <v>0.1073451042175293</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.01150798797607422</v>
+        <v>0.01513075828552246</v>
       </c>
       <c r="F389" t="n">
-        <v>0.09047079086303711</v>
+        <v>0.04551267623901367</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -13691,10 +13691,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.02206969261169434</v>
+        <v>0.02201533317565918</v>
       </c>
       <c r="F390" t="n">
-        <v>0.05048871040344238</v>
+        <v>0.04947447776794434</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -13722,10 +13722,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.0182192325592041</v>
+        <v>0.02088117599487305</v>
       </c>
       <c r="F391" t="n">
-        <v>0.07038688659667969</v>
+        <v>0.04715824127197266</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -13753,10 +13753,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.008734226226806641</v>
+        <v>0.01326370239257812</v>
       </c>
       <c r="F392" t="n">
-        <v>0.03516387939453125</v>
+        <v>0.08233213424682617</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -13784,10 +13784,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.0197443962097168</v>
+        <v>0.0208895206451416</v>
       </c>
       <c r="F393" t="n">
-        <v>0.05126786231994629</v>
+        <v>0.04920077323913574</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -13819,10 +13819,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.01498270034790039</v>
+        <v>0.0159754753112793</v>
       </c>
       <c r="F394" t="n">
-        <v>0.08028054237365723</v>
+        <v>0.04625177383422852</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -13854,10 +13854,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.01137065887451172</v>
+        <v>0.01227784156799316</v>
       </c>
       <c r="F395" t="n">
-        <v>0.04827594757080078</v>
+        <v>0.0411226749420166</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -13889,10 +13889,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.01204133033752441</v>
+        <v>0.01192688941955566</v>
       </c>
       <c r="F396" t="n">
-        <v>0.1014578342437744</v>
+        <v>0.04520106315612793</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -13922,10 +13922,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.01064324378967285</v>
+        <v>0.009735822677612305</v>
       </c>
       <c r="F397" t="n">
-        <v>0.0370793342590332</v>
+        <v>0.03716444969177246</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -13953,10 +13953,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.01434564590454102</v>
+        <v>0.01309609413146973</v>
       </c>
       <c r="F398" t="n">
-        <v>0.04219961166381836</v>
+        <v>0.06837177276611328</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.01177453994750977</v>
+        <v>0.01024508476257324</v>
       </c>
       <c r="F399" t="n">
-        <v>0.04413008689880371</v>
+        <v>0.03511142730712891</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -14019,10 +14019,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.008593559265136719</v>
+        <v>0.007618427276611328</v>
       </c>
       <c r="F400" t="n">
-        <v>0.04123854637145996</v>
+        <v>0.04532885551452637</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -14058,10 +14058,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.03657913208007812</v>
+        <v>0.02643680572509766</v>
       </c>
       <c r="F401" t="n">
-        <v>0.06529068946838379</v>
+        <v>0.05881047248840332</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.009521722793579102</v>
+        <v>0.01047515869140625</v>
       </c>
       <c r="F402" t="n">
-        <v>0.05327010154724121</v>
+        <v>0.04218339920043945</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -14120,10 +14120,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.009531974792480469</v>
+        <v>0.007190942764282227</v>
       </c>
       <c r="F403" t="n">
-        <v>0.04622173309326172</v>
+        <v>0.0351104736328125</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>

--- a/anonymization_results.xlsx
+++ b/anonymization_results.xlsx
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.06580781936645508</v>
+        <v>0.07083773612976074</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1062531471252441</v>
+        <v>0.1173610687255859</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02163529396057129</v>
+        <v>0.0201117992401123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1043701171875</v>
+        <v>0.04931426048278809</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00960993766784668</v>
+        <v>0.007736921310424805</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03909707069396973</v>
+        <v>0.03414344787597656</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.03483057022094727</v>
+        <v>0.03120064735412598</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06999945640563965</v>
+        <v>0.0611572265625</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.009762048721313477</v>
+        <v>0.01055335998535156</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04214000701904297</v>
+        <v>0.04726004600524902</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.006962060928344727</v>
+        <v>0.00621795654296875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04646944999694824</v>
+        <v>0.03611660003662109</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.01126551628112793</v>
+        <v>0.009839296340942383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05814933776855469</v>
+        <v>0.05425667762756348</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.05115199089050293</v>
+        <v>0.04513168334960938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08029532432556152</v>
+        <v>0.0742943286895752</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.009920358657836914</v>
+        <v>0.009619235992431641</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03913068771362305</v>
+        <v>0.04115200042724609</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01019120216369629</v>
+        <v>0.01036930084228516</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04117655754089355</v>
+        <v>0.03610873222351074</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01204180717468262</v>
+        <v>0.01078081130981445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04399371147155762</v>
+        <v>0.04159235954284668</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01278901100158691</v>
+        <v>0.01165461540222168</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0512235164642334</v>
+        <v>0.04011344909667969</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.01571249961853027</v>
+        <v>0.01395702362060547</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04221940040588379</v>
+        <v>0.04543209075927734</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.01020956039428711</v>
+        <v>0.008326530456542969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04500365257263184</v>
+        <v>0.03956484794616699</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.00619053840637207</v>
+        <v>0.006857156753540039</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03715133666992188</v>
+        <v>0.03763008117675781</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.02411913871765137</v>
+        <v>0.02771902084350586</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05322933197021484</v>
+        <v>0.05766582489013672</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.007529973983764648</v>
+        <v>0.008141517639160156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04014873504638672</v>
+        <v>0.04012036323547363</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.006710290908813477</v>
+        <v>0.006442546844482422</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0371553897857666</v>
+        <v>0.09776425361633301</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.007496118545532227</v>
+        <v>0.00804448127746582</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03613138198852539</v>
+        <v>0.04323363304138184</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.009004592895507812</v>
+        <v>0.008187532424926758</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05923557281494141</v>
+        <v>0.03819131851196289</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.007832050323486328</v>
+        <v>0.009341716766357422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03646230697631836</v>
+        <v>0.04017877578735352</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01279592514038086</v>
+        <v>0.01352977752685547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04231405258178711</v>
+        <v>0.04418087005615234</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.01405215263366699</v>
+        <v>0.0141913890838623</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04522395133972168</v>
+        <v>0.05426430702209473</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.01643252372741699</v>
+        <v>0.01775026321411133</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04503083229064941</v>
+        <v>0.06629228591918945</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.01823306083679199</v>
+        <v>0.01551461219787598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0509955883026123</v>
+        <v>0.04430270195007324</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.01073813438415527</v>
+        <v>0.01244807243347168</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05616164207458496</v>
+        <v>0.04677557945251465</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.01197314262390137</v>
+        <v>0.0120079517364502</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04918241500854492</v>
+        <v>0.04752135276794434</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.007756471633911133</v>
+        <v>0.007926225662231445</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0910038948059082</v>
+        <v>0.03929710388183594</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.01336860656738281</v>
+        <v>0.01756930351257324</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05520224571228027</v>
+        <v>0.04858493804931641</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.03667402267456055</v>
+        <v>0.02904009819030762</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06511592864990234</v>
+        <v>0.05634355545043945</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.008566141128540039</v>
+        <v>0.00853276252746582</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03799581527709961</v>
+        <v>0.04222011566162109</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.009793758392333984</v>
+        <v>0.009914636611938477</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04683065414428711</v>
+        <v>0.0422065258026123</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.01004171371459961</v>
+        <v>0.009377479553222656</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1028087139129639</v>
+        <v>0.05697178840637207</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.009797811508178711</v>
+        <v>0.007844686508178711</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03880214691162109</v>
+        <v>0.05979657173156738</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.02141070365905762</v>
+        <v>0.0231626033782959</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05001235008239746</v>
+        <v>0.06464958190917969</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.006413698196411133</v>
+        <v>0.006065607070922852</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0370025634765625</v>
+        <v>0.06086540222167969</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.00892949104309082</v>
+        <v>0.008828639984130859</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0391385555267334</v>
+        <v>0.04830408096313477</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.01656413078308105</v>
+        <v>0.01848411560058594</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05102086067199707</v>
+        <v>0.05123424530029297</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.0168461799621582</v>
+        <v>0.02070736885070801</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0650026798248291</v>
+        <v>0.05224370956420898</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.03149175643920898</v>
+        <v>0.02348065376281738</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06519937515258789</v>
+        <v>0.05416631698608398</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.02938532829284668</v>
+        <v>0.02535533905029297</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06522822380065918</v>
+        <v>0.05325627326965332</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.02194929122924805</v>
+        <v>0.01569676399230957</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05710315704345703</v>
+        <v>0.04509854316711426</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.007660627365112305</v>
+        <v>0.007381916046142578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03799939155578613</v>
+        <v>0.03822135925292969</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.007290363311767578</v>
+        <v>0.00764918327331543</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03511857986450195</v>
+        <v>0.0953209400177002</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.01251602172851562</v>
+        <v>0.01103448867797852</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04414820671081543</v>
+        <v>0.08740472793579102</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.009156942367553711</v>
+        <v>0.01297998428344727</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05158448219299316</v>
+        <v>0.08437633514404297</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.03350687026977539</v>
+        <v>0.02257490158081055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06529855728149414</v>
+        <v>0.05026912689208984</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.01046323776245117</v>
+        <v>0.009199142456054688</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04540491104125977</v>
+        <v>0.05027055740356445</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.01361918449401855</v>
+        <v>0.01338768005371094</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04680633544921875</v>
+        <v>0.1226563453674316</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.006641149520874023</v>
+        <v>0.006705999374389648</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03307318687438965</v>
+        <v>0.07939410209655762</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.008864879608154297</v>
+        <v>0.01126861572265625</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0390019416809082</v>
+        <v>0.09867644309997559</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.008223295211791992</v>
+        <v>0.00587773323059082</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08226203918457031</v>
+        <v>0.0402681827545166</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.01417279243469238</v>
+        <v>0.0116112232208252</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06425094604492188</v>
+        <v>0.05369329452514648</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.00955653190612793</v>
+        <v>0.01095271110534668</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05421257019042969</v>
+        <v>0.1054313182830811</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.007973909378051758</v>
+        <v>0.007526159286499023</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07099199295043945</v>
+        <v>0.05945372581481934</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.01811504364013672</v>
+        <v>0.0235440731048584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04728245735168457</v>
+        <v>0.07734036445617676</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.00863957405090332</v>
+        <v>0.009611845016479492</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04079055786132812</v>
+        <v>0.03814387321472168</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.008644819259643555</v>
+        <v>0.008443117141723633</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04036760330200195</v>
+        <v>0.0338897705078125</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.03398585319519043</v>
+        <v>0.02509331703186035</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0657660961151123</v>
+        <v>0.07271265983581543</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.006250381469726562</v>
+        <v>0.005949974060058594</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03589868545532227</v>
+        <v>0.03504586219787598</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.02328944206237793</v>
+        <v>0.02900171279907227</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0522005558013916</v>
+        <v>0.07565832138061523</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.02805829048156738</v>
+        <v>0.03841972351074219</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06129121780395508</v>
+        <v>0.06730389595031738</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.01751446723937988</v>
+        <v>0.01557469367980957</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04498648643493652</v>
+        <v>0.07429671287536621</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.01558327674865723</v>
+        <v>0.01056647300720215</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04521727561950684</v>
+        <v>0.03721880912780762</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.009157419204711914</v>
+        <v>0.009049654006958008</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03511786460876465</v>
+        <v>0.03928637504577637</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.006752490997314453</v>
+        <v>0.006911993026733398</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03306484222412109</v>
+        <v>0.03719854354858398</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.006515741348266602</v>
+        <v>0.005877017974853516</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05823707580566406</v>
+        <v>0.08233737945556641</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.01891326904296875</v>
+        <v>0.01989269256591797</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0459144115447998</v>
+        <v>0.07331132888793945</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.0157158374786377</v>
+        <v>0.01383590698242188</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04491686820983887</v>
+        <v>0.04309415817260742</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.007558345794677734</v>
+        <v>0.008331537246704102</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04573631286621094</v>
+        <v>0.07433199882507324</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.008445262908935547</v>
+        <v>0.007796525955200195</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03791069984436035</v>
+        <v>0.06829166412353516</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.006547927856445312</v>
+        <v>0.0074920654296875</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03400230407714844</v>
+        <v>0.06252455711364746</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.02093291282653809</v>
+        <v>0.01753401756286621</v>
       </c>
       <c r="F74" t="n">
-        <v>0.08548927307128906</v>
+        <v>0.04694986343383789</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.01011037826538086</v>
+        <v>0.00901341438293457</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0471034049987793</v>
+        <v>0.05107498168945312</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.007193088531494141</v>
+        <v>0.007872819900512695</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03657150268554688</v>
+        <v>0.06282424926757812</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.007634878158569336</v>
+        <v>0.007368803024291992</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03707098960876465</v>
+        <v>0.03923797607421875</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.01372456550598145</v>
+        <v>0.01230049133300781</v>
       </c>
       <c r="F78" t="n">
-        <v>0.05204916000366211</v>
+        <v>0.04426455497741699</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.005463838577270508</v>
+        <v>0.005408048629760742</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03859949111938477</v>
+        <v>0.04215192794799805</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.005917787551879883</v>
+        <v>0.006162881851196289</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03410577774047852</v>
+        <v>0.06015324592590332</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.008033037185668945</v>
+        <v>0.008925676345825195</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07320594787597656</v>
+        <v>0.0371403694152832</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.02083897590637207</v>
+        <v>0.0180823802947998</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05210542678833008</v>
+        <v>0.04526638984680176</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.02775788307189941</v>
+        <v>0.02672052383422852</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08120203018188477</v>
+        <v>0.05825042724609375</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.02303147315979004</v>
+        <v>0.02605366706848145</v>
       </c>
       <c r="F84" t="n">
-        <v>0.05114841461181641</v>
+        <v>0.1043612957000732</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.01877069473266602</v>
+        <v>0.03003406524658203</v>
       </c>
       <c r="F85" t="n">
-        <v>0.05022287368774414</v>
+        <v>0.0595242977142334</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.01790165901184082</v>
+        <v>0.01194882392883301</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1827635765075684</v>
+        <v>0.04016757011413574</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.01756834983825684</v>
+        <v>0.01492428779602051</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1338531970977783</v>
+        <v>0.07760190963745117</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.01240944862365723</v>
+        <v>0.01201868057250977</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09102916717529297</v>
+        <v>0.03876781463623047</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.01505661010742188</v>
+        <v>0.01491904258728027</v>
       </c>
       <c r="F89" t="n">
-        <v>0.04427123069763184</v>
+        <v>0.05385136604309082</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.01856088638305664</v>
+        <v>0.01448273658752441</v>
       </c>
       <c r="F90" t="n">
-        <v>0.05018806457519531</v>
+        <v>0.04346871376037598</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.01265954971313477</v>
+        <v>0.01039838790893555</v>
       </c>
       <c r="F91" t="n">
-        <v>0.05909109115600586</v>
+        <v>0.03811955451965332</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.0115816593170166</v>
+        <v>0.01239967346191406</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0461573600769043</v>
+        <v>0.03913426399230957</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.01407575607299805</v>
+        <v>0.01417684555053711</v>
       </c>
       <c r="F93" t="n">
-        <v>0.06316113471984863</v>
+        <v>0.09155058860778809</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.01430368423461914</v>
+        <v>0.01607799530029297</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04600024223327637</v>
+        <v>0.04917430877685547</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.01071739196777344</v>
+        <v>0.01093530654907227</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03718280792236328</v>
+        <v>0.03821253776550293</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.007166624069213867</v>
+        <v>0.008871555328369141</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03613853454589844</v>
+        <v>0.03916215896606445</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.02324128150939941</v>
+        <v>0.0244295597076416</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05031967163085938</v>
+        <v>0.08824396133422852</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.01622796058654785</v>
+        <v>0.01188921928405762</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05665063858032227</v>
+        <v>0.05220389366149902</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.006023645401000977</v>
+        <v>0.007373571395874023</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03938460350036621</v>
+        <v>0.03921723365783691</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.00863337516784668</v>
+        <v>0.007772922515869141</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04039716720581055</v>
+        <v>0.03822469711303711</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.01673555374145508</v>
+        <v>0.01244091987609863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06320762634277344</v>
+        <v>0.04108214378356934</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.03542065620422363</v>
+        <v>0.02740120887756348</v>
       </c>
       <c r="F102" t="n">
-        <v>0.06319427490234375</v>
+        <v>0.06326651573181152</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.008824586868286133</v>
+        <v>0.007497072219848633</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0371086597442627</v>
+        <v>0.03706479072570801</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.007751703262329102</v>
+        <v>0.007895708084106445</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05819177627563477</v>
+        <v>0.03812217712402344</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.02625155448913574</v>
+        <v>0.02011537551879883</v>
       </c>
       <c r="F105" t="n">
-        <v>0.09059619903564453</v>
+        <v>0.1175434589385986</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.01020383834838867</v>
+        <v>0.01057887077331543</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06592488288879395</v>
+        <v>0.04769682884216309</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4005,10 +4005,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.01699423789978027</v>
+        <v>0.01195120811462402</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04735255241394043</v>
+        <v>0.05011105537414551</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.009179830551147461</v>
+        <v>0.007860183715820312</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1212272644042969</v>
+        <v>0.06243276596069336</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.007888555526733398</v>
+        <v>0.008763313293457031</v>
       </c>
       <c r="F109" t="n">
-        <v>0.03618240356445312</v>
+        <v>0.03719997406005859</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.009706258773803711</v>
+        <v>0.01001286506652832</v>
       </c>
       <c r="F110" t="n">
-        <v>0.03999423980712891</v>
+        <v>0.07018804550170898</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.01073789596557617</v>
+        <v>0.01005101203918457</v>
       </c>
       <c r="F111" t="n">
-        <v>0.08903121948242188</v>
+        <v>0.04217982292175293</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.06301784515380859</v>
+        <v>0.05719637870788574</v>
       </c>
       <c r="F112" t="n">
-        <v>0.09203076362609863</v>
+        <v>0.1084551811218262</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.01228880882263184</v>
+        <v>0.01252126693725586</v>
       </c>
       <c r="F113" t="n">
-        <v>0.04919171333312988</v>
+        <v>0.03870010375976562</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.00588536262512207</v>
+        <v>0.006324052810668945</v>
       </c>
       <c r="F114" t="n">
-        <v>0.03609180450439453</v>
+        <v>0.0435185432434082</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.0402226448059082</v>
+        <v>0.03756403923034668</v>
       </c>
       <c r="F115" t="n">
-        <v>0.07932758331298828</v>
+        <v>0.06660151481628418</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.006656646728515625</v>
+        <v>0.005978822708129883</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0402214527130127</v>
+        <v>0.03524947166442871</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4360,10 +4360,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.00601649284362793</v>
+        <v>0.006053924560546875</v>
       </c>
       <c r="F117" t="n">
-        <v>0.03599834442138672</v>
+        <v>0.04423642158508301</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.008554935455322266</v>
+        <v>0.007251501083374023</v>
       </c>
       <c r="F118" t="n">
-        <v>0.04116988182067871</v>
+        <v>0.05424690246582031</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.007208824157714844</v>
+        <v>0.007108211517333984</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03534340858459473</v>
+        <v>0.03613018989562988</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.009258747100830078</v>
+        <v>0.009542703628540039</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04316592216491699</v>
+        <v>0.07035303115844727</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.01218104362487793</v>
+        <v>0.01085472106933594</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1273980140686035</v>
+        <v>0.05428719520568848</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.01727747917175293</v>
+        <v>0.01703643798828125</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04343152046203613</v>
+        <v>0.06123709678649902</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.0144960880279541</v>
+        <v>0.01346254348754883</v>
       </c>
       <c r="F123" t="n">
-        <v>0.07832765579223633</v>
+        <v>0.04328060150146484</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.01067566871643066</v>
+        <v>0.01242637634277344</v>
       </c>
       <c r="F124" t="n">
-        <v>0.03900861740112305</v>
+        <v>0.05233645439147949</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.05302667617797852</v>
+        <v>0.05446529388427734</v>
       </c>
       <c r="F125" t="n">
-        <v>0.09323215484619141</v>
+        <v>0.09321999549865723</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.02008891105651855</v>
+        <v>0.01437568664550781</v>
       </c>
       <c r="F126" t="n">
-        <v>0.04718685150146484</v>
+        <v>0.3621280193328857</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4726,10 +4726,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.03689312934875488</v>
+        <v>0.04065036773681641</v>
       </c>
       <c r="F127" t="n">
-        <v>0.06671881675720215</v>
+        <v>0.07636237144470215</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.01436829566955566</v>
+        <v>0.0111534595489502</v>
       </c>
       <c r="F128" t="n">
-        <v>0.04092931747436523</v>
+        <v>0.07125449180603027</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.01749444007873535</v>
+        <v>0.01707363128662109</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0453183650970459</v>
+        <v>0.04910969734191895</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.01430678367614746</v>
+        <v>0.01284241676330566</v>
       </c>
       <c r="F130" t="n">
-        <v>0.06629300117492676</v>
+        <v>0.04413342475891113</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.01458263397216797</v>
+        <v>0.01313018798828125</v>
       </c>
       <c r="F131" t="n">
-        <v>0.05301451683044434</v>
+        <v>0.04105067253112793</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.01776957511901855</v>
+        <v>0.01989459991455078</v>
       </c>
       <c r="F132" t="n">
-        <v>0.08800911903381348</v>
+        <v>0.05022764205932617</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.0158841609954834</v>
+        <v>0.01610803604125977</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04105615615844727</v>
+        <v>0.04408907890319824</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.01224708557128906</v>
+        <v>0.01192069053649902</v>
       </c>
       <c r="F134" t="n">
-        <v>0.06599998474121094</v>
+        <v>0.0420372486114502</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4988,10 +4988,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.02588057518005371</v>
+        <v>0.02548480033874512</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05300211906433105</v>
+        <v>0.05800747871398926</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.01081323623657227</v>
+        <v>0.01108646392822266</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0660090446472168</v>
+        <v>0.03657722473144531</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.007695913314819336</v>
+        <v>0.007768392562866211</v>
       </c>
       <c r="F137" t="n">
-        <v>0.06800651550292969</v>
+        <v>0.03435969352722168</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.01954841613769531</v>
+        <v>0.01848649978637695</v>
       </c>
       <c r="F138" t="n">
-        <v>0.05631327629089355</v>
+        <v>0.0662989616394043</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5120,10 +5120,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.02003598213195801</v>
+        <v>0.02148056030273438</v>
       </c>
       <c r="F139" t="n">
-        <v>0.07492995262145996</v>
+        <v>0.05722355842590332</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.01400136947631836</v>
+        <v>0.01220273971557617</v>
       </c>
       <c r="F140" t="n">
-        <v>0.07226896286010742</v>
+        <v>0.07837486267089844</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.01189541816711426</v>
+        <v>0.008955001831054688</v>
       </c>
       <c r="F141" t="n">
-        <v>0.05810546875</v>
+        <v>0.04128837585449219</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.008170843124389648</v>
+        <v>0.006149530410766602</v>
       </c>
       <c r="F142" t="n">
-        <v>0.03616118431091309</v>
+        <v>0.05062246322631836</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.009677410125732422</v>
+        <v>0.009097576141357422</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06500458717346191</v>
+        <v>0.06381678581237793</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5277,10 +5277,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.01019692420959473</v>
+        <v>0.01018428802490234</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04600024223327637</v>
+        <v>0.04274916648864746</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.008568286895751953</v>
+        <v>0.008373737335205078</v>
       </c>
       <c r="F145" t="n">
-        <v>0.04105210304260254</v>
+        <v>0.04414248466491699</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.008717060089111328</v>
+        <v>0.008600473403930664</v>
       </c>
       <c r="F146" t="n">
-        <v>0.04720330238342285</v>
+        <v>0.03810024261474609</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.007918596267700195</v>
+        <v>0.007428169250488281</v>
       </c>
       <c r="F147" t="n">
-        <v>0.03899908065795898</v>
+        <v>0.03411030769348145</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.01043534278869629</v>
+        <v>0.007536649703979492</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0409998893737793</v>
+        <v>0.04824614524841309</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.006094694137573242</v>
+        <v>0.008002281188964844</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0380089282989502</v>
+        <v>0.04927539825439453</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5473,10 +5473,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.02161478996276855</v>
+        <v>0.0250699520111084</v>
       </c>
       <c r="F150" t="n">
-        <v>0.04826211929321289</v>
+        <v>0.06023669242858887</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.01107478141784668</v>
+        <v>0.01135945320129395</v>
       </c>
       <c r="F151" t="n">
-        <v>0.08002567291259766</v>
+        <v>0.06931948661804199</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.008796215057373047</v>
+        <v>0.009453535079956055</v>
       </c>
       <c r="F152" t="n">
-        <v>0.03709864616394043</v>
+        <v>0.03973531723022461</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.008757591247558594</v>
+        <v>0.009283781051635742</v>
       </c>
       <c r="F153" t="n">
-        <v>0.04499530792236328</v>
+        <v>0.05455589294433594</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.01096510887145996</v>
+        <v>0.01219630241394043</v>
       </c>
       <c r="F154" t="n">
-        <v>0.03621077537536621</v>
+        <v>0.04444360733032227</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.007901668548583984</v>
+        <v>0.007460832595825195</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03416872024536133</v>
+        <v>0.07039976119995117</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.01983499526977539</v>
+        <v>0.01414179801940918</v>
       </c>
       <c r="F156" t="n">
-        <v>0.06723332405090332</v>
+        <v>0.04615426063537598</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.01456141471862793</v>
+        <v>0.01594352722167969</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1004712581634521</v>
+        <v>0.07930612564086914</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.01767730712890625</v>
+        <v>0.02229499816894531</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04516744613647461</v>
+        <v>0.05325865745544434</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.01158285140991211</v>
+        <v>0.01035046577453613</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03814268112182617</v>
+        <v>0.0381922721862793</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.01166391372680664</v>
+        <v>0.01464986801147461</v>
       </c>
       <c r="F160" t="n">
-        <v>0.05209851264953613</v>
+        <v>0.04817080497741699</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.02566790580749512</v>
+        <v>0.02872848510742188</v>
       </c>
       <c r="F161" t="n">
-        <v>0.08168745040893555</v>
+        <v>0.05615663528442383</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.009017705917358398</v>
+        <v>0.01031279563903809</v>
       </c>
       <c r="F162" t="n">
-        <v>0.03808903694152832</v>
+        <v>0.05823278427124023</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.009787082672119141</v>
+        <v>0.007205724716186523</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03720283508300781</v>
+        <v>0.03452062606811523</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.009316921234130859</v>
+        <v>0.008507728576660156</v>
       </c>
       <c r="F164" t="n">
-        <v>0.05113458633422852</v>
+        <v>0.04342150688171387</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.009765863418579102</v>
+        <v>0.007484197616577148</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03810763359069824</v>
+        <v>0.0399630069732666</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.009909391403198242</v>
+        <v>0.009097576141357422</v>
       </c>
       <c r="F166" t="n">
-        <v>1.045806169509888</v>
+        <v>0.03752470016479492</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.01862692832946777</v>
+        <v>0.02487683296203613</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0452425479888916</v>
+        <v>0.05931663513183594</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -6071,10 +6071,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.009743452072143555</v>
+        <v>0.008758783340454102</v>
       </c>
       <c r="F168" t="n">
-        <v>0.03810358047485352</v>
+        <v>0.03712749481201172</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.009464025497436523</v>
+        <v>0.008815526962280273</v>
       </c>
       <c r="F169" t="n">
-        <v>0.04015207290649414</v>
+        <v>0.03715634346008301</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6141,10 +6141,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.0103919506072998</v>
+        <v>0.01160001754760742</v>
       </c>
       <c r="F170" t="n">
-        <v>0.04214239120483398</v>
+        <v>0.05825042724609375</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.01332497596740723</v>
+        <v>0.01153969764709473</v>
       </c>
       <c r="F171" t="n">
-        <v>0.06728196144104004</v>
+        <v>0.04109311103820801</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.05214691162109375</v>
+        <v>0.0342552661895752</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1025142669677734</v>
+        <v>0.07739090919494629</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.07832646369934082</v>
+        <v>0.05090951919555664</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1063833236694336</v>
+        <v>0.07840895652770996</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.006025791168212891</v>
+        <v>0.005797386169433594</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05626082420349121</v>
+        <v>0.05247950553894043</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.02824258804321289</v>
+        <v>0.0337679386138916</v>
       </c>
       <c r="F175" t="n">
-        <v>0.08147096633911133</v>
+        <v>0.07393312454223633</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.01717400550842285</v>
+        <v>0.01479554176330566</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04825377464294434</v>
+        <v>0.04672741889953613</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.0157618522644043</v>
+        <v>0.01660037040710449</v>
       </c>
       <c r="F177" t="n">
-        <v>1.048531532287598</v>
+        <v>0.06130838394165039</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.01920580863952637</v>
+        <v>0.01646542549133301</v>
       </c>
       <c r="F178" t="n">
-        <v>0.05921316146850586</v>
+        <v>0.04619503021240234</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.02038097381591797</v>
+        <v>0.02246785163879395</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0520789623260498</v>
+        <v>0.05521488189697266</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.01410412788391113</v>
+        <v>0.01296019554138184</v>
       </c>
       <c r="F180" t="n">
-        <v>0.05118417739868164</v>
+        <v>0.04816341400146484</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6547,10 +6547,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.01157784461975098</v>
+        <v>0.01268649101257324</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0432593822479248</v>
+        <v>0.05023026466369629</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.01409602165222168</v>
+        <v>0.01041221618652344</v>
       </c>
       <c r="F182" t="n">
-        <v>0.04014110565185547</v>
+        <v>0.04511666297912598</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6633,10 +6633,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.03879451751708984</v>
+        <v>0.03727173805236816</v>
       </c>
       <c r="F183" t="n">
-        <v>0.06800174713134766</v>
+        <v>0.1891679763793945</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.01561594009399414</v>
+        <v>0.01631498336791992</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0452277660369873</v>
+        <v>0.07185912132263184</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.02322840690612793</v>
+        <v>0.02871584892272949</v>
       </c>
       <c r="F185" t="n">
-        <v>0.05117082595825195</v>
+        <v>0.05669736862182617</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.01251935958862305</v>
+        <v>0.01186537742614746</v>
       </c>
       <c r="F186" t="n">
-        <v>0.05513668060302734</v>
+        <v>0.03709125518798828</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.03036928176879883</v>
+        <v>0.02846574783325195</v>
       </c>
       <c r="F187" t="n">
-        <v>0.05741548538208008</v>
+        <v>0.06244254112243652</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6822,10 +6822,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.03953766822814941</v>
+        <v>0.03848981857299805</v>
       </c>
       <c r="F188" t="n">
-        <v>0.06748795509338379</v>
+        <v>0.0692286491394043</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.0131828784942627</v>
+        <v>0.01341009140014648</v>
       </c>
       <c r="F189" t="n">
-        <v>0.04923462867736816</v>
+        <v>0.04334020614624023</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.01686358451843262</v>
+        <v>0.01208996772766113</v>
       </c>
       <c r="F190" t="n">
-        <v>0.05951452255249023</v>
+        <v>0.05836796760559082</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.02110457420349121</v>
+        <v>0.01923274993896484</v>
       </c>
       <c r="F191" t="n">
-        <v>0.04818272590637207</v>
+        <v>0.08139705657958984</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.01293444633483887</v>
+        <v>0.01280879974365234</v>
       </c>
       <c r="F192" t="n">
-        <v>0.04114270210266113</v>
+        <v>0.06907391548156738</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.01128649711608887</v>
+        <v>0.01129460334777832</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04217410087585449</v>
+        <v>0.04103970527648926</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.005249261856079102</v>
+        <v>0.005582094192504883</v>
       </c>
       <c r="F194" t="n">
-        <v>0.05008411407470703</v>
+        <v>0.04012084007263184</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.0126643180847168</v>
+        <v>0.01285910606384277</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0482177734375</v>
+        <v>0.04268836975097656</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.01876950263977051</v>
+        <v>0.02178859710693359</v>
       </c>
       <c r="F196" t="n">
-        <v>0.05122900009155273</v>
+        <v>0.05239295959472656</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.01393699645996094</v>
+        <v>0.01412272453308105</v>
       </c>
       <c r="F197" t="n">
-        <v>0.04411053657531738</v>
+        <v>0.0459747314453125</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -7149,10 +7149,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.01595973968505859</v>
+        <v>0.0145118236541748</v>
       </c>
       <c r="F198" t="n">
-        <v>0.04522848129272461</v>
+        <v>0.06925559043884277</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.01468181610107422</v>
+        <v>0.01635837554931641</v>
       </c>
       <c r="F199" t="n">
-        <v>0.04526948928833008</v>
+        <v>0.0461122989654541</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.008485794067382812</v>
+        <v>0.0094451904296875</v>
       </c>
       <c r="F200" t="n">
-        <v>0.03900575637817383</v>
+        <v>0.0683143138885498</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.02159309387207031</v>
+        <v>0.03038430213928223</v>
       </c>
       <c r="F201" t="n">
-        <v>0.05728912353515625</v>
+        <v>0.07534694671630859</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -7277,10 +7277,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.01017308235168457</v>
+        <v>0.01031899452209473</v>
       </c>
       <c r="F202" t="n">
-        <v>0.03820109367370605</v>
+        <v>0.04189682006835938</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.009423732757568359</v>
+        <v>0.008192062377929688</v>
       </c>
       <c r="F203" t="n">
-        <v>0.03911113739013672</v>
+        <v>0.0430910587310791</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.006489038467407227</v>
+        <v>0.006648063659667969</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03319334983825684</v>
+        <v>0.05022239685058594</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.01045393943786621</v>
+        <v>0.009590625762939453</v>
       </c>
       <c r="F205" t="n">
-        <v>0.03741335868835449</v>
+        <v>0.03711795806884766</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.01907777786254883</v>
+        <v>0.02660059928894043</v>
       </c>
       <c r="F206" t="n">
-        <v>0.04825210571289062</v>
+        <v>0.05636787414550781</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7442,10 +7442,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.0219578742980957</v>
+        <v>0.02143096923828125</v>
       </c>
       <c r="F207" t="n">
-        <v>0.05113792419433594</v>
+        <v>0.06458878517150879</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.007053852081298828</v>
+        <v>0.005788803100585938</v>
       </c>
       <c r="F208" t="n">
-        <v>0.04374837875366211</v>
+        <v>0.04222464561462402</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -7508,10 +7508,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.01363134384155273</v>
+        <v>0.0125575065612793</v>
       </c>
       <c r="F209" t="n">
-        <v>0.05213761329650879</v>
+        <v>0.03967952728271484</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.02037549018859863</v>
+        <v>0.02040934562683105</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0520012378692627</v>
+        <v>0.04920220375061035</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -7585,10 +7585,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.03632116317749023</v>
+        <v>0.03633737564086914</v>
       </c>
       <c r="F211" t="n">
-        <v>0.08540058135986328</v>
+        <v>0.07223939895629883</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7616,10 +7616,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.0077667236328125</v>
+        <v>0.009031295776367188</v>
       </c>
       <c r="F212" t="n">
-        <v>0.08101034164428711</v>
+        <v>0.03721475601196289</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.01851868629455566</v>
+        <v>0.01967430114746094</v>
       </c>
       <c r="F213" t="n">
-        <v>0.04723882675170898</v>
+        <v>0.04744386672973633</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.01336765289306641</v>
+        <v>0.01070666313171387</v>
       </c>
       <c r="F214" t="n">
-        <v>0.06621503829956055</v>
+        <v>0.03991889953613281</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7713,10 +7713,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.006863117218017578</v>
+        <v>0.007299661636352539</v>
       </c>
       <c r="F215" t="n">
-        <v>0.2233467102050781</v>
+        <v>0.03486824035644531</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.01618742942810059</v>
+        <v>0.01176118850708008</v>
       </c>
       <c r="F216" t="n">
-        <v>0.04416036605834961</v>
+        <v>0.06004023551940918</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7775,10 +7775,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.01712942123413086</v>
+        <v>0.009651899337768555</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0439152717590332</v>
+        <v>0.07840466499328613</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.05911779403686523</v>
+        <v>0.05710887908935547</v>
       </c>
       <c r="F218" t="n">
-        <v>0.09354996681213379</v>
+        <v>0.08837151527404785</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7841,10 +7841,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.009064674377441406</v>
+        <v>0.00870823860168457</v>
       </c>
       <c r="F219" t="n">
-        <v>0.04011225700378418</v>
+        <v>0.05219602584838867</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.01181364059448242</v>
+        <v>0.0117802619934082</v>
       </c>
       <c r="F220" t="n">
-        <v>0.04325127601623535</v>
+        <v>0.05407333374023438</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.01426410675048828</v>
+        <v>0.01468491554260254</v>
       </c>
       <c r="F221" t="n">
-        <v>0.05739545822143555</v>
+        <v>0.04409456253051758</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.01587247848510742</v>
+        <v>0.01482915878295898</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0452582836151123</v>
+        <v>0.04283332824707031</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.00989985466003418</v>
+        <v>0.01019978523254395</v>
       </c>
       <c r="F223" t="n">
-        <v>0.04000139236450195</v>
+        <v>0.04303765296936035</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.01166272163391113</v>
+        <v>0.01334929466247559</v>
       </c>
       <c r="F224" t="n">
-        <v>0.07131433486938477</v>
+        <v>0.06932473182678223</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8033,10 +8033,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.01593494415283203</v>
+        <v>0.0157470703125</v>
       </c>
       <c r="F225" t="n">
-        <v>0.05121040344238281</v>
+        <v>0.04526782035827637</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.01167535781860352</v>
+        <v>0.01046967506408691</v>
       </c>
       <c r="F226" t="n">
-        <v>0.04017996788024902</v>
+        <v>0.04412412643432617</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.008543252944946289</v>
+        <v>0.008784055709838867</v>
       </c>
       <c r="F227" t="n">
-        <v>0.04229402542114258</v>
+        <v>0.03609251976013184</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -8130,10 +8130,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.01788043975830078</v>
+        <v>0.01662874221801758</v>
       </c>
       <c r="F228" t="n">
-        <v>0.09245920181274414</v>
+        <v>0.05334162712097168</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.01402449607849121</v>
+        <v>0.01585936546325684</v>
       </c>
       <c r="F229" t="n">
-        <v>0.07650876045227051</v>
+        <v>0.04525899887084961</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.01190352439880371</v>
+        <v>0.01411008834838867</v>
       </c>
       <c r="F230" t="n">
-        <v>0.04213356971740723</v>
+        <v>0.04918551445007324</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -8225,10 +8225,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.008360147476196289</v>
+        <v>0.008856534957885742</v>
       </c>
       <c r="F231" t="n">
-        <v>0.03610610961914062</v>
+        <v>0.04010176658630371</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.008672714233398438</v>
+        <v>0.01282572746276855</v>
       </c>
       <c r="F232" t="n">
-        <v>0.06422162055969238</v>
+        <v>0.04027700424194336</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.008892297744750977</v>
+        <v>0.009072780609130859</v>
       </c>
       <c r="F233" t="n">
-        <v>0.03716063499450684</v>
+        <v>0.03715395927429199</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -8320,10 +8320,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.008723020553588867</v>
+        <v>0.00917506217956543</v>
       </c>
       <c r="F234" t="n">
-        <v>0.03822970390319824</v>
+        <v>0.2954428195953369</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.01475095748901367</v>
+        <v>0.01571822166442871</v>
       </c>
       <c r="F235" t="n">
-        <v>0.04169774055480957</v>
+        <v>0.05043935775756836</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -8390,10 +8390,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.02951669692993164</v>
+        <v>0.03134918212890625</v>
       </c>
       <c r="F236" t="n">
-        <v>0.06181955337524414</v>
+        <v>0.07880544662475586</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -8421,10 +8421,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.009072303771972656</v>
+        <v>0.008806705474853516</v>
       </c>
       <c r="F237" t="n">
-        <v>0.03891134262084961</v>
+        <v>0.04208803176879883</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.02037596702575684</v>
+        <v>0.02762770652770996</v>
       </c>
       <c r="F238" t="n">
-        <v>0.08600592613220215</v>
+        <v>0.05926632881164551</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8489,10 +8489,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.0130927562713623</v>
+        <v>0.01860904693603516</v>
       </c>
       <c r="F239" t="n">
-        <v>0.07900190353393555</v>
+        <v>0.09846830368041992</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.01864147186279297</v>
+        <v>0.01968550682067871</v>
       </c>
       <c r="F240" t="n">
-        <v>0.05099821090698242</v>
+        <v>0.05211758613586426</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.0167994499206543</v>
+        <v>0.01486372947692871</v>
       </c>
       <c r="F241" t="n">
-        <v>0.08100080490112305</v>
+        <v>0.04533982276916504</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.01080322265625</v>
+        <v>0.007994890213012695</v>
       </c>
       <c r="F242" t="n">
-        <v>0.1570618152618408</v>
+        <v>0.190091609954834</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.02970027923583984</v>
+        <v>0.04044342041015625</v>
       </c>
       <c r="F243" t="n">
-        <v>0.05810403823852539</v>
+        <v>0.0733802318572998</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8658,10 +8658,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.0113837718963623</v>
+        <v>0.01273155212402344</v>
       </c>
       <c r="F244" t="n">
-        <v>0.04078388214111328</v>
+        <v>0.04518556594848633</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8689,10 +8689,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.01515960693359375</v>
+        <v>0.0156252384185791</v>
       </c>
       <c r="F245" t="n">
-        <v>0.04423022270202637</v>
+        <v>0.1166212558746338</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8720,10 +8720,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.007755756378173828</v>
+        <v>0.007908105850219727</v>
       </c>
       <c r="F246" t="n">
-        <v>0.03609251976013184</v>
+        <v>0.05328559875488281</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8751,10 +8751,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.01339936256408691</v>
+        <v>0.01492500305175781</v>
       </c>
       <c r="F247" t="n">
-        <v>0.04315066337585449</v>
+        <v>0.04822874069213867</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.005990505218505859</v>
+        <v>0.006773948669433594</v>
       </c>
       <c r="F248" t="n">
-        <v>0.03693604469299316</v>
+        <v>0.03522109985351562</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.00704503059387207</v>
+        <v>0.009080648422241211</v>
       </c>
       <c r="F249" t="n">
-        <v>0.08645534515380859</v>
+        <v>0.06729960441589355</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.01066803932189941</v>
+        <v>0.01278066635131836</v>
       </c>
       <c r="F250" t="n">
-        <v>0.04575967788696289</v>
+        <v>0.05829119682312012</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8877,10 +8877,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.007626533508300781</v>
+        <v>0.006518840789794922</v>
       </c>
       <c r="F251" t="n">
-        <v>0.04827570915222168</v>
+        <v>0.03715753555297852</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.01053857803344727</v>
+        <v>0.01405668258666992</v>
       </c>
       <c r="F252" t="n">
-        <v>0.05098104476928711</v>
+        <v>0.04434776306152344</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8941,10 +8941,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.009438991546630859</v>
+        <v>0.01087427139282227</v>
       </c>
       <c r="F253" t="n">
-        <v>0.05231189727783203</v>
+        <v>0.06365799903869629</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.0110325813293457</v>
+        <v>0.01283788681030273</v>
       </c>
       <c r="F254" t="n">
-        <v>0.05821800231933594</v>
+        <v>0.1055190563201904</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -9039,10 +9039,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.09384775161743164</v>
+        <v>0.07679271697998047</v>
       </c>
       <c r="F255" t="n">
-        <v>0.1211602687835693</v>
+        <v>0.1069715023040771</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -9072,10 +9072,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.01543188095092773</v>
+        <v>0.0163571834564209</v>
       </c>
       <c r="F256" t="n">
-        <v>0.04404449462890625</v>
+        <v>0.06728315353393555</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -9111,10 +9111,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.01573610305786133</v>
+        <v>0.01638627052307129</v>
       </c>
       <c r="F257" t="n">
-        <v>0.08531069755554199</v>
+        <v>0.08836960792541504</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.006467103958129883</v>
+        <v>0.007368087768554688</v>
       </c>
       <c r="F258" t="n">
-        <v>0.03230667114257812</v>
+        <v>0.04953765869140625</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.02862691879272461</v>
+        <v>0.03959751129150391</v>
       </c>
       <c r="F259" t="n">
-        <v>0.05712127685546875</v>
+        <v>0.06978774070739746</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -9225,10 +9225,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.01980352401733398</v>
+        <v>0.01777315139770508</v>
       </c>
       <c r="F260" t="n">
-        <v>0.04617881774902344</v>
+        <v>0.06305575370788574</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -9309,10 +9309,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.1187243461608887</v>
+        <v>0.103327751159668</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1514244079589844</v>
+        <v>0.1392655372619629</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -9340,10 +9340,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.01324963569641113</v>
+        <v>0.01275181770324707</v>
       </c>
       <c r="F262" t="n">
-        <v>0.04105710983276367</v>
+        <v>0.06122589111328125</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.008124828338623047</v>
+        <v>0.007115840911865234</v>
       </c>
       <c r="F263" t="n">
-        <v>0.03575825691223145</v>
+        <v>0.03614306449890137</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.01352024078369141</v>
+        <v>0.01257443428039551</v>
       </c>
       <c r="F264" t="n">
-        <v>0.04183673858642578</v>
+        <v>0.07139015197753906</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -9437,10 +9437,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.01461982727050781</v>
+        <v>0.01326465606689453</v>
       </c>
       <c r="F265" t="n">
-        <v>0.04630303382873535</v>
+        <v>0.04617834091186523</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.009496688842773438</v>
+        <v>0.01012086868286133</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0379178524017334</v>
+        <v>0.04006576538085938</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -9505,10 +9505,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.01396560668945312</v>
+        <v>0.01477289199829102</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0466456413269043</v>
+        <v>0.04617190361022949</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -9546,10 +9546,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.01947140693664551</v>
+        <v>0.01963233947753906</v>
       </c>
       <c r="F268" t="n">
-        <v>0.09660601615905762</v>
+        <v>0.07916808128356934</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.01170825958251953</v>
+        <v>0.01207280158996582</v>
       </c>
       <c r="F269" t="n">
-        <v>0.04614567756652832</v>
+        <v>0.04117107391357422</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -9608,10 +9608,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.01065874099731445</v>
+        <v>0.01143932342529297</v>
       </c>
       <c r="F270" t="n">
-        <v>0.03815054893493652</v>
+        <v>0.03915977478027344</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -9641,10 +9641,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.01172423362731934</v>
+        <v>0.01260089874267578</v>
       </c>
       <c r="F271" t="n">
-        <v>0.045013427734375</v>
+        <v>0.05281662940979004</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.006949186325073242</v>
+        <v>0.007742643356323242</v>
       </c>
       <c r="F272" t="n">
-        <v>0.03412890434265137</v>
+        <v>0.05625271797180176</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -9705,10 +9705,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.01340675354003906</v>
+        <v>0.01307129859924316</v>
       </c>
       <c r="F273" t="n">
-        <v>0.05600476264953613</v>
+        <v>0.08655285835266113</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -9736,10 +9736,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.009524345397949219</v>
+        <v>0.008329629898071289</v>
       </c>
       <c r="F274" t="n">
-        <v>0.04108762741088867</v>
+        <v>0.0462191104888916</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.01407837867736816</v>
+        <v>0.01498794555664062</v>
       </c>
       <c r="F275" t="n">
-        <v>0.04700183868408203</v>
+        <v>0.04629373550415039</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -9798,10 +9798,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.0114285945892334</v>
+        <v>0.01109099388122559</v>
       </c>
       <c r="F276" t="n">
-        <v>0.04199671745300293</v>
+        <v>0.06728672981262207</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.009836912155151367</v>
+        <v>0.009641647338867188</v>
       </c>
       <c r="F277" t="n">
-        <v>0.03583908081054688</v>
+        <v>0.07041692733764648</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -9860,10 +9860,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.01101970672607422</v>
+        <v>0.01229691505432129</v>
       </c>
       <c r="F278" t="n">
-        <v>0.03900456428527832</v>
+        <v>0.0794060230255127</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9891,10 +9891,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.006941318511962891</v>
+        <v>0.008221149444580078</v>
       </c>
       <c r="F279" t="n">
-        <v>0.04206418991088867</v>
+        <v>0.05434703826904297</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9926,10 +9926,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.009006977081298828</v>
+        <v>0.009885787963867188</v>
       </c>
       <c r="F280" t="n">
-        <v>0.03686428070068359</v>
+        <v>0.04736733436584473</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.02594590187072754</v>
+        <v>0.02751970291137695</v>
       </c>
       <c r="F281" t="n">
-        <v>0.05623674392700195</v>
+        <v>0.07027292251586914</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9994,10 +9994,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.01356124877929688</v>
+        <v>0.009680509567260742</v>
       </c>
       <c r="F282" t="n">
-        <v>0.04512715339660645</v>
+        <v>0.05134129524230957</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -10025,10 +10025,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.01089310646057129</v>
+        <v>0.01125049591064453</v>
       </c>
       <c r="F283" t="n">
-        <v>0.04019808769226074</v>
+        <v>0.04144692420959473</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -10056,10 +10056,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.007081508636474609</v>
+        <v>0.006505966186523438</v>
       </c>
       <c r="F284" t="n">
-        <v>0.03800678253173828</v>
+        <v>0.03821849822998047</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -10087,10 +10087,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.007945775985717773</v>
+        <v>0.008221149444580078</v>
       </c>
       <c r="F285" t="n">
-        <v>0.04610610008239746</v>
+        <v>0.05824112892150879</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -10118,10 +10118,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.005280971527099609</v>
+        <v>0.006152868270874023</v>
       </c>
       <c r="F286" t="n">
-        <v>0.07502102851867676</v>
+        <v>0.06530117988586426</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.007215738296508789</v>
+        <v>0.007296562194824219</v>
       </c>
       <c r="F287" t="n">
-        <v>0.04212307929992676</v>
+        <v>0.0341484546661377</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.01578497886657715</v>
+        <v>0.01353549957275391</v>
       </c>
       <c r="F288" t="n">
-        <v>0.05059671401977539</v>
+        <v>0.04412698745727539</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -10217,10 +10217,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.01156830787658691</v>
+        <v>0.01106977462768555</v>
       </c>
       <c r="F289" t="n">
-        <v>0.05342602729797363</v>
+        <v>0.04224395751953125</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -10254,10 +10254,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.01058506965637207</v>
+        <v>0.0112311840057373</v>
       </c>
       <c r="F290" t="n">
-        <v>0.04009175300598145</v>
+        <v>0.04829263687133789</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -10289,10 +10289,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.0306541919708252</v>
+        <v>0.03104662895202637</v>
       </c>
       <c r="F291" t="n">
-        <v>0.06120014190673828</v>
+        <v>0.09892559051513672</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -10322,10 +10322,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.01673126220703125</v>
+        <v>0.01622700691223145</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0663154125213623</v>
+        <v>0.08811092376708984</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -10355,10 +10355,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.009012937545776367</v>
+        <v>0.008488178253173828</v>
       </c>
       <c r="F293" t="n">
-        <v>0.05113053321838379</v>
+        <v>0.064361572265625</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.01108121871948242</v>
+        <v>0.01029205322265625</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0401616096496582</v>
+        <v>0.04837870597839355</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -10419,10 +10419,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.006670236587524414</v>
+        <v>0.006569147109985352</v>
       </c>
       <c r="F295" t="n">
-        <v>0.05020785331726074</v>
+        <v>0.03813719749450684</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -10454,10 +10454,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.01016139984130859</v>
+        <v>0.00953364372253418</v>
       </c>
       <c r="F296" t="n">
-        <v>0.04518294334411621</v>
+        <v>0.04521059989929199</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -10487,10 +10487,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.01890063285827637</v>
+        <v>0.01225900650024414</v>
       </c>
       <c r="F297" t="n">
-        <v>0.149843692779541</v>
+        <v>0.05531835556030273</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.02063512802124023</v>
+        <v>0.0130622386932373</v>
       </c>
       <c r="F298" t="n">
-        <v>0.09882473945617676</v>
+        <v>0.0502009391784668</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -10569,10 +10569,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.02651691436767578</v>
+        <v>0.02592825889587402</v>
       </c>
       <c r="F299" t="n">
-        <v>0.06073689460754395</v>
+        <v>0.05399274826049805</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.02501988410949707</v>
+        <v>0.02437543869018555</v>
       </c>
       <c r="F300" t="n">
-        <v>0.08697009086608887</v>
+        <v>0.05930519104003906</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -10637,10 +10637,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.02433443069458008</v>
+        <v>0.02615451812744141</v>
       </c>
       <c r="F301" t="n">
-        <v>0.1508197784423828</v>
+        <v>0.07634568214416504</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -10670,10 +10670,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.01318645477294922</v>
+        <v>0.01426839828491211</v>
       </c>
       <c r="F302" t="n">
-        <v>0.04203295707702637</v>
+        <v>0.04484319686889648</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -10703,10 +10703,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.01076436042785645</v>
+        <v>0.009423971176147461</v>
       </c>
       <c r="F303" t="n">
-        <v>0.04111766815185547</v>
+        <v>0.0397651195526123</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -10735,10 +10735,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.01066732406616211</v>
+        <v>0.01130580902099609</v>
       </c>
       <c r="F304" t="n">
-        <v>0.1987793445587158</v>
+        <v>0.04972577095031738</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.01658177375793457</v>
+        <v>0.01942944526672363</v>
       </c>
       <c r="F305" t="n">
-        <v>0.152724027633667</v>
+        <v>0.07166123390197754</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -10809,10 +10809,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.01128625869750977</v>
+        <v>0.01242470741271973</v>
       </c>
       <c r="F306" t="n">
-        <v>0.04462289810180664</v>
+        <v>0.04114437103271484</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -10852,10 +10852,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.01434135437011719</v>
+        <v>0.01531076431274414</v>
       </c>
       <c r="F307" t="n">
-        <v>0.04272627830505371</v>
+        <v>0.04616451263427734</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.0146937370300293</v>
+        <v>0.01563024520874023</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0994870662689209</v>
+        <v>0.05425238609313965</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.011199951171875</v>
+        <v>0.01286935806274414</v>
       </c>
       <c r="F309" t="n">
-        <v>0.0415952205657959</v>
+        <v>0.04039502143859863</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.006526947021484375</v>
+        <v>0.007196187973022461</v>
       </c>
       <c r="F310" t="n">
-        <v>0.04110193252563477</v>
+        <v>0.08378434181213379</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.01396965980529785</v>
+        <v>0.01333403587341309</v>
       </c>
       <c r="F311" t="n">
-        <v>0.04911661148071289</v>
+        <v>0.04230141639709473</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.006664037704467773</v>
+        <v>0.007345676422119141</v>
       </c>
       <c r="F312" t="n">
-        <v>0.03667116165161133</v>
+        <v>0.06934571266174316</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -11052,10 +11052,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.007137775421142578</v>
+        <v>0.008325338363647461</v>
       </c>
       <c r="F313" t="n">
-        <v>0.03659892082214355</v>
+        <v>0.03713011741638184</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.01199889183044434</v>
+        <v>0.01519513130187988</v>
       </c>
       <c r="F314" t="n">
-        <v>0.05121326446533203</v>
+        <v>0.09248089790344238</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.009965658187866211</v>
+        <v>0.009302139282226562</v>
       </c>
       <c r="F315" t="n">
-        <v>0.04092311859130859</v>
+        <v>0.03615045547485352</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -11165,10 +11165,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.02593231201171875</v>
+        <v>0.02794432640075684</v>
       </c>
       <c r="F316" t="n">
-        <v>0.05411577224731445</v>
+        <v>0.06222414970397949</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -11204,10 +11204,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.01149272918701172</v>
+        <v>0.01061487197875977</v>
       </c>
       <c r="F317" t="n">
-        <v>0.04116058349609375</v>
+        <v>0.04208183288574219</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -11235,10 +11235,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.007783889770507812</v>
+        <v>0.008551836013793945</v>
       </c>
       <c r="F318" t="n">
-        <v>0.03515267372131348</v>
+        <v>0.06226634979248047</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.008110284805297852</v>
+        <v>0.008763790130615234</v>
       </c>
       <c r="F319" t="n">
-        <v>0.07357311248779297</v>
+        <v>0.03724241256713867</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -11308,10 +11308,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.03326582908630371</v>
+        <v>0.03664350509643555</v>
       </c>
       <c r="F320" t="n">
-        <v>0.08799052238464355</v>
+        <v>0.06604504585266113</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -11339,10 +11339,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.009209871292114258</v>
+        <v>0.01115751266479492</v>
       </c>
       <c r="F321" t="n">
-        <v>0.05432772636413574</v>
+        <v>0.04261422157287598</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -11370,10 +11370,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.006929874420166016</v>
+        <v>0.006896257400512695</v>
       </c>
       <c r="F322" t="n">
-        <v>0.04589200019836426</v>
+        <v>0.04098248481750488</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.007060050964355469</v>
+        <v>0.007231473922729492</v>
       </c>
       <c r="F323" t="n">
-        <v>0.03511476516723633</v>
+        <v>0.03926467895507812</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -11432,10 +11432,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.005655288696289062</v>
+        <v>0.006089687347412109</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0351107120513916</v>
+        <v>0.04321885108947754</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.01390171051025391</v>
+        <v>0.01550817489624023</v>
       </c>
       <c r="F325" t="n">
-        <v>0.04723072052001953</v>
+        <v>0.0451045036315918</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -11498,10 +11498,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.01253271102905273</v>
+        <v>0.01235342025756836</v>
       </c>
       <c r="F326" t="n">
-        <v>0.08399558067321777</v>
+        <v>0.05536890029907227</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.01645708084106445</v>
+        <v>0.01636028289794922</v>
       </c>
       <c r="F327" t="n">
-        <v>0.04568910598754883</v>
+        <v>0.05317997932434082</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.008226156234741211</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="F328" t="n">
-        <v>0.06514191627502441</v>
+        <v>0.04031729698181152</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -11596,10 +11596,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.01475834846496582</v>
+        <v>0.02098917961120605</v>
       </c>
       <c r="F329" t="n">
-        <v>0.06077265739440918</v>
+        <v>0.05324149131774902</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -11630,10 +11630,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.008741378784179688</v>
+        <v>0.01018095016479492</v>
       </c>
       <c r="F330" t="n">
-        <v>0.03611469268798828</v>
+        <v>0.03717136383056641</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.03169488906860352</v>
+        <v>0.02894687652587891</v>
       </c>
       <c r="F331" t="n">
-        <v>0.06226754188537598</v>
+        <v>0.05639195442199707</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.007682561874389648</v>
+        <v>0.008077144622802734</v>
       </c>
       <c r="F332" t="n">
-        <v>0.1085991859436035</v>
+        <v>0.0613868236541748</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -11741,10 +11741,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.009137392044067383</v>
+        <v>0.009604692459106445</v>
       </c>
       <c r="F333" t="n">
-        <v>0.06039047241210938</v>
+        <v>0.03754878044128418</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -11774,10 +11774,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.01010990142822266</v>
+        <v>0.01033329963684082</v>
       </c>
       <c r="F334" t="n">
-        <v>0.03976535797119141</v>
+        <v>0.04557466506958008</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.009096384048461914</v>
+        <v>0.008378028869628906</v>
       </c>
       <c r="F335" t="n">
-        <v>0.06884431838989258</v>
+        <v>0.03913354873657227</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -11842,10 +11842,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.007487297058105469</v>
+        <v>0.00680994987487793</v>
       </c>
       <c r="F336" t="n">
-        <v>0.04886388778686523</v>
+        <v>0.03412938117980957</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.01665544509887695</v>
+        <v>0.0181889533996582</v>
       </c>
       <c r="F337" t="n">
-        <v>0.04301357269287109</v>
+        <v>0.04724931716918945</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -11908,10 +11908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.010284423828125</v>
+        <v>0.007912158966064453</v>
       </c>
       <c r="F338" t="n">
-        <v>0.04141354560852051</v>
+        <v>0.0364832878112793</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -11941,10 +11941,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.01058340072631836</v>
+        <v>0.007669210433959961</v>
       </c>
       <c r="F339" t="n">
-        <v>0.04424667358398438</v>
+        <v>0.0379481315612793</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.01110196113586426</v>
+        <v>0.009606599807739258</v>
       </c>
       <c r="F340" t="n">
-        <v>0.06258988380432129</v>
+        <v>0.04649472236633301</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.009345769882202148</v>
+        <v>0.009235382080078125</v>
       </c>
       <c r="F341" t="n">
-        <v>0.04190158843994141</v>
+        <v>1.048410892486572</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -12036,10 +12036,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.008184909820556641</v>
+        <v>0.009935140609741211</v>
       </c>
       <c r="F342" t="n">
-        <v>0.04371881484985352</v>
+        <v>0.03909587860107422</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -12067,10 +12067,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.008131504058837891</v>
+        <v>0.007973194122314453</v>
       </c>
       <c r="F343" t="n">
-        <v>0.03792953491210938</v>
+        <v>0.03517317771911621</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.01100587844848633</v>
+        <v>0.01210689544677734</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0388038158416748</v>
+        <v>0.0635993480682373</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -12135,10 +12135,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.009685039520263672</v>
+        <v>0.01050853729248047</v>
       </c>
       <c r="F345" t="n">
-        <v>0.03915214538574219</v>
+        <v>0.04108333587646484</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -12168,10 +12168,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.0124213695526123</v>
+        <v>0.01326870918273926</v>
       </c>
       <c r="F346" t="n">
-        <v>0.05300521850585938</v>
+        <v>0.03948593139648438</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -12204,10 +12204,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.01835298538208008</v>
+        <v>0.0171663761138916</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0522465705871582</v>
+        <v>0.04921603202819824</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -12239,10 +12239,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.01623964309692383</v>
+        <v>0.01325750350952148</v>
       </c>
       <c r="F348" t="n">
-        <v>0.08182549476623535</v>
+        <v>0.04616451263427734</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.01434469223022461</v>
+        <v>0.01423549652099609</v>
       </c>
       <c r="F349" t="n">
-        <v>0.04459142684936523</v>
+        <v>0.04824924468994141</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.0106816291809082</v>
+        <v>0.01146340370178223</v>
       </c>
       <c r="F350" t="n">
-        <v>0.05295443534851074</v>
+        <v>0.06636524200439453</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -12336,10 +12336,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.009920597076416016</v>
+        <v>0.01075243949890137</v>
       </c>
       <c r="F351" t="n">
-        <v>0.03689360618591309</v>
+        <v>0.05222415924072266</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -12367,10 +12367,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.01128411293029785</v>
+        <v>0.01243138313293457</v>
       </c>
       <c r="F352" t="n">
-        <v>0.05126953125</v>
+        <v>0.0452125072479248</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -12398,10 +12398,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.008739948272705078</v>
+        <v>0.007430315017700195</v>
       </c>
       <c r="F353" t="n">
-        <v>0.04400849342346191</v>
+        <v>0.03720736503601074</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.006413698196411133</v>
+        <v>0.006831169128417969</v>
       </c>
       <c r="F354" t="n">
-        <v>0.04520773887634277</v>
+        <v>0.03422188758850098</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.009983301162719727</v>
+        <v>0.01314544677734375</v>
       </c>
       <c r="F355" t="n">
-        <v>0.04222893714904785</v>
+        <v>0.05918765068054199</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.009808540344238281</v>
+        <v>0.009645938873291016</v>
       </c>
       <c r="F356" t="n">
-        <v>0.03812360763549805</v>
+        <v>0.04210901260375977</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -12527,10 +12527,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.006211757659912109</v>
+        <v>0.006040811538696289</v>
       </c>
       <c r="F357" t="n">
-        <v>0.03713226318359375</v>
+        <v>0.04521512985229492</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -12566,10 +12566,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.02695775032043457</v>
+        <v>0.03451251983642578</v>
       </c>
       <c r="F358" t="n">
-        <v>0.08339762687683105</v>
+        <v>0.06725311279296875</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -12607,10 +12607,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.01676344871520996</v>
+        <v>0.0142512321472168</v>
       </c>
       <c r="F359" t="n">
-        <v>0.04517078399658203</v>
+        <v>0.07024288177490234</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -12666,10 +12666,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.08404254913330078</v>
+        <v>0.08330512046813965</v>
       </c>
       <c r="F360" t="n">
-        <v>0.1165287494659424</v>
+        <v>0.112724781036377</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.007517576217651367</v>
+        <v>0.00697636604309082</v>
       </c>
       <c r="F361" t="n">
-        <v>0.03911256790161133</v>
+        <v>0.04024696350097656</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -12734,10 +12734,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.01406216621398926</v>
+        <v>0.01433873176574707</v>
       </c>
       <c r="F362" t="n">
-        <v>0.07029128074645996</v>
+        <v>0.0693519115447998</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -12793,10 +12793,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.05275249481201172</v>
+        <v>0.06121492385864258</v>
       </c>
       <c r="F363" t="n">
-        <v>0.08154678344726562</v>
+        <v>0.0926969051361084</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -12826,10 +12826,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.01262950897216797</v>
+        <v>0.009350299835205078</v>
       </c>
       <c r="F364" t="n">
-        <v>0.04622602462768555</v>
+        <v>0.03822731971740723</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.007389307022094727</v>
+        <v>0.007140159606933594</v>
       </c>
       <c r="F365" t="n">
-        <v>0.03583693504333496</v>
+        <v>0.03712868690490723</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -12894,10 +12894,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.02178263664245605</v>
+        <v>0.01930117607116699</v>
       </c>
       <c r="F366" t="n">
-        <v>0.05122184753417969</v>
+        <v>0.05623841285705566</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -12925,10 +12925,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.008099079132080078</v>
+        <v>0.007246732711791992</v>
       </c>
       <c r="F367" t="n">
-        <v>0.03999996185302734</v>
+        <v>0.03515172004699707</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -12960,10 +12960,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.01079487800598145</v>
+        <v>0.01067090034484863</v>
       </c>
       <c r="F368" t="n">
-        <v>0.06632733345031738</v>
+        <v>0.06542706489562988</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -12991,10 +12991,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.01320838928222656</v>
+        <v>0.01343774795532227</v>
       </c>
       <c r="F369" t="n">
-        <v>0.05522465705871582</v>
+        <v>0.04226303100585938</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -13024,10 +13024,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.0163724422454834</v>
+        <v>0.01538729667663574</v>
       </c>
       <c r="F370" t="n">
-        <v>0.04612302780151367</v>
+        <v>0.04818296432495117</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -13057,10 +13057,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.009936332702636719</v>
+        <v>0.009683847427368164</v>
       </c>
       <c r="F371" t="n">
-        <v>0.04412508010864258</v>
+        <v>0.03713822364807129</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.01702213287353516</v>
+        <v>0.01330709457397461</v>
       </c>
       <c r="F372" t="n">
-        <v>0.0702507495880127</v>
+        <v>0.04328584671020508</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.02723407745361328</v>
+        <v>0.02716851234436035</v>
       </c>
       <c r="F373" t="n">
-        <v>0.0744020938873291</v>
+        <v>0.07878279685974121</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -13160,10 +13160,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.01316571235656738</v>
+        <v>0.009061336517333984</v>
       </c>
       <c r="F374" t="n">
-        <v>0.04719185829162598</v>
+        <v>0.03571367263793945</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -13193,10 +13193,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.01728439331054688</v>
+        <v>0.01809906959533691</v>
       </c>
       <c r="F375" t="n">
-        <v>0.04813027381896973</v>
+        <v>0.04887080192565918</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -13226,10 +13226,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.01650404930114746</v>
+        <v>0.0177760124206543</v>
       </c>
       <c r="F376" t="n">
-        <v>0.04713034629821777</v>
+        <v>0.07834649085998535</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -13259,10 +13259,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.01731300354003906</v>
+        <v>0.01641535758972168</v>
       </c>
       <c r="F377" t="n">
-        <v>0.04435443878173828</v>
+        <v>0.04543590545654297</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -13290,10 +13290,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.009843349456787109</v>
+        <v>0.01351261138916016</v>
       </c>
       <c r="F378" t="n">
-        <v>0.04118132591247559</v>
+        <v>0.04216217994689941</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -13327,10 +13327,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.01353812217712402</v>
+        <v>0.0165550708770752</v>
       </c>
       <c r="F379" t="n">
-        <v>0.05891728401184082</v>
+        <v>0.05563569068908691</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -13362,10 +13362,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.02053523063659668</v>
+        <v>0.01484823226928711</v>
       </c>
       <c r="F380" t="n">
-        <v>0.04959774017333984</v>
+        <v>0.04732680320739746</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -13397,10 +13397,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.02548074722290039</v>
+        <v>0.03518986701965332</v>
       </c>
       <c r="F381" t="n">
-        <v>0.05825352668762207</v>
+        <v>0.06325340270996094</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -13430,10 +13430,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.01574802398681641</v>
+        <v>0.02324962615966797</v>
       </c>
       <c r="F382" t="n">
-        <v>0.04624581336975098</v>
+        <v>0.05453753471374512</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -13465,10 +13465,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.009372949600219727</v>
+        <v>0.01292324066162109</v>
       </c>
       <c r="F383" t="n">
-        <v>0.03715944290161133</v>
+        <v>0.04399585723876953</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -13499,10 +13499,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.01297664642333984</v>
+        <v>0.01066374778747559</v>
       </c>
       <c r="F384" t="n">
-        <v>0.06035399436950684</v>
+        <v>0.05116677284240723</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -13530,10 +13530,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.008599996566772461</v>
+        <v>0.01130342483520508</v>
       </c>
       <c r="F385" t="n">
-        <v>0.04120516777038574</v>
+        <v>0.04579687118530273</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -13561,10 +13561,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.01618361473083496</v>
+        <v>0.01592063903808594</v>
       </c>
       <c r="F386" t="n">
-        <v>0.08500242233276367</v>
+        <v>0.04554080963134766</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -13596,10 +13596,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.008626937866210938</v>
+        <v>0.009460687637329102</v>
       </c>
       <c r="F387" t="n">
-        <v>0.05518054962158203</v>
+        <v>0.04526638984680176</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.006521463394165039</v>
+        <v>0.006454706192016602</v>
       </c>
       <c r="F388" t="n">
-        <v>0.1073451042175293</v>
+        <v>0.04018449783325195</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.01513075828552246</v>
+        <v>0.0117950439453125</v>
       </c>
       <c r="F389" t="n">
-        <v>0.04551267623901367</v>
+        <v>0.05320477485656738</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -13691,10 +13691,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.02201533317565918</v>
+        <v>0.02295994758605957</v>
       </c>
       <c r="F390" t="n">
-        <v>0.04947447776794434</v>
+        <v>0.08838629722595215</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -13722,10 +13722,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.02088117599487305</v>
+        <v>0.01992106437683105</v>
       </c>
       <c r="F391" t="n">
-        <v>0.04715824127197266</v>
+        <v>0.04865884780883789</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -13753,10 +13753,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.01326370239257812</v>
+        <v>0.008774280548095703</v>
       </c>
       <c r="F392" t="n">
-        <v>0.08233213424682617</v>
+        <v>0.0821681022644043</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -13784,10 +13784,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.0208895206451416</v>
+        <v>0.01951980590820312</v>
       </c>
       <c r="F393" t="n">
-        <v>0.04920077323913574</v>
+        <v>0.04902553558349609</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -13819,10 +13819,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.0159754753112793</v>
+        <v>0.01542139053344727</v>
       </c>
       <c r="F394" t="n">
-        <v>0.04625177383422852</v>
+        <v>0.07032561302185059</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -13854,10 +13854,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.01227784156799316</v>
+        <v>0.01249933242797852</v>
       </c>
       <c r="F395" t="n">
-        <v>0.0411226749420166</v>
+        <v>0.04218578338623047</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -13889,10 +13889,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.01192688941955566</v>
+        <v>0.01057839393615723</v>
       </c>
       <c r="F396" t="n">
-        <v>0.04520106315612793</v>
+        <v>0.07927274703979492</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -13922,10 +13922,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.009735822677612305</v>
+        <v>0.01018643379211426</v>
       </c>
       <c r="F397" t="n">
-        <v>0.03716444969177246</v>
+        <v>0.03905200958251953</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -13953,10 +13953,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.01309609413146973</v>
+        <v>0.01389145851135254</v>
       </c>
       <c r="F398" t="n">
-        <v>0.06837177276611328</v>
+        <v>0.05814027786254883</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.01024508476257324</v>
+        <v>0.01170754432678223</v>
       </c>
       <c r="F399" t="n">
-        <v>0.03511142730712891</v>
+        <v>0.04211664199829102</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -14019,10 +14019,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.007618427276611328</v>
+        <v>0.007626771926879883</v>
       </c>
       <c r="F400" t="n">
-        <v>0.04532885551452637</v>
+        <v>0.03728079795837402</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -14058,10 +14058,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.02643680572509766</v>
+        <v>0.02540802955627441</v>
       </c>
       <c r="F401" t="n">
-        <v>0.05881047248840332</v>
+        <v>0.06833434104919434</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.01047515869140625</v>
+        <v>0.009626388549804688</v>
       </c>
       <c r="F402" t="n">
-        <v>0.04218339920043945</v>
+        <v>0.04015541076660156</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -14120,10 +14120,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.007190942764282227</v>
+        <v>0.00671076774597168</v>
       </c>
       <c r="F403" t="n">
-        <v>0.0351104736328125</v>
+        <v>0.06237649917602539</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>

--- a/anonymization_results.xlsx
+++ b/anonymization_results.xlsx
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.07083773612976074</v>
+        <v>0.04303598403930664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1173610687255859</v>
+        <v>0.101205587387085</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.0201117992401123</v>
+        <v>0.01902198791503906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04931426048278809</v>
+        <v>0.06118917465209961</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.007736921310424805</v>
+        <v>0.008708953857421875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03414344787597656</v>
+        <v>0.06715273857116699</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.03120064735412598</v>
+        <v>0.04007124900817871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0611572265625</v>
+        <v>0.0662233829498291</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01055335998535156</v>
+        <v>0.01153445243835449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04726004600524902</v>
+        <v>0.08021783828735352</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.00621795654296875</v>
+        <v>0.006196975708007812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03611660003662109</v>
+        <v>0.07564115524291992</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.009839296340942383</v>
+        <v>0.013153076171875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05425667762756348</v>
+        <v>0.04215121269226074</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.04513168334960938</v>
+        <v>0.04363846778869629</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0742943286895752</v>
+        <v>0.07810330390930176</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.009619235992431641</v>
+        <v>0.008518695831298828</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04115200042724609</v>
+        <v>0.04615044593811035</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01036930084228516</v>
+        <v>0.008058786392211914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03610873222351074</v>
+        <v>0.2006697654724121</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.01078081130981445</v>
+        <v>0.01085162162780762</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04159235954284668</v>
+        <v>0.03608584403991699</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01165461540222168</v>
+        <v>0.01361322402954102</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04011344909667969</v>
+        <v>0.04915261268615723</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.01395702362060547</v>
+        <v>0.01998353004455566</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04543209075927734</v>
+        <v>0.07400369644165039</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.008326530456542969</v>
+        <v>0.007707595825195312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03956484794616699</v>
+        <v>0.03522801399230957</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.006857156753540039</v>
+        <v>0.007065057754516602</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03763008117675781</v>
+        <v>0.08058905601501465</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.02771902084350586</v>
+        <v>0.02252554893493652</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05766582489013672</v>
+        <v>0.0510406494140625</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.008141517639160156</v>
+        <v>0.006063461303710938</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04012036323547363</v>
+        <v>0.05309700965881348</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.006442546844482422</v>
+        <v>0.006682872772216797</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09776425361633301</v>
+        <v>0.115250825881958</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.00804448127746582</v>
+        <v>0.006553173065185547</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04323363304138184</v>
+        <v>0.2366089820861816</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.008187532424926758</v>
+        <v>0.008758306503295898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03819131851196289</v>
+        <v>0.0400087833404541</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.009341716766357422</v>
+        <v>0.009527444839477539</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04017877578735352</v>
+        <v>0.2436625957489014</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01352977752685547</v>
+        <v>0.01275992393493652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04418087005615234</v>
+        <v>0.07021903991699219</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.0141913890838623</v>
+        <v>0.01127886772155762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05426430702209473</v>
+        <v>0.1462662220001221</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.01775026321411133</v>
+        <v>0.015350341796875</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06629228591918945</v>
+        <v>0.04744458198547363</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.01551461219787598</v>
+        <v>0.01803278923034668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04430270195007324</v>
+        <v>0.06626653671264648</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1366,10 +1366,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.01244807243347168</v>
+        <v>0.01076316833496094</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04677557945251465</v>
+        <v>0.04318094253540039</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.0120079517364502</v>
+        <v>0.0112912654876709</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04752135276794434</v>
+        <v>0.06815600395202637</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.007926225662231445</v>
+        <v>0.009794235229492188</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03929710388183594</v>
+        <v>0.09428524971008301</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.01756930351257324</v>
+        <v>0.01474738121032715</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04858493804931641</v>
+        <v>0.08920598030090332</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.02904009819030762</v>
+        <v>0.03006386756896973</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05634355545043945</v>
+        <v>0.06307339668273926</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.00853276252746582</v>
+        <v>0.008119344711303711</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04222011566162109</v>
+        <v>0.04152536392211914</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.009914636611938477</v>
+        <v>0.009455442428588867</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0422065258026123</v>
+        <v>0.1157686710357666</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.009377479553222656</v>
+        <v>0.009714365005493164</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05697178840637207</v>
+        <v>0.06125545501708984</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.007844686508178711</v>
+        <v>0.009446144104003906</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05979657173156738</v>
+        <v>0.1427030563354492</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.0231626033782959</v>
+        <v>0.02500224113464355</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06464958190917969</v>
+        <v>0.07414674758911133</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1697,10 +1697,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.006065607070922852</v>
+        <v>0.005694150924682617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06086540222167969</v>
+        <v>0.1732842922210693</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.008828639984130859</v>
+        <v>0.009322643280029297</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04830408096313477</v>
+        <v>0.1146531105041504</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.01848411560058594</v>
+        <v>0.02284884452819824</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05123424530029297</v>
+        <v>0.1053674221038818</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.02070736885070801</v>
+        <v>0.01810526847839355</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05224370956420898</v>
+        <v>0.08637166023254395</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.02348065376281738</v>
+        <v>0.02357649803161621</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05416631698608398</v>
+        <v>0.09032034873962402</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.02535533905029297</v>
+        <v>0.03591799736022949</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05325627326965332</v>
+        <v>0.1673929691314697</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.01569676399230957</v>
+        <v>0.01710748672485352</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04509854316711426</v>
+        <v>0.05414676666259766</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.007381916046142578</v>
+        <v>0.009063959121704102</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03822135925292969</v>
+        <v>0.03803277015686035</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.00764918327331543</v>
+        <v>0.01165056228637695</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0953209400177002</v>
+        <v>0.06199431419372559</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.01103448867797852</v>
+        <v>0.03044438362121582</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08740472793579102</v>
+        <v>0.1268138885498047</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.01297998428344727</v>
+        <v>0.01294684410095215</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08437633514404297</v>
+        <v>0.1073164939880371</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.02257490158081055</v>
+        <v>0.02471065521240234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05026912689208984</v>
+        <v>0.1392602920532227</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.009199142456054688</v>
+        <v>0.009082794189453125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05027055740356445</v>
+        <v>0.1413271427154541</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.01338768005371094</v>
+        <v>0.01165008544921875</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1226563453674316</v>
+        <v>0.1436972618103027</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.006705999374389648</v>
+        <v>0.007344245910644531</v>
       </c>
       <c r="F51" t="n">
-        <v>0.07939410209655762</v>
+        <v>0.07216262817382812</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.01126861572265625</v>
+        <v>0.01062679290771484</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09867644309997559</v>
+        <v>0.08921194076538086</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.00587773323059082</v>
+        <v>0.00612187385559082</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0402681827545166</v>
+        <v>0.06813549995422363</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.0116112232208252</v>
+        <v>0.01132464408874512</v>
       </c>
       <c r="F54" t="n">
-        <v>0.05369329452514648</v>
+        <v>0.1705520153045654</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.01095271110534668</v>
+        <v>0.008098602294921875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1054313182830811</v>
+        <v>0.03818202018737793</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.007526159286499023</v>
+        <v>0.009896993637084961</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05945372581481934</v>
+        <v>0.04311728477478027</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.0235440731048584</v>
+        <v>0.02400016784667969</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07734036445617676</v>
+        <v>0.06730246543884277</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.009611845016479492</v>
+        <v>0.01003623008728027</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03814387321472168</v>
+        <v>0.1112446784973145</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.008443117141723633</v>
+        <v>0.009553432464599609</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0338897705078125</v>
+        <v>0.07918405532836914</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.02509331703186035</v>
+        <v>0.0278165340423584</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07271265983581543</v>
+        <v>0.105381965637207</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.005949974060058594</v>
+        <v>0.006212711334228516</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03504586219787598</v>
+        <v>0.07421469688415527</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.02900171279907227</v>
+        <v>0.02330851554870605</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07565832138061523</v>
+        <v>0.09076094627380371</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2546,10 +2546,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.03841972351074219</v>
+        <v>0.02603483200073242</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06730389595031738</v>
+        <v>0.09194564819335938</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.01557469367980957</v>
+        <v>0.0198056697845459</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07429671287536621</v>
+        <v>0.0989997386932373</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.01056647300720215</v>
+        <v>0.01397252082824707</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03721880912780762</v>
+        <v>0.05212163925170898</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.009049654006958008</v>
+        <v>0.008943080902099609</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03928637504577637</v>
+        <v>0.2035303115844727</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.006911993026733398</v>
+        <v>0.008388519287109375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03719854354858398</v>
+        <v>0.1262650489807129</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.005877017974853516</v>
+        <v>0.005957365036010742</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08233737945556641</v>
+        <v>0.1173784732818604</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.01989269256591797</v>
+        <v>0.01753902435302734</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07331132888793945</v>
+        <v>0.06015443801879883</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.01383590698242188</v>
+        <v>0.01677823066711426</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04309415817260742</v>
+        <v>0.04710865020751953</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.008331537246704102</v>
+        <v>0.007167816162109375</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07433199882507324</v>
+        <v>0.0761871337890625</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.007796525955200195</v>
+        <v>0.007044076919555664</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06829166412353516</v>
+        <v>0.08524608612060547</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.0074920654296875</v>
+        <v>0.008199214935302734</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06252455711364746</v>
+        <v>0.09613895416259766</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.01753401756286621</v>
+        <v>0.01685929298400879</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04694986343383789</v>
+        <v>0.05214905738830566</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.00901341438293457</v>
+        <v>0.009437084197998047</v>
       </c>
       <c r="F75" t="n">
-        <v>0.05107498168945312</v>
+        <v>0.1182889938354492</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.007872819900512695</v>
+        <v>0.00741124153137207</v>
       </c>
       <c r="F76" t="n">
-        <v>0.06282424926757812</v>
+        <v>0.07820248603820801</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.007368803024291992</v>
+        <v>0.00738072395324707</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03923797607421875</v>
+        <v>0.04598903656005859</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.01230049133300781</v>
+        <v>0.01633667945861816</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04426455497741699</v>
+        <v>0.06600379943847656</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.005408048629760742</v>
+        <v>0.006487131118774414</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04215192794799805</v>
+        <v>0.04147553443908691</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.006162881851196289</v>
+        <v>0.007797479629516602</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06015324592590332</v>
+        <v>0.1182725429534912</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.008925676345825195</v>
+        <v>0.007711887359619141</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0371403694152832</v>
+        <v>0.08006930351257324</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.0180823802947998</v>
+        <v>0.01990318298339844</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04526638984680176</v>
+        <v>0.2093749046325684</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.02672052383422852</v>
+        <v>0.02750658988952637</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05825042724609375</v>
+        <v>0.05610203742980957</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.02605366706848145</v>
+        <v>0.0233762264251709</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1043612957000732</v>
+        <v>0.06429600715637207</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.03003406524658203</v>
+        <v>0.02344322204589844</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0595242977142334</v>
+        <v>0.1171548366546631</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.01194882392883301</v>
+        <v>0.01270079612731934</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04016757011413574</v>
+        <v>0.09022998809814453</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3351,10 +3351,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.01492428779602051</v>
+        <v>0.02119731903076172</v>
       </c>
       <c r="F87" t="n">
-        <v>0.07760190963745117</v>
+        <v>0.06532406806945801</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.01201868057250977</v>
+        <v>0.0165255069732666</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03876781463623047</v>
+        <v>0.1593339443206787</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.01491904258728027</v>
+        <v>0.0194237232208252</v>
       </c>
       <c r="F89" t="n">
-        <v>0.05385136604309082</v>
+        <v>0.1163184642791748</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3445,10 +3445,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.01448273658752441</v>
+        <v>0.0124201774597168</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04346871376037598</v>
+        <v>0.04907727241516113</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.01039838790893555</v>
+        <v>0.01032090187072754</v>
       </c>
       <c r="F91" t="n">
-        <v>0.03811955451965332</v>
+        <v>0.2297203540802002</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.01239967346191406</v>
+        <v>0.01382541656494141</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03913426399230957</v>
+        <v>0.09535312652587891</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.01417684555053711</v>
+        <v>0.0145714282989502</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09155058860778809</v>
+        <v>0.04415583610534668</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.01607799530029297</v>
+        <v>0.01317954063415527</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04917430877685547</v>
+        <v>0.1695704460144043</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3607,10 +3607,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.01093530654907227</v>
+        <v>0.01115012168884277</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03821253776550293</v>
+        <v>0.04199838638305664</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.008871555328369141</v>
+        <v>0.007836580276489258</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03916215896606445</v>
+        <v>0.05700993537902832</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.0244295597076416</v>
+        <v>0.02993154525756836</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08824396133422852</v>
+        <v>0.1950976848602295</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3702,10 +3702,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.01188921928405762</v>
+        <v>0.0110776424407959</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05220389366149902</v>
+        <v>0.1243412494659424</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.007373571395874023</v>
+        <v>0.007173061370849609</v>
       </c>
       <c r="F99" t="n">
-        <v>0.03921723365783691</v>
+        <v>0.03410601615905762</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.007772922515869141</v>
+        <v>0.006889581680297852</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03822469711303711</v>
+        <v>0.1514461040496826</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3797,10 +3797,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.01244091987609863</v>
+        <v>0.01162314414978027</v>
       </c>
       <c r="F101" t="n">
-        <v>0.04108214378356934</v>
+        <v>0.1082618236541748</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.02740120887756348</v>
+        <v>0.0357670783996582</v>
       </c>
       <c r="F102" t="n">
-        <v>0.06326651573181152</v>
+        <v>0.2121322154998779</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.007497072219848633</v>
+        <v>0.008655548095703125</v>
       </c>
       <c r="F103" t="n">
-        <v>0.03706479072570801</v>
+        <v>0.1114301681518555</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.007895708084106445</v>
+        <v>0.007613658905029297</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03812217712402344</v>
+        <v>0.06208157539367676</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.02011537551879883</v>
+        <v>0.02267861366271973</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1175434589385986</v>
+        <v>0.0851898193359375</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.01057887077331543</v>
+        <v>0.0101172924041748</v>
       </c>
       <c r="F106" t="n">
-        <v>0.04769682884216309</v>
+        <v>0.1403341293334961</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4005,10 +4005,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.01195120811462402</v>
+        <v>0.01130437850952148</v>
       </c>
       <c r="F107" t="n">
-        <v>0.05011105537414551</v>
+        <v>0.2007229328155518</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.007860183715820312</v>
+        <v>0.00785064697265625</v>
       </c>
       <c r="F108" t="n">
-        <v>0.06243276596069336</v>
+        <v>0.2151315212249756</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.008763313293457031</v>
+        <v>0.007937192916870117</v>
       </c>
       <c r="F109" t="n">
-        <v>0.03719997406005859</v>
+        <v>0.2044632434844971</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.01001286506652832</v>
+        <v>0.05816292762756348</v>
       </c>
       <c r="F110" t="n">
-        <v>0.07018804550170898</v>
+        <v>0.2073512077331543</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.01005101203918457</v>
+        <v>0.01108527183532715</v>
       </c>
       <c r="F111" t="n">
-        <v>0.04217982292175293</v>
+        <v>1.072226524353027</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.05719637870788574</v>
+        <v>0.0514070987701416</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1084551811218262</v>
+        <v>0.2232847213745117</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4215,10 +4215,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.01252126693725586</v>
+        <v>0.01138496398925781</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03870010375976562</v>
+        <v>0.08034229278564453</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.006324052810668945</v>
+        <v>0.005812406539916992</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0435185432434082</v>
+        <v>0.1571991443634033</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.03756403923034668</v>
+        <v>0.03641533851623535</v>
       </c>
       <c r="F115" t="n">
-        <v>0.06660151481628418</v>
+        <v>0.2334070205688477</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.005978822708129883</v>
+        <v>0.006754159927368164</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03524947166442871</v>
+        <v>0.2295742034912109</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4360,10 +4360,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.006053924560546875</v>
+        <v>0.006386995315551758</v>
       </c>
       <c r="F117" t="n">
-        <v>0.04423642158508301</v>
+        <v>0.1434304714202881</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.007251501083374023</v>
+        <v>0.00724482536315918</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05424690246582031</v>
+        <v>0.1003565788269043</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.007108211517333984</v>
+        <v>0.008002996444702148</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03613018989562988</v>
+        <v>0.2173318862915039</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.009542703628540039</v>
+        <v>0.01131343841552734</v>
       </c>
       <c r="F120" t="n">
-        <v>0.07035303115844727</v>
+        <v>0.1637978553771973</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4488,10 +4488,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.01085472106933594</v>
+        <v>0.0109856128692627</v>
       </c>
       <c r="F121" t="n">
-        <v>0.05428719520568848</v>
+        <v>0.07800579071044922</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.01703643798828125</v>
+        <v>0.01923704147338867</v>
       </c>
       <c r="F122" t="n">
-        <v>0.06123709678649902</v>
+        <v>0.1026532649993896</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.01346254348754883</v>
+        <v>0.01159906387329102</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04328060150146484</v>
+        <v>0.1554388999938965</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.01242637634277344</v>
+        <v>0.01137924194335938</v>
       </c>
       <c r="F124" t="n">
-        <v>0.05233645439147949</v>
+        <v>0.2495191097259521</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.05446529388427734</v>
+        <v>0.05517125129699707</v>
       </c>
       <c r="F125" t="n">
-        <v>0.09321999549865723</v>
+        <v>0.233363151550293</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.01437568664550781</v>
+        <v>0.01532387733459473</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3621280193328857</v>
+        <v>0.2363119125366211</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4726,10 +4726,10 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.04065036773681641</v>
+        <v>0.03782320022583008</v>
       </c>
       <c r="F127" t="n">
-        <v>0.07636237144470215</v>
+        <v>0.138303279876709</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.0111534595489502</v>
+        <v>0.0110018253326416</v>
       </c>
       <c r="F128" t="n">
-        <v>0.07125449180603027</v>
+        <v>0.07297968864440918</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.01707363128662109</v>
+        <v>0.01265788078308105</v>
       </c>
       <c r="F129" t="n">
-        <v>0.04910969734191895</v>
+        <v>0.1000378131866455</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4825,10 +4825,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.01284241676330566</v>
+        <v>0.01791048049926758</v>
       </c>
       <c r="F130" t="n">
-        <v>0.04413342475891113</v>
+        <v>0.05904388427734375</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.01313018798828125</v>
+        <v>0.01238822937011719</v>
       </c>
       <c r="F131" t="n">
-        <v>0.04105067253112793</v>
+        <v>0.09828972816467285</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.01989459991455078</v>
+        <v>0.01811790466308594</v>
       </c>
       <c r="F132" t="n">
-        <v>0.05022764205932617</v>
+        <v>0.09424257278442383</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.01610803604125977</v>
+        <v>0.01495575904846191</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04408907890319824</v>
+        <v>0.0620877742767334</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.01192069053649902</v>
+        <v>0.01114273071289062</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0420372486114502</v>
+        <v>0.2555983066558838</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4988,10 +4988,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.02548480033874512</v>
+        <v>0.02481460571289062</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05800747871398926</v>
+        <v>0.1142706871032715</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.01108646392822266</v>
+        <v>0.01203370094299316</v>
       </c>
       <c r="F136" t="n">
-        <v>0.03657722473144531</v>
+        <v>0.08620953559875488</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.007768392562866211</v>
+        <v>0.007546424865722656</v>
       </c>
       <c r="F137" t="n">
-        <v>0.03435969352722168</v>
+        <v>0.2107837200164795</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5085,10 +5085,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.01848649978637695</v>
+        <v>0.01660847663879395</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0662989616394043</v>
+        <v>0.0735316276550293</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -5120,10 +5120,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.02148056030273438</v>
+        <v>0.01859450340270996</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05722355842590332</v>
+        <v>0.1072957515716553</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5151,10 +5151,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.01220273971557617</v>
+        <v>0.01576113700866699</v>
       </c>
       <c r="F140" t="n">
-        <v>0.07837486267089844</v>
+        <v>0.1311407089233398</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.008955001831054688</v>
+        <v>0.008997440338134766</v>
       </c>
       <c r="F141" t="n">
-        <v>0.04128837585449219</v>
+        <v>0.08516025543212891</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.006149530410766602</v>
+        <v>0.005896568298339844</v>
       </c>
       <c r="F142" t="n">
-        <v>0.05062246322631836</v>
+        <v>0.05704522132873535</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.009097576141357422</v>
+        <v>0.009861946105957031</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06381678581237793</v>
+        <v>0.1165792942047119</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5277,10 +5277,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.01018428802490234</v>
+        <v>0.01101493835449219</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04274916648864746</v>
+        <v>0.1624488830566406</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.008373737335205078</v>
+        <v>0.008050680160522461</v>
       </c>
       <c r="F145" t="n">
-        <v>0.04414248466491699</v>
+        <v>0.08235859870910645</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.008600473403930664</v>
+        <v>0.007586479187011719</v>
       </c>
       <c r="F146" t="n">
-        <v>0.03810024261474609</v>
+        <v>0.1272950172424316</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.007428169250488281</v>
+        <v>0.008863449096679688</v>
       </c>
       <c r="F147" t="n">
-        <v>0.03411030769348145</v>
+        <v>0.06318783760070801</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.007536649703979492</v>
+        <v>0.006830215454101562</v>
       </c>
       <c r="F148" t="n">
-        <v>0.04824614524841309</v>
+        <v>0.3155114650726318</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.008002281188964844</v>
+        <v>0.006356239318847656</v>
       </c>
       <c r="F149" t="n">
-        <v>0.04927539825439453</v>
+        <v>0.04011058807373047</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5473,10 +5473,10 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.0250699520111084</v>
+        <v>0.02347493171691895</v>
       </c>
       <c r="F150" t="n">
-        <v>0.06023669242858887</v>
+        <v>0.1261835098266602</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5506,10 +5506,10 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.01135945320129395</v>
+        <v>0.009519100189208984</v>
       </c>
       <c r="F151" t="n">
-        <v>0.06931948661804199</v>
+        <v>0.163198709487915</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.009453535079956055</v>
+        <v>0.009078741073608398</v>
       </c>
       <c r="F152" t="n">
-        <v>0.03973531723022461</v>
+        <v>0.03602313995361328</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.009283781051635742</v>
+        <v>0.007733583450317383</v>
       </c>
       <c r="F153" t="n">
-        <v>0.05455589294433594</v>
+        <v>0.03607916831970215</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.01219630241394043</v>
+        <v>0.009958744049072266</v>
       </c>
       <c r="F154" t="n">
-        <v>0.04444360733032227</v>
+        <v>0.1532979011535645</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.007460832595825195</v>
+        <v>0.00687861442565918</v>
       </c>
       <c r="F155" t="n">
-        <v>0.07039976119995117</v>
+        <v>0.1183323860168457</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.01414179801940918</v>
+        <v>0.01433396339416504</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04615426063537598</v>
+        <v>0.04614543914794922</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.01594352722167969</v>
+        <v>0.01551914215087891</v>
       </c>
       <c r="F157" t="n">
-        <v>0.07930612564086914</v>
+        <v>0.167513370513916</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.02229499816894531</v>
+        <v>0.0159761905670166</v>
       </c>
       <c r="F158" t="n">
-        <v>0.05325865745544434</v>
+        <v>0.09405112266540527</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5768,10 +5768,10 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.01035046577453613</v>
+        <v>0.009015321731567383</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0381922721862793</v>
+        <v>0.09945344924926758</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.01464986801147461</v>
+        <v>0.0110466480255127</v>
       </c>
       <c r="F160" t="n">
-        <v>0.04817080497741699</v>
+        <v>0.08928370475769043</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.02872848510742188</v>
+        <v>0.01970005035400391</v>
       </c>
       <c r="F161" t="n">
-        <v>0.05615663528442383</v>
+        <v>0.1074657440185547</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.01031279563903809</v>
+        <v>0.008362293243408203</v>
       </c>
       <c r="F162" t="n">
-        <v>0.05823278427124023</v>
+        <v>0.1454150676727295</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.007205724716186523</v>
+        <v>0.007256269454956055</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03452062606811523</v>
+        <v>0.1543776988983154</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.008507728576660156</v>
+        <v>0.01282143592834473</v>
       </c>
       <c r="F164" t="n">
-        <v>0.04342150688171387</v>
+        <v>0.09100031852722168</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.007484197616577148</v>
+        <v>0.006991863250732422</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0399630069732666</v>
+        <v>0.1224193572998047</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.009097576141357422</v>
+        <v>0.01001501083374023</v>
       </c>
       <c r="F166" t="n">
-        <v>0.03752470016479492</v>
+        <v>0.04423427581787109</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.02487683296203613</v>
+        <v>0.01590514183044434</v>
       </c>
       <c r="F167" t="n">
-        <v>0.05931663513183594</v>
+        <v>0.07926106452941895</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -6071,10 +6071,10 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.008758783340454102</v>
+        <v>0.008303642272949219</v>
       </c>
       <c r="F168" t="n">
-        <v>0.03712749481201172</v>
+        <v>0.06603050231933594</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.008815526962280273</v>
+        <v>0.008254051208496094</v>
       </c>
       <c r="F169" t="n">
-        <v>0.03715634346008301</v>
+        <v>0.07513737678527832</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6141,10 +6141,10 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.01160001754760742</v>
+        <v>0.009193181991577148</v>
       </c>
       <c r="F170" t="n">
-        <v>0.05825042724609375</v>
+        <v>0.08217835426330566</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.01153969764709473</v>
+        <v>0.01339006423950195</v>
       </c>
       <c r="F171" t="n">
-        <v>0.04109311103820801</v>
+        <v>0.05715465545654297</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.0342552661895752</v>
+        <v>0.03237390518188477</v>
       </c>
       <c r="F172" t="n">
-        <v>0.07739090919494629</v>
+        <v>0.09962081909179688</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.05090951919555664</v>
+        <v>0.05324339866638184</v>
       </c>
       <c r="F173" t="n">
-        <v>0.07840895652770996</v>
+        <v>0.1443531513214111</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.005797386169433594</v>
+        <v>0.007675886154174805</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05247950553894043</v>
+        <v>0.07630252838134766</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.0337679386138916</v>
+        <v>0.03215360641479492</v>
       </c>
       <c r="F175" t="n">
-        <v>0.07393312454223633</v>
+        <v>0.2194240093231201</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.01479554176330566</v>
+        <v>0.01384973526000977</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04672741889953613</v>
+        <v>1.137229204177856</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6409,10 +6409,10 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.01660037040710449</v>
+        <v>0.01564598083496094</v>
       </c>
       <c r="F177" t="n">
-        <v>0.06130838394165039</v>
+        <v>0.1042866706848145</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.01646542549133301</v>
+        <v>0.01793837547302246</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04619503021240234</v>
+        <v>0.1026735305786133</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.02246785163879395</v>
+        <v>0.0166165828704834</v>
       </c>
       <c r="F179" t="n">
-        <v>0.05521488189697266</v>
+        <v>0.06842374801635742</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.01296019554138184</v>
+        <v>0.01183390617370605</v>
       </c>
       <c r="F180" t="n">
-        <v>0.04816341400146484</v>
+        <v>0.08107209205627441</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6547,10 +6547,10 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.01268649101257324</v>
+        <v>0.0127558708190918</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05023026466369629</v>
+        <v>0.1133618354797363</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.01041221618652344</v>
+        <v>0.0107884407043457</v>
       </c>
       <c r="F182" t="n">
-        <v>0.04511666297912598</v>
+        <v>0.0410914421081543</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6633,10 +6633,10 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.03727173805236816</v>
+        <v>0.05773806571960449</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1891679763793945</v>
+        <v>0.1933348178863525</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.01631498336791992</v>
+        <v>0.01716852188110352</v>
       </c>
       <c r="F184" t="n">
-        <v>0.07185912132263184</v>
+        <v>0.1123323440551758</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.02871584892272949</v>
+        <v>0.02288603782653809</v>
       </c>
       <c r="F185" t="n">
-        <v>0.05669736862182617</v>
+        <v>0.1167521476745605</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.01186537742614746</v>
+        <v>0.01371407508850098</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03709125518798828</v>
+        <v>0.07716155052185059</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6779,10 +6779,10 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.02846574783325195</v>
+        <v>0.03023386001586914</v>
       </c>
       <c r="F187" t="n">
-        <v>0.06244254112243652</v>
+        <v>0.1384682655334473</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6822,10 +6822,10 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.03848981857299805</v>
+        <v>0.03055334091186523</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0692286491394043</v>
+        <v>0.09121251106262207</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.01341009140014648</v>
+        <v>0.01574850082397461</v>
       </c>
       <c r="F189" t="n">
-        <v>0.04334020614624023</v>
+        <v>0.04303312301635742</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6887,10 +6887,10 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.01208996772766113</v>
+        <v>0.0139458179473877</v>
       </c>
       <c r="F190" t="n">
-        <v>0.05836796760559082</v>
+        <v>0.1536240577697754</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.01923274993896484</v>
+        <v>0.02123594284057617</v>
       </c>
       <c r="F191" t="n">
-        <v>0.08139705657958984</v>
+        <v>0.1544599533081055</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.01280879974365234</v>
+        <v>0.01343011856079102</v>
       </c>
       <c r="F192" t="n">
-        <v>0.06907391548156738</v>
+        <v>0.1012296676635742</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.01129460334777832</v>
+        <v>0.01138782501220703</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04103970527648926</v>
+        <v>0.08621358871459961</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.005582094192504883</v>
+        <v>0.005536317825317383</v>
       </c>
       <c r="F194" t="n">
-        <v>0.04012084007263184</v>
+        <v>0.1804583072662354</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -7048,10 +7048,10 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.01285910606384277</v>
+        <v>0.01385927200317383</v>
       </c>
       <c r="F195" t="n">
-        <v>0.04268836975097656</v>
+        <v>0.05209088325500488</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -7083,10 +7083,10 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.02178859710693359</v>
+        <v>0.01497530937194824</v>
       </c>
       <c r="F196" t="n">
-        <v>0.05239295959472656</v>
+        <v>0.1375136375427246</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.01412272453308105</v>
+        <v>0.01516485214233398</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0459747314453125</v>
+        <v>0.09830832481384277</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -7149,10 +7149,10 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.0145118236541748</v>
+        <v>0.01879405975341797</v>
       </c>
       <c r="F198" t="n">
-        <v>0.06925559043884277</v>
+        <v>1.112481832504272</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.01635837554931641</v>
+        <v>0.01288175582885742</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0461122989654541</v>
+        <v>0.09923553466796875</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7211,10 +7211,10 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.0094451904296875</v>
+        <v>0.007395029067993164</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0683143138885498</v>
+        <v>0.09717631340026855</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.03038430213928223</v>
+        <v>0.02466630935668945</v>
       </c>
       <c r="F201" t="n">
-        <v>0.07534694671630859</v>
+        <v>0.132042407989502</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -7277,10 +7277,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.01031899452209473</v>
+        <v>0.008237838745117188</v>
       </c>
       <c r="F202" t="n">
-        <v>0.04189682006835938</v>
+        <v>0.143568754196167</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.008192062377929688</v>
+        <v>0.007404565811157227</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0430910587310791</v>
+        <v>0.07475042343139648</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.006648063659667969</v>
+        <v>0.007471323013305664</v>
       </c>
       <c r="F204" t="n">
-        <v>0.05022239685058594</v>
+        <v>0.1182971000671387</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -7370,10 +7370,10 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.009590625762939453</v>
+        <v>0.009033679962158203</v>
       </c>
       <c r="F205" t="n">
-        <v>0.03711795806884766</v>
+        <v>0.0662078857421875</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.02660059928894043</v>
+        <v>0.01852297782897949</v>
       </c>
       <c r="F206" t="n">
-        <v>0.05636787414550781</v>
+        <v>0.1013188362121582</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7442,10 +7442,10 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.02143096923828125</v>
+        <v>0.0202934741973877</v>
       </c>
       <c r="F207" t="n">
-        <v>0.06458878517150879</v>
+        <v>0.1212694644927979</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -7473,10 +7473,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.005788803100585938</v>
+        <v>0.006553411483764648</v>
       </c>
       <c r="F208" t="n">
-        <v>0.04222464561462402</v>
+        <v>0.06612515449523926</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -7508,10 +7508,10 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.0125575065612793</v>
+        <v>0.01317334175109863</v>
       </c>
       <c r="F209" t="n">
-        <v>0.03967952728271484</v>
+        <v>0.04010844230651855</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.02040934562683105</v>
+        <v>0.01959347724914551</v>
       </c>
       <c r="F210" t="n">
-        <v>0.04920220375061035</v>
+        <v>0.0541837215423584</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -7585,10 +7585,10 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.03633737564086914</v>
+        <v>0.03863406181335449</v>
       </c>
       <c r="F211" t="n">
-        <v>0.07223939895629883</v>
+        <v>0.09624743461608887</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7616,10 +7616,10 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.009031295776367188</v>
+        <v>0.007963657379150391</v>
       </c>
       <c r="F212" t="n">
-        <v>0.03721475601196289</v>
+        <v>0.07514524459838867</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.01967430114746094</v>
+        <v>0.02187895774841309</v>
       </c>
       <c r="F213" t="n">
-        <v>0.04744386672973633</v>
+        <v>0.06014347076416016</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7682,10 +7682,10 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.01070666313171387</v>
+        <v>0.009397506713867188</v>
       </c>
       <c r="F214" t="n">
-        <v>0.03991889953613281</v>
+        <v>0.0400848388671875</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7713,10 +7713,10 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.007299661636352539</v>
+        <v>0.007544517517089844</v>
       </c>
       <c r="F215" t="n">
-        <v>0.03486824035644531</v>
+        <v>0.05309891700744629</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.01176118850708008</v>
+        <v>0.01236605644226074</v>
       </c>
       <c r="F216" t="n">
-        <v>0.06004023551940918</v>
+        <v>0.04313254356384277</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7775,10 +7775,10 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.009651899337768555</v>
+        <v>0.01178908348083496</v>
       </c>
       <c r="F217" t="n">
-        <v>0.07840466499328613</v>
+        <v>0.07921814918518066</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.05710887908935547</v>
+        <v>0.06701469421386719</v>
       </c>
       <c r="F218" t="n">
-        <v>0.08837151527404785</v>
+        <v>0.1494889259338379</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7841,10 +7841,10 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.00870823860168457</v>
+        <v>0.008500814437866211</v>
       </c>
       <c r="F219" t="n">
-        <v>0.05219602584838867</v>
+        <v>0.04133105278015137</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.0117802619934082</v>
+        <v>0.0153968334197998</v>
       </c>
       <c r="F220" t="n">
-        <v>0.05407333374023438</v>
+        <v>0.08123159408569336</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.01468491554260254</v>
+        <v>0.0146782398223877</v>
       </c>
       <c r="F221" t="n">
-        <v>0.04409456253051758</v>
+        <v>0.04610610008239746</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.01482915878295898</v>
+        <v>0.01459527015686035</v>
       </c>
       <c r="F222" t="n">
-        <v>0.04283332824707031</v>
+        <v>0.05916953086853027</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.01019978523254395</v>
+        <v>0.01016545295715332</v>
       </c>
       <c r="F223" t="n">
-        <v>0.04303765296936035</v>
+        <v>0.2885169982910156</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -8002,10 +8002,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.01334929466247559</v>
+        <v>0.01356053352355957</v>
       </c>
       <c r="F224" t="n">
-        <v>0.06932473182678223</v>
+        <v>0.09617519378662109</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8033,10 +8033,10 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.0157470703125</v>
+        <v>0.01686501502990723</v>
       </c>
       <c r="F225" t="n">
-        <v>0.04526782035827637</v>
+        <v>0.1231720447540283</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.01046967506408691</v>
+        <v>0.0117943286895752</v>
       </c>
       <c r="F226" t="n">
-        <v>0.04412412643432617</v>
+        <v>0.1454012393951416</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.008784055709838867</v>
+        <v>0.008027553558349609</v>
       </c>
       <c r="F227" t="n">
-        <v>0.03609251976013184</v>
+        <v>0.0681002140045166</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -8130,10 +8130,10 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.01662874221801758</v>
+        <v>0.01489543914794922</v>
       </c>
       <c r="F228" t="n">
-        <v>0.05334162712097168</v>
+        <v>0.1244304180145264</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -8161,10 +8161,10 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.01585936546325684</v>
+        <v>0.01359176635742188</v>
       </c>
       <c r="F229" t="n">
-        <v>0.04525899887084961</v>
+        <v>0.1101312637329102</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.01411008834838867</v>
+        <v>0.01200032234191895</v>
       </c>
       <c r="F230" t="n">
-        <v>0.04918551445007324</v>
+        <v>0.08417868614196777</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -8225,10 +8225,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.008856534957885742</v>
+        <v>0.007536411285400391</v>
       </c>
       <c r="F231" t="n">
-        <v>0.04010176658630371</v>
+        <v>0.05914783477783203</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -8258,10 +8258,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.01282572746276855</v>
+        <v>0.008697748184204102</v>
       </c>
       <c r="F232" t="n">
-        <v>0.04027700424194336</v>
+        <v>0.08031010627746582</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8289,10 +8289,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.009072780609130859</v>
+        <v>0.007965087890625</v>
       </c>
       <c r="F233" t="n">
-        <v>0.03715395927429199</v>
+        <v>0.05709528923034668</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -8320,10 +8320,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.00917506217956543</v>
+        <v>0.007913589477539062</v>
       </c>
       <c r="F234" t="n">
-        <v>0.2954428195953369</v>
+        <v>0.09531545639038086</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -8351,10 +8351,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.01571822166442871</v>
+        <v>0.01521873474121094</v>
       </c>
       <c r="F235" t="n">
-        <v>0.05043935775756836</v>
+        <v>0.05017590522766113</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -8390,10 +8390,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.03134918212890625</v>
+        <v>0.030364990234375</v>
       </c>
       <c r="F236" t="n">
-        <v>0.07880544662475586</v>
+        <v>0.07318735122680664</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -8421,10 +8421,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.008806705474853516</v>
+        <v>0.01286053657531738</v>
       </c>
       <c r="F237" t="n">
-        <v>0.04208803176879883</v>
+        <v>0.04106926918029785</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8456,10 +8456,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.02762770652770996</v>
+        <v>0.02094388008117676</v>
       </c>
       <c r="F238" t="n">
-        <v>0.05926632881164551</v>
+        <v>0.05212092399597168</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8489,10 +8489,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.01860904693603516</v>
+        <v>0.01455497741699219</v>
       </c>
       <c r="F239" t="n">
-        <v>0.09846830368041992</v>
+        <v>0.04610133171081543</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8524,10 +8524,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.01968550682067871</v>
+        <v>0.01648902893066406</v>
       </c>
       <c r="F240" t="n">
-        <v>0.05211758613586426</v>
+        <v>0.07099461555480957</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.01486372947692871</v>
+        <v>0.01391720771789551</v>
       </c>
       <c r="F241" t="n">
-        <v>0.04533982276916504</v>
+        <v>0.04214668273925781</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.007994890213012695</v>
+        <v>0.007933616638183594</v>
       </c>
       <c r="F242" t="n">
-        <v>0.190091609954834</v>
+        <v>0.06116485595703125</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8625,10 +8625,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.04044342041015625</v>
+        <v>0.02726650238037109</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0733802318572998</v>
+        <v>0.1064066886901855</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8658,10 +8658,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.01273155212402344</v>
+        <v>0.01516962051391602</v>
       </c>
       <c r="F244" t="n">
-        <v>0.04518556594848633</v>
+        <v>0.082183837890625</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8689,10 +8689,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.0156252384185791</v>
+        <v>0.01523828506469727</v>
       </c>
       <c r="F245" t="n">
-        <v>0.1166212558746338</v>
+        <v>0.0723114013671875</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8720,10 +8720,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.007908105850219727</v>
+        <v>0.007501125335693359</v>
       </c>
       <c r="F246" t="n">
-        <v>0.05328559875488281</v>
+        <v>0.05705714225769043</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -8751,10 +8751,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.01492500305175781</v>
+        <v>0.01152348518371582</v>
       </c>
       <c r="F247" t="n">
-        <v>0.04822874069213867</v>
+        <v>0.04007673263549805</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.006773948669433594</v>
+        <v>0.005995512008666992</v>
       </c>
       <c r="F248" t="n">
-        <v>0.03522109985351562</v>
+        <v>0.04111361503601074</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.009080648422241211</v>
+        <v>0.007830142974853516</v>
       </c>
       <c r="F249" t="n">
-        <v>0.06729960441589355</v>
+        <v>0.1051266193389893</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.01278066635131836</v>
+        <v>0.01176190376281738</v>
       </c>
       <c r="F250" t="n">
-        <v>0.05829119682312012</v>
+        <v>0.04304194450378418</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -8877,10 +8877,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.006518840789794922</v>
+        <v>0.008732318878173828</v>
       </c>
       <c r="F251" t="n">
-        <v>0.03715753555297852</v>
+        <v>0.03507590293884277</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.01405668258666992</v>
+        <v>0.00960230827331543</v>
       </c>
       <c r="F252" t="n">
-        <v>0.04434776306152344</v>
+        <v>0.05313014984130859</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -8941,10 +8941,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.01087427139282227</v>
+        <v>0.00891423225402832</v>
       </c>
       <c r="F253" t="n">
-        <v>0.06365799903869629</v>
+        <v>0.03608942031860352</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.01283788681030273</v>
+        <v>0.01058340072631836</v>
       </c>
       <c r="F254" t="n">
-        <v>0.1055190563201904</v>
+        <v>0.06127023696899414</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -9039,10 +9039,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.07679271697998047</v>
+        <v>0.08710360527038574</v>
       </c>
       <c r="F255" t="n">
-        <v>0.1069715023040771</v>
+        <v>0.1753573417663574</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -9072,10 +9072,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.0163571834564209</v>
+        <v>0.01573514938354492</v>
       </c>
       <c r="F256" t="n">
-        <v>0.06728315353393555</v>
+        <v>0.07711219787597656</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -9111,10 +9111,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.01638627052307129</v>
+        <v>0.01528835296630859</v>
       </c>
       <c r="F257" t="n">
-        <v>0.08836960792541504</v>
+        <v>0.04410648345947266</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -9142,10 +9142,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.007368087768554688</v>
+        <v>0.007920980453491211</v>
       </c>
       <c r="F258" t="n">
-        <v>0.04953765869140625</v>
+        <v>0.03601670265197754</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -9186,10 +9186,10 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.03959751129150391</v>
+        <v>0.02652978897094727</v>
       </c>
       <c r="F259" t="n">
-        <v>0.06978774070739746</v>
+        <v>0.05413436889648438</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
@@ -9225,10 +9225,10 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.01777315139770508</v>
+        <v>0.01965641975402832</v>
       </c>
       <c r="F260" t="n">
-        <v>0.06305575370788574</v>
+        <v>0.05014419555664062</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -9309,10 +9309,10 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.103327751159668</v>
+        <v>0.1310067176818848</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1392655372619629</v>
+        <v>0.2113332748413086</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -9340,10 +9340,10 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.01275181770324707</v>
+        <v>0.01318907737731934</v>
       </c>
       <c r="F262" t="n">
-        <v>0.06122589111328125</v>
+        <v>0.04209399223327637</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -9371,10 +9371,10 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.007115840911865234</v>
+        <v>0.01134657859802246</v>
       </c>
       <c r="F263" t="n">
-        <v>0.03614306449890137</v>
+        <v>0.08499050140380859</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -9406,10 +9406,10 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.01257443428039551</v>
+        <v>0.01843976974487305</v>
       </c>
       <c r="F264" t="n">
-        <v>0.07139015197753906</v>
+        <v>0.1355266571044922</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -9437,10 +9437,10 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.01326465606689453</v>
+        <v>0.01576399803161621</v>
       </c>
       <c r="F265" t="n">
-        <v>0.04617834091186523</v>
+        <v>0.07223868370056152</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.01012086868286133</v>
+        <v>0.008818626403808594</v>
       </c>
       <c r="F266" t="n">
-        <v>0.04006576538085938</v>
+        <v>0.06221437454223633</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -9505,10 +9505,10 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.01477289199829102</v>
+        <v>0.01553654670715332</v>
       </c>
       <c r="F267" t="n">
-        <v>0.04617190361022949</v>
+        <v>0.0691063404083252</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -9546,10 +9546,10 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.01963233947753906</v>
+        <v>0.02146267890930176</v>
       </c>
       <c r="F268" t="n">
-        <v>0.07916808128356934</v>
+        <v>0.05209159851074219</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.01207280158996582</v>
+        <v>0.01276445388793945</v>
       </c>
       <c r="F269" t="n">
-        <v>0.04117107391357422</v>
+        <v>0.07112550735473633</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -9608,10 +9608,10 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.01143932342529297</v>
+        <v>0.01044583320617676</v>
       </c>
       <c r="F270" t="n">
-        <v>0.03915977478027344</v>
+        <v>0.07719683647155762</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -9641,10 +9641,10 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.01260089874267578</v>
+        <v>0.01448988914489746</v>
       </c>
       <c r="F271" t="n">
-        <v>0.05281662940979004</v>
+        <v>0.07317566871643066</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -9672,10 +9672,10 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.007742643356323242</v>
+        <v>0.007004261016845703</v>
       </c>
       <c r="F272" t="n">
-        <v>0.05625271797180176</v>
+        <v>0.1906492710113525</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -9705,10 +9705,10 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.01307129859924316</v>
+        <v>0.01738142967224121</v>
       </c>
       <c r="F273" t="n">
-        <v>0.08655285835266113</v>
+        <v>0.05223464965820312</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -9736,10 +9736,10 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.008329629898071289</v>
+        <v>0.01099205017089844</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0462191104888916</v>
+        <v>0.05223250389099121</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.01498794555664062</v>
+        <v>0.01913809776306152</v>
       </c>
       <c r="F275" t="n">
-        <v>0.04629373550415039</v>
+        <v>0.08421182632446289</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -9798,10 +9798,10 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.01109099388122559</v>
+        <v>0.01182937622070312</v>
       </c>
       <c r="F276" t="n">
-        <v>0.06728672981262207</v>
+        <v>0.0921025276184082</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -9829,10 +9829,10 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.009641647338867188</v>
+        <v>0.0129387378692627</v>
       </c>
       <c r="F277" t="n">
-        <v>0.07041692733764648</v>
+        <v>0.04204821586608887</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -9860,10 +9860,10 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.01229691505432129</v>
+        <v>0.01283049583435059</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0794060230255127</v>
+        <v>0.08106899261474609</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -9891,10 +9891,10 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.008221149444580078</v>
+        <v>0.006453037261962891</v>
       </c>
       <c r="F279" t="n">
-        <v>0.05434703826904297</v>
+        <v>0.04509711265563965</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -9926,10 +9926,10 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.009885787963867188</v>
+        <v>0.009907245635986328</v>
       </c>
       <c r="F280" t="n">
-        <v>0.04736733436584473</v>
+        <v>0.04207777976989746</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -9963,10 +9963,10 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.02751970291137695</v>
+        <v>0.02184295654296875</v>
       </c>
       <c r="F281" t="n">
-        <v>0.07027292251586914</v>
+        <v>0.1022956371307373</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -9994,10 +9994,10 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.009680509567260742</v>
+        <v>0.00948786735534668</v>
       </c>
       <c r="F282" t="n">
-        <v>0.05134129524230957</v>
+        <v>0.04508876800537109</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -10025,10 +10025,10 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.01125049591064453</v>
+        <v>0.01009678840637207</v>
       </c>
       <c r="F283" t="n">
-        <v>0.04144692420959473</v>
+        <v>0.06017875671386719</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -10056,10 +10056,10 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.006505966186523438</v>
+        <v>0.00873565673828125</v>
       </c>
       <c r="F284" t="n">
-        <v>0.03821849822998047</v>
+        <v>0.04401588439941406</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -10087,10 +10087,10 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.008221149444580078</v>
+        <v>0.007814645767211914</v>
       </c>
       <c r="F285" t="n">
-        <v>0.05824112892150879</v>
+        <v>0.04107046127319336</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -10118,10 +10118,10 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.006152868270874023</v>
+        <v>0.007272958755493164</v>
       </c>
       <c r="F286" t="n">
-        <v>0.06530117988586426</v>
+        <v>0.03702640533447266</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -10151,10 +10151,10 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.007296562194824219</v>
+        <v>0.009367704391479492</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0341484546661377</v>
+        <v>0.07706618309020996</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.01353549957275391</v>
+        <v>0.01952338218688965</v>
       </c>
       <c r="F288" t="n">
-        <v>0.04412698745727539</v>
+        <v>0.0481114387512207</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -10217,10 +10217,10 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.01106977462768555</v>
+        <v>0.01204919815063477</v>
       </c>
       <c r="F289" t="n">
-        <v>0.04224395751953125</v>
+        <v>0.06910204887390137</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -10254,10 +10254,10 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.0112311840057373</v>
+        <v>0.01241683959960938</v>
       </c>
       <c r="F290" t="n">
-        <v>0.04829263687133789</v>
+        <v>0.1525321006774902</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -10289,10 +10289,10 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.03104662895202637</v>
+        <v>0.02832341194152832</v>
       </c>
       <c r="F291" t="n">
-        <v>0.09892559051513672</v>
+        <v>0.07318377494812012</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -10322,10 +10322,10 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.01622700691223145</v>
+        <v>0.02406215667724609</v>
       </c>
       <c r="F292" t="n">
-        <v>0.08811092376708984</v>
+        <v>0.08117485046386719</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -10355,10 +10355,10 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.008488178253173828</v>
+        <v>0.009668827056884766</v>
       </c>
       <c r="F293" t="n">
-        <v>0.064361572265625</v>
+        <v>0.1011781692504883</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -10386,10 +10386,10 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.01029205322265625</v>
+        <v>0.01011514663696289</v>
       </c>
       <c r="F294" t="n">
-        <v>0.04837870597839355</v>
+        <v>0.0491487979888916</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -10419,10 +10419,10 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.006569147109985352</v>
+        <v>0.006548166275024414</v>
       </c>
       <c r="F295" t="n">
-        <v>0.03813719749450684</v>
+        <v>0.0401005744934082</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -10454,10 +10454,10 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.00953364372253418</v>
+        <v>0.01023364067077637</v>
       </c>
       <c r="F296" t="n">
-        <v>0.04521059989929199</v>
+        <v>0.06378340721130371</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -10487,10 +10487,10 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.01225900650024414</v>
+        <v>0.01180028915405273</v>
       </c>
       <c r="F297" t="n">
-        <v>0.05531835556030273</v>
+        <v>0.05710005760192871</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -10520,10 +10520,10 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.0130622386932373</v>
+        <v>0.01217389106750488</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0502009391784668</v>
+        <v>0.1019096374511719</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -10569,10 +10569,10 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.02592825889587402</v>
+        <v>0.03240466117858887</v>
       </c>
       <c r="F299" t="n">
-        <v>0.05399274826049805</v>
+        <v>0.06213259696960449</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.02437543869018555</v>
+        <v>0.02462267875671387</v>
       </c>
       <c r="F300" t="n">
-        <v>0.05930519104003906</v>
+        <v>0.08712649345397949</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -10637,10 +10637,10 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.02615451812744141</v>
+        <v>0.02624249458312988</v>
       </c>
       <c r="F301" t="n">
-        <v>0.07634568214416504</v>
+        <v>0.1013364791870117</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -10670,10 +10670,10 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.01426839828491211</v>
+        <v>0.01362895965576172</v>
       </c>
       <c r="F302" t="n">
-        <v>0.04484319686889648</v>
+        <v>0.07525181770324707</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -10703,10 +10703,10 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.009423971176147461</v>
+        <v>0.01053571701049805</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0397651195526123</v>
+        <v>0.05111551284790039</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -10735,10 +10735,10 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.01130580902099609</v>
+        <v>0.01474928855895996</v>
       </c>
       <c r="F304" t="n">
-        <v>0.04972577095031738</v>
+        <v>0.05221891403198242</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -10774,10 +10774,10 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.01942944526672363</v>
+        <v>0.02393364906311035</v>
       </c>
       <c r="F305" t="n">
-        <v>0.07166123390197754</v>
+        <v>0.1974232196807861</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -10809,10 +10809,10 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.01242470741271973</v>
+        <v>0.01235413551330566</v>
       </c>
       <c r="F306" t="n">
-        <v>0.04114437103271484</v>
+        <v>0.05610847473144531</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -10852,10 +10852,10 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.01531076431274414</v>
+        <v>0.01377677917480469</v>
       </c>
       <c r="F307" t="n">
-        <v>0.04616451263427734</v>
+        <v>0.1141834259033203</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0.01563024520874023</v>
+        <v>0.01578927040100098</v>
       </c>
       <c r="F308" t="n">
-        <v>0.05425238609313965</v>
+        <v>0.05011677742004395</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -10922,10 +10922,10 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>0.01286935806274414</v>
+        <v>0.0113990306854248</v>
       </c>
       <c r="F309" t="n">
-        <v>0.04039502143859863</v>
+        <v>0.08434128761291504</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -10955,10 +10955,10 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.007196187973022461</v>
+        <v>0.007402658462524414</v>
       </c>
       <c r="F310" t="n">
-        <v>0.08378434181213379</v>
+        <v>0.03609156608581543</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -10988,10 +10988,10 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>0.01333403587341309</v>
+        <v>0.0140843391418457</v>
       </c>
       <c r="F311" t="n">
-        <v>0.04230141639709473</v>
+        <v>0.08813142776489258</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -11019,10 +11019,10 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.007345676422119141</v>
+        <v>0.006756782531738281</v>
       </c>
       <c r="F312" t="n">
-        <v>0.06934571266174316</v>
+        <v>0.0393974781036377</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -11052,10 +11052,10 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>0.008325338363647461</v>
+        <v>0.007392406463623047</v>
       </c>
       <c r="F313" t="n">
-        <v>0.03713011741638184</v>
+        <v>0.04706287384033203</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -11083,10 +11083,10 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>0.01519513130187988</v>
+        <v>0.01274514198303223</v>
       </c>
       <c r="F314" t="n">
-        <v>0.09248089790344238</v>
+        <v>0.1153247356414795</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -11114,10 +11114,10 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>0.009302139282226562</v>
+        <v>0.01067805290222168</v>
       </c>
       <c r="F315" t="n">
-        <v>0.03615045547485352</v>
+        <v>0.07432341575622559</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -11165,10 +11165,10 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.02794432640075684</v>
+        <v>0.02554059028625488</v>
       </c>
       <c r="F316" t="n">
-        <v>0.06222414970397949</v>
+        <v>0.09826970100402832</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -11204,10 +11204,10 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.01061487197875977</v>
+        <v>0.01342630386352539</v>
       </c>
       <c r="F317" t="n">
-        <v>0.04208183288574219</v>
+        <v>0.04999399185180664</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -11235,10 +11235,10 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>0.008551836013793945</v>
+        <v>0.009190082550048828</v>
       </c>
       <c r="F318" t="n">
-        <v>0.06226634979248047</v>
+        <v>0.0840909481048584</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -11269,10 +11269,10 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.008763790130615234</v>
+        <v>0.01159906387329102</v>
       </c>
       <c r="F319" t="n">
-        <v>0.03724241256713867</v>
+        <v>0.1182138919830322</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -11308,10 +11308,10 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>0.03664350509643555</v>
+        <v>0.03391480445861816</v>
       </c>
       <c r="F320" t="n">
-        <v>0.06604504585266113</v>
+        <v>0.1583361625671387</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -11339,10 +11339,10 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>0.01115751266479492</v>
+        <v>0.009846687316894531</v>
       </c>
       <c r="F321" t="n">
-        <v>0.04261422157287598</v>
+        <v>0.1052391529083252</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -11370,10 +11370,10 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>0.006896257400512695</v>
+        <v>0.007290363311767578</v>
       </c>
       <c r="F322" t="n">
-        <v>0.04098248481750488</v>
+        <v>0.2113170623779297</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0.007231473922729492</v>
+        <v>0.009524822235107422</v>
       </c>
       <c r="F323" t="n">
-        <v>0.03926467895507812</v>
+        <v>0.1532082557678223</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -11432,10 +11432,10 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.006089687347412109</v>
+        <v>0.005948305130004883</v>
       </c>
       <c r="F324" t="n">
-        <v>0.04321885108947754</v>
+        <v>0.06112360954284668</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.01550817489624023</v>
+        <v>0.01151156425476074</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0451045036315918</v>
+        <v>0.181363582611084</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -11498,10 +11498,10 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.01235342025756836</v>
+        <v>0.01265716552734375</v>
       </c>
       <c r="F326" t="n">
-        <v>0.05536890029907227</v>
+        <v>0.1305875778198242</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.01636028289794922</v>
+        <v>0.02089953422546387</v>
       </c>
       <c r="F327" t="n">
-        <v>0.05317997932434082</v>
+        <v>0.06007170677185059</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.008546352386474609</v>
       </c>
       <c r="F328" t="n">
-        <v>0.04031729698181152</v>
+        <v>0.07616233825683594</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -11596,10 +11596,10 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.02098917961120605</v>
+        <v>0.01448893547058105</v>
       </c>
       <c r="F329" t="n">
-        <v>0.05324149131774902</v>
+        <v>0.08222055435180664</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -11630,10 +11630,10 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.01018095016479492</v>
+        <v>0.008488178253173828</v>
       </c>
       <c r="F330" t="n">
-        <v>0.03717136383056641</v>
+        <v>0.0762016773223877</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.02894687652587891</v>
+        <v>0.03147482872009277</v>
       </c>
       <c r="F331" t="n">
-        <v>0.05639195442199707</v>
+        <v>0.09520149230957031</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.008077144622802734</v>
+        <v>0.007422924041748047</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0613868236541748</v>
+        <v>0.07415318489074707</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -11741,10 +11741,10 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>0.009604692459106445</v>
+        <v>0.01098203659057617</v>
       </c>
       <c r="F333" t="n">
-        <v>0.03754878044128418</v>
+        <v>0.04106783866882324</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -11774,10 +11774,10 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.01033329963684082</v>
+        <v>0.008872270584106445</v>
       </c>
       <c r="F334" t="n">
-        <v>0.04557466506958008</v>
+        <v>0.04825687408447266</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>0.008378028869628906</v>
+        <v>0.009407997131347656</v>
       </c>
       <c r="F335" t="n">
-        <v>0.03913354873657227</v>
+        <v>0.06199145317077637</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -11842,10 +11842,10 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.00680994987487793</v>
+        <v>0.007591485977172852</v>
       </c>
       <c r="F336" t="n">
-        <v>0.03412938117980957</v>
+        <v>0.05502438545227051</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.0181889533996582</v>
+        <v>0.02013826370239258</v>
       </c>
       <c r="F337" t="n">
-        <v>0.04724931716918945</v>
+        <v>0.04910635948181152</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -11908,10 +11908,10 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.007912158966064453</v>
+        <v>0.008923768997192383</v>
       </c>
       <c r="F338" t="n">
-        <v>0.0364832878112793</v>
+        <v>0.08033537864685059</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -11941,10 +11941,10 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.007669210433959961</v>
+        <v>0.008998632431030273</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0379481315612793</v>
+        <v>0.1653571128845215</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -11974,10 +11974,10 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.009606599807739258</v>
+        <v>0.01096081733703613</v>
       </c>
       <c r="F340" t="n">
-        <v>0.04649472236633301</v>
+        <v>0.07903575897216797</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.009235382080078125</v>
+        <v>0.01116085052490234</v>
       </c>
       <c r="F341" t="n">
-        <v>1.048410892486572</v>
+        <v>0.1634523868560791</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -12036,10 +12036,10 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.009935140609741211</v>
+        <v>0.008488893508911133</v>
       </c>
       <c r="F342" t="n">
-        <v>0.03909587860107422</v>
+        <v>0.05912184715270996</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -12067,10 +12067,10 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.007973194122314453</v>
+        <v>0.009466409683227539</v>
       </c>
       <c r="F343" t="n">
-        <v>0.03517317771911621</v>
+        <v>0.172264575958252</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.01210689544677734</v>
+        <v>0.01351523399353027</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0635993480682373</v>
+        <v>0.1050012111663818</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -12135,10 +12135,10 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.01050853729248047</v>
+        <v>0.009642362594604492</v>
       </c>
       <c r="F345" t="n">
-        <v>0.04108333587646484</v>
+        <v>0.07225346565246582</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -12168,10 +12168,10 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>0.01326870918273926</v>
+        <v>0.01544904708862305</v>
       </c>
       <c r="F346" t="n">
-        <v>0.03948593139648438</v>
+        <v>0.07207107543945312</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -12204,10 +12204,10 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.0171663761138916</v>
+        <v>0.0202796459197998</v>
       </c>
       <c r="F347" t="n">
-        <v>0.04921603202819824</v>
+        <v>0.06714248657226562</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -12239,10 +12239,10 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.01325750350952148</v>
+        <v>0.01187252998352051</v>
       </c>
       <c r="F348" t="n">
-        <v>0.04616451263427734</v>
+        <v>0.09326028823852539</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -12272,10 +12272,10 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.01423549652099609</v>
+        <v>0.01259970664978027</v>
       </c>
       <c r="F349" t="n">
-        <v>0.04824924468994141</v>
+        <v>0.1593496799468994</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -12303,10 +12303,10 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.01146340370178223</v>
+        <v>0.01177716255187988</v>
       </c>
       <c r="F350" t="n">
-        <v>0.06636524200439453</v>
+        <v>0.1283795833587646</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -12336,10 +12336,10 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.01075243949890137</v>
+        <v>0.01535868644714355</v>
       </c>
       <c r="F351" t="n">
-        <v>0.05222415924072266</v>
+        <v>0.04799556732177734</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -12367,10 +12367,10 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.01243138313293457</v>
+        <v>0.01557421684265137</v>
       </c>
       <c r="F352" t="n">
-        <v>0.0452125072479248</v>
+        <v>0.07822418212890625</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -12398,10 +12398,10 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.007430315017700195</v>
+        <v>0.007264614105224609</v>
       </c>
       <c r="F353" t="n">
-        <v>0.03720736503601074</v>
+        <v>0.109999418258667</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.006831169128417969</v>
+        <v>0.006990194320678711</v>
       </c>
       <c r="F354" t="n">
-        <v>0.03422188758850098</v>
+        <v>0.1071269512176514</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -12463,10 +12463,10 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.01314544677734375</v>
+        <v>0.01161313056945801</v>
       </c>
       <c r="F355" t="n">
-        <v>0.05918765068054199</v>
+        <v>0.1452054977416992</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -12496,10 +12496,10 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.009645938873291016</v>
+        <v>0.01092815399169922</v>
       </c>
       <c r="F356" t="n">
-        <v>0.04210901260375977</v>
+        <v>0.06110477447509766</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -12527,10 +12527,10 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.006040811538696289</v>
+        <v>0.006567478179931641</v>
       </c>
       <c r="F357" t="n">
-        <v>0.04521512985229492</v>
+        <v>0.09819817543029785</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -12566,10 +12566,10 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.03451251983642578</v>
+        <v>0.02778220176696777</v>
       </c>
       <c r="F358" t="n">
-        <v>0.06725311279296875</v>
+        <v>0.07715988159179688</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -12607,10 +12607,10 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.0142512321472168</v>
+        <v>0.02135276794433594</v>
       </c>
       <c r="F359" t="n">
-        <v>0.07024288177490234</v>
+        <v>0.05207419395446777</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -12666,10 +12666,10 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.08330512046813965</v>
+        <v>0.08810138702392578</v>
       </c>
       <c r="F360" t="n">
-        <v>0.112724781036377</v>
+        <v>0.148381233215332</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.00697636604309082</v>
+        <v>0.007951736450195312</v>
       </c>
       <c r="F361" t="n">
-        <v>0.04024696350097656</v>
+        <v>0.1291377544403076</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -12734,10 +12734,10 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.01433873176574707</v>
+        <v>0.01386928558349609</v>
       </c>
       <c r="F362" t="n">
-        <v>0.0693519115447998</v>
+        <v>0.06915068626403809</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -12793,10 +12793,10 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.06121492385864258</v>
+        <v>0.0503082275390625</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0926969051361084</v>
+        <v>0.0812220573425293</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -12826,10 +12826,10 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.009350299835205078</v>
+        <v>0.009224176406860352</v>
       </c>
       <c r="F364" t="n">
-        <v>0.03822731971740723</v>
+        <v>0.1383280754089355</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.007140159606933594</v>
+        <v>0.006003618240356445</v>
       </c>
       <c r="F365" t="n">
-        <v>0.03712868690490723</v>
+        <v>0.06907415390014648</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -12894,10 +12894,10 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.01930117607116699</v>
+        <v>0.01955914497375488</v>
       </c>
       <c r="F366" t="n">
-        <v>0.05623841285705566</v>
+        <v>0.04807925224304199</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -12925,10 +12925,10 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.007246732711791992</v>
+        <v>0.006073713302612305</v>
       </c>
       <c r="F367" t="n">
-        <v>0.03515172004699707</v>
+        <v>0.04710030555725098</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -12960,10 +12960,10 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.01067090034484863</v>
+        <v>0.008490800857543945</v>
       </c>
       <c r="F368" t="n">
-        <v>0.06542706489562988</v>
+        <v>0.1212329864501953</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -12991,10 +12991,10 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.01343774795532227</v>
+        <v>0.01081490516662598</v>
       </c>
       <c r="F369" t="n">
-        <v>0.04226303100585938</v>
+        <v>0.04514122009277344</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -13024,10 +13024,10 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.01538729667663574</v>
+        <v>0.01502037048339844</v>
       </c>
       <c r="F370" t="n">
-        <v>0.04818296432495117</v>
+        <v>0.05408811569213867</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -13057,10 +13057,10 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.009683847427368164</v>
+        <v>0.009554386138916016</v>
       </c>
       <c r="F371" t="n">
-        <v>0.03713822364807129</v>
+        <v>0.04400992393493652</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -13094,10 +13094,10 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>0.01330709457397461</v>
+        <v>0.01365137100219727</v>
       </c>
       <c r="F372" t="n">
-        <v>0.04328584671020508</v>
+        <v>0.08621907234191895</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -13129,10 +13129,10 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.02716851234436035</v>
+        <v>0.03247547149658203</v>
       </c>
       <c r="F373" t="n">
-        <v>0.07878279685974121</v>
+        <v>0.07410001754760742</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -13160,10 +13160,10 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.009061336517333984</v>
+        <v>0.00923609733581543</v>
       </c>
       <c r="F374" t="n">
-        <v>0.03571367263793945</v>
+        <v>0.03699350357055664</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -13193,10 +13193,10 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.01809906959533691</v>
+        <v>0.0172111988067627</v>
       </c>
       <c r="F375" t="n">
-        <v>0.04887080192565918</v>
+        <v>0.05610513687133789</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -13226,10 +13226,10 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.0177760124206543</v>
+        <v>0.02367687225341797</v>
       </c>
       <c r="F376" t="n">
-        <v>0.07834649085998535</v>
+        <v>0.0610039234161377</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -13259,10 +13259,10 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.01641535758972168</v>
+        <v>0.02458930015563965</v>
       </c>
       <c r="F377" t="n">
-        <v>0.04543590545654297</v>
+        <v>0.1790323257446289</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -13290,10 +13290,10 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>0.01351261138916016</v>
+        <v>0.009303092956542969</v>
       </c>
       <c r="F378" t="n">
-        <v>0.04216217994689941</v>
+        <v>0.09115958213806152</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -13327,10 +13327,10 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.0165550708770752</v>
+        <v>0.01433920860290527</v>
       </c>
       <c r="F379" t="n">
-        <v>0.05563569068908691</v>
+        <v>0.04405045509338379</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -13362,10 +13362,10 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.01484823226928711</v>
+        <v>0.01385641098022461</v>
       </c>
       <c r="F380" t="n">
-        <v>0.04732680320739746</v>
+        <v>0.06211686134338379</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -13397,10 +13397,10 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.03518986701965332</v>
+        <v>0.03177547454833984</v>
       </c>
       <c r="F381" t="n">
-        <v>0.06325340270996094</v>
+        <v>0.08908414840698242</v>
       </c>
       <c r="G381" t="inlineStr">
         <is>
@@ -13430,10 +13430,10 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.02324962615966797</v>
+        <v>0.01612091064453125</v>
       </c>
       <c r="F382" t="n">
-        <v>0.05453753471374512</v>
+        <v>0.08614921569824219</v>
       </c>
       <c r="G382" t="inlineStr">
         <is>
@@ -13465,10 +13465,10 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.01292324066162109</v>
+        <v>0.009888887405395508</v>
       </c>
       <c r="F383" t="n">
-        <v>0.04399585723876953</v>
+        <v>0.05804181098937988</v>
       </c>
       <c r="G383" t="inlineStr">
         <is>
@@ -13499,10 +13499,10 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.01066374778747559</v>
+        <v>0.0119626522064209</v>
       </c>
       <c r="F384" t="n">
-        <v>0.05116677284240723</v>
+        <v>0.04213500022888184</v>
       </c>
       <c r="G384" t="inlineStr">
         <is>
@@ -13530,10 +13530,10 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.01130342483520508</v>
+        <v>0.008077383041381836</v>
       </c>
       <c r="F385" t="n">
-        <v>0.04579687118530273</v>
+        <v>0.0661320686340332</v>
       </c>
       <c r="G385" t="inlineStr">
         <is>
@@ -13561,10 +13561,10 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.01592063903808594</v>
+        <v>0.01459980010986328</v>
       </c>
       <c r="F386" t="n">
-        <v>0.04554080963134766</v>
+        <v>0.06619930267333984</v>
       </c>
       <c r="G386" t="inlineStr">
         <is>
@@ -13596,10 +13596,10 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.009460687637329102</v>
+        <v>0.01105999946594238</v>
       </c>
       <c r="F387" t="n">
-        <v>0.04526638984680176</v>
+        <v>0.06823468208312988</v>
       </c>
       <c r="G387" t="inlineStr">
         <is>
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.006454706192016602</v>
+        <v>0.006021738052368164</v>
       </c>
       <c r="F388" t="n">
-        <v>0.04018449783325195</v>
+        <v>0.07815361022949219</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -13658,10 +13658,10 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.0117950439453125</v>
+        <v>0.01191568374633789</v>
       </c>
       <c r="F389" t="n">
-        <v>0.05320477485656738</v>
+        <v>0.07117748260498047</v>
       </c>
       <c r="G389" t="inlineStr">
         <is>
@@ -13691,10 +13691,10 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.02295994758605957</v>
+        <v>0.02192544937133789</v>
       </c>
       <c r="F390" t="n">
-        <v>0.08838629722595215</v>
+        <v>0.08219003677368164</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -13722,10 +13722,10 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.01992106437683105</v>
+        <v>0.01810956001281738</v>
       </c>
       <c r="F391" t="n">
-        <v>0.04865884780883789</v>
+        <v>0.06316494941711426</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -13753,10 +13753,10 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.008774280548095703</v>
+        <v>0.008576631546020508</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0821681022644043</v>
+        <v>0.04809117317199707</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -13784,10 +13784,10 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.01951980590820312</v>
+        <v>0.01917004585266113</v>
       </c>
       <c r="F393" t="n">
-        <v>0.04902553558349609</v>
+        <v>0.05021834373474121</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -13819,10 +13819,10 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.01542139053344727</v>
+        <v>0.013336181640625</v>
       </c>
       <c r="F394" t="n">
-        <v>0.07032561302185059</v>
+        <v>0.06519460678100586</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -13854,10 +13854,10 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.01249933242797852</v>
+        <v>0.01106882095336914</v>
       </c>
       <c r="F395" t="n">
-        <v>0.04218578338623047</v>
+        <v>0.03902769088745117</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -13889,10 +13889,10 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>0.01057839393615723</v>
+        <v>0.009479045867919922</v>
       </c>
       <c r="F396" t="n">
-        <v>0.07927274703979492</v>
+        <v>0.1322619915008545</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -13922,10 +13922,10 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>0.01018643379211426</v>
+        <v>0.008606433868408203</v>
       </c>
       <c r="F397" t="n">
-        <v>0.03905200958251953</v>
+        <v>0.05116391181945801</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -13953,10 +13953,10 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>0.01389145851135254</v>
+        <v>0.01259541511535645</v>
       </c>
       <c r="F398" t="n">
-        <v>0.05814027786254883</v>
+        <v>0.1141457557678223</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -13986,10 +13986,10 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>0.01170754432678223</v>
+        <v>0.0128636360168457</v>
       </c>
       <c r="F399" t="n">
-        <v>0.04211664199829102</v>
+        <v>0.07908821105957031</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -14019,10 +14019,10 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.007626771926879883</v>
+        <v>0.008057117462158203</v>
       </c>
       <c r="F400" t="n">
-        <v>0.03728079795837402</v>
+        <v>0.04199981689453125</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -14058,10 +14058,10 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>0.02540802955627441</v>
+        <v>0.02832269668579102</v>
       </c>
       <c r="F401" t="n">
-        <v>0.06833434104919434</v>
+        <v>0.07300496101379395</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -14089,10 +14089,10 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.009626388549804688</v>
+        <v>0.008322477340698242</v>
       </c>
       <c r="F402" t="n">
-        <v>0.04015541076660156</v>
+        <v>0.07700562477111816</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -14120,10 +14120,10 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.00671076774597168</v>
+        <v>0.006585121154785156</v>
       </c>
       <c r="F403" t="n">
-        <v>0.06237649917602539</v>
+        <v>0.0421595573425293</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
